--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E7154-3DF6-8B48-9115-230B2E97BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDABD44-D5C6-C844-9668-E896E0AD629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="479">
   <si>
     <t>OMV identifier</t>
   </si>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t>Diphukwe's Address</t>
-  </si>
-  <si>
-    <t>Southern Africa</t>
   </si>
   <si>
     <t>reported</t>
@@ -2101,9 +2098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2128,7 +2125,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -2218,16 +2215,16 @@
         <v>12</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="43" t="s">
+        <v>477</v>
+      </c>
+      <c r="P3" s="43" t="s">
         <v>478</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>479</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -2246,7 +2243,7 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -2269,7 +2266,9 @@
       <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2291,7 +2290,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
@@ -2316,7 +2315,9 @@
         <v>28</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="L5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>29</v>
       </c>
@@ -2391,7 +2392,7 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -2436,11 +2437,11 @@
         <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -2467,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>14</v>
@@ -2487,13 +2488,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -2511,7 +2512,7 @@
         <v>167</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K9" s="11">
         <v>44198</v>
@@ -2520,7 +2521,7 @@
         <v>46</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>14</v>
@@ -2550,17 +2551,17 @@
         <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="12">
         <v>15</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="12" t="s">
@@ -2591,7 +2592,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>56</v>
@@ -2636,7 +2637,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>56</v>
@@ -2771,7 +2772,7 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>56</v>
@@ -2834,10 +2835,10 @@
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>14</v>
@@ -2854,22 +2855,22 @@
     </row>
     <row r="17" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="G17" s="12">
         <v>1804</v>
@@ -2879,17 +2880,17 @@
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -2903,20 +2904,20 @@
     </row>
     <row r="18" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="G18" s="12">
         <v>1878</v>
@@ -2931,10 +2932,10 @@
         <v>16</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -2948,26 +2949,26 @@
     </row>
     <row r="19" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="I19" s="12">
         <v>44</v>
@@ -2982,10 +2983,10 @@
         <v>16</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -2999,28 +3000,28 @@
     </row>
     <row r="20" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="E20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>127</v>
       </c>
       <c r="I20" s="12">
         <v>46</v>
@@ -3035,10 +3036,10 @@
         <v>16</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -3052,40 +3053,40 @@
     </row>
     <row r="21" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="H21" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -3099,26 +3100,26 @@
     </row>
     <row r="22" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>158</v>
-      </c>
       <c r="H22" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I22" s="16">
         <v>49</v>
@@ -3128,13 +3129,13 @@
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -3173,23 +3174,23 @@
     </row>
     <row r="24" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>192</v>
       </c>
       <c r="H24" s="20">
         <v>1</v>
@@ -3202,17 +3203,17 @@
       </c>
       <c r="K24" s="20"/>
       <c r="L24" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="P24" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>195</v>
       </c>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
@@ -3227,23 +3228,23 @@
     </row>
     <row r="25" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>196</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>197</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>199</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>200</v>
       </c>
       <c r="H25" s="20">
         <v>1</v>
@@ -3252,21 +3253,21 @@
         <v>13</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K25" s="20"/>
       <c r="L25" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N25" s="12"/>
       <c r="O25" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
@@ -3281,23 +3282,23 @@
     </row>
     <row r="26" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="H26" s="20">
         <v>1</v>
@@ -3306,21 +3307,21 @@
         <v>14</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="20" t="s">
         <v>209</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>210</v>
       </c>
       <c r="N26" s="12"/>
       <c r="O26" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
@@ -3335,23 +3336,23 @@
     </row>
     <row r="27" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>213</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F27" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="H27" s="20">
         <v>1</v>
@@ -3360,21 +3361,21 @@
         <v>14</v>
       </c>
       <c r="J27" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
@@ -3389,23 +3390,23 @@
     </row>
     <row r="28" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>217</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>218</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="G28" s="22" t="s">
         <v>220</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>221</v>
       </c>
       <c r="H28" s="20">
         <v>1</v>
@@ -3414,21 +3415,21 @@
         <v>17</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
@@ -3443,23 +3444,23 @@
     </row>
     <row r="29" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>226</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>229</v>
       </c>
       <c r="H29" s="20">
         <v>1</v>
@@ -3468,21 +3469,21 @@
         <v>18</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
@@ -3497,23 +3498,23 @@
     </row>
     <row r="30" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>233</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>234</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="F30" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="G30" s="22" t="s">
         <v>237</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="H30" s="20"/>
       <c r="I30" s="20">
@@ -3524,17 +3525,17 @@
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" s="20" t="s">
         <v>239</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>240</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
@@ -3549,23 +3550,23 @@
     </row>
     <row r="31" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>243</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="F31" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="G31" s="22" t="s">
         <v>246</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>247</v>
       </c>
       <c r="H31" s="20">
         <v>1</v>
@@ -3574,21 +3575,21 @@
         <v>2</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="M31" s="20" t="s">
-        <v>250</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
@@ -3603,23 +3604,23 @@
     </row>
     <row r="32" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>252</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>253</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="G32" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="H32" s="20">
         <v>1</v>
@@ -3628,21 +3629,21 @@
         <v>19</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
         <v>65</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
@@ -3657,23 +3658,23 @@
     </row>
     <row r="33" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>260</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>261</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="22" t="s">
         <v>263</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>264</v>
       </c>
       <c r="H33" s="20">
         <v>2</v>
@@ -3682,21 +3683,21 @@
         <v>3</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" s="20" t="s">
         <v>266</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>267</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
@@ -3711,23 +3712,23 @@
     </row>
     <row r="34" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>269</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>270</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>273</v>
       </c>
       <c r="H34" s="20">
         <v>2</v>
@@ -3736,21 +3737,21 @@
         <v>4</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -3765,23 +3766,23 @@
     </row>
     <row r="35" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>275</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>276</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="22" t="s">
         <v>278</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>279</v>
       </c>
       <c r="H35" s="20">
         <v>2</v>
@@ -3790,21 +3791,21 @@
         <v>6</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -3819,23 +3820,23 @@
     </row>
     <row r="36" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>283</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>284</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="H36" s="20">
         <v>2</v>
@@ -3844,21 +3845,21 @@
         <v>10</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="M36" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>290</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3873,23 +3874,23 @@
     </row>
     <row r="37" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>292</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>293</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F37" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="H37" s="20">
         <v>2</v>
@@ -3902,17 +3903,17 @@
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3927,23 +3928,23 @@
     </row>
     <row r="38" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>297</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="G38" s="22" t="s">
         <v>300</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>301</v>
       </c>
       <c r="H38" s="20">
         <v>2</v>
@@ -3952,21 +3953,21 @@
         <v>9</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
@@ -3981,23 +3982,23 @@
     </row>
     <row r="39" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="H39" s="20">
         <v>2</v>
@@ -4006,21 +4007,21 @@
         <v>10</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M39" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
@@ -4035,23 +4036,23 @@
     </row>
     <row r="40" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F40" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>310</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>311</v>
       </c>
       <c r="H40" s="20">
         <v>2</v>
@@ -4060,21 +4061,21 @@
         <v>11</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
@@ -4089,23 +4090,23 @@
     </row>
     <row r="41" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F41" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>316</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>317</v>
       </c>
       <c r="H41" s="20">
         <v>2</v>
@@ -4114,21 +4115,21 @@
         <v>12</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
@@ -4143,23 +4144,23 @@
     </row>
     <row r="42" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="E42" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="G42" s="22" t="s">
         <v>324</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>325</v>
       </c>
       <c r="H42" s="20">
         <v>3</v>
@@ -4172,17 +4173,17 @@
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
@@ -4197,23 +4198,23 @@
     </row>
     <row r="43" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F43" s="21" t="s">
+      <c r="G43" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="H43" s="20">
         <v>3</v>
@@ -4222,21 +4223,21 @@
         <v>7</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -4251,23 +4252,23 @@
     </row>
     <row r="44" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F44" s="21" t="s">
+      <c r="G44" s="22" t="s">
         <v>339</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>340</v>
       </c>
       <c r="H44" s="20">
         <v>3</v>
@@ -4276,21 +4277,21 @@
         <v>9</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -4305,23 +4306,23 @@
     </row>
     <row r="45" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="21" t="s">
+      <c r="G45" s="22" t="s">
         <v>346</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>347</v>
       </c>
       <c r="H45" s="20">
         <v>3</v>
@@ -4330,21 +4331,21 @@
         <v>11</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="M45" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="M45" s="20" t="s">
-        <v>350</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
@@ -4359,23 +4360,23 @@
     </row>
     <row r="46" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>353</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F46" s="21" t="s">
+      <c r="G46" s="22" t="s">
         <v>355</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>356</v>
       </c>
       <c r="H46" s="20">
         <v>4</v>
@@ -4384,21 +4385,21 @@
         <v>6</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
@@ -4413,23 +4414,23 @@
     </row>
     <row r="47" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>360</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>361</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E47" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="21" t="s">
+      <c r="G47" s="22" t="s">
         <v>363</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>364</v>
       </c>
       <c r="H47" s="20">
         <v>4</v>
@@ -4438,21 +4439,21 @@
         <v>7</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
@@ -4467,23 +4468,23 @@
     </row>
     <row r="48" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>367</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>368</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F48" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>132</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>133</v>
       </c>
       <c r="H48" s="20">
         <v>1</v>
@@ -4499,14 +4500,14 @@
         <v>45</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
@@ -4521,25 +4522,25 @@
     </row>
     <row r="49" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="C49" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>375</v>
-      </c>
       <c r="E49" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F49" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="H49" s="20">
         <v>1</v>
@@ -4557,14 +4558,14 @@
         <v>65</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
@@ -4579,23 +4580,23 @@
     </row>
     <row r="50" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>378</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>379</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F50" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>134</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>135</v>
       </c>
       <c r="H50" s="20">
         <v>1</v>
@@ -4610,17 +4611,17 @@
         <v>2</v>
       </c>
       <c r="L50" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="M50" s="20" t="s">
         <v>381</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
@@ -4635,19 +4636,19 @@
     </row>
     <row r="51" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="C51" s="27" t="s">
         <v>385</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="D51" s="20" t="s">
         <v>386</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>387</v>
-      </c>
       <c r="E51" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>69</v>
@@ -4668,17 +4669,17 @@
         <v>44198</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
@@ -4693,23 +4694,23 @@
     </row>
     <row r="52" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>391</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="21" t="s">
+      <c r="G52" s="22" t="s">
         <v>393</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>394</v>
       </c>
       <c r="H52" s="20">
         <v>1</v>
@@ -4724,17 +4725,17 @@
         <v>44198</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
@@ -4749,23 +4750,23 @@
     </row>
     <row r="53" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>397</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>398</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F53" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="E53" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F53" s="21" t="s">
+      <c r="G53" s="22" t="s">
         <v>400</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>401</v>
       </c>
       <c r="H53" s="20">
         <v>1</v>
@@ -4780,17 +4781,17 @@
         <v>2</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
@@ -4805,23 +4806,23 @@
     </row>
     <row r="54" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="E54" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" s="21" t="s">
+      <c r="G54" s="22" t="s">
         <v>407</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>408</v>
       </c>
       <c r="H54" s="20">
         <v>1</v>
@@ -4836,17 +4837,17 @@
         <v>2</v>
       </c>
       <c r="L54" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="M54" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>410</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
@@ -4861,23 +4862,23 @@
     </row>
     <row r="55" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>412</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F55" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>136</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>137</v>
       </c>
       <c r="H55" s="20">
         <v>1</v>
@@ -4886,23 +4887,23 @@
         <v>9</v>
       </c>
       <c r="J55" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="K55" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L55" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="K55" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="L55" s="20" t="s">
+      <c r="M55" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="M55" s="20" t="s">
-        <v>417</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
@@ -4917,17 +4918,17 @@
     </row>
     <row r="56" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>419</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>420</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>66</v>
@@ -4948,17 +4949,17 @@
         <v>44198</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
@@ -4973,17 +4974,17 @@
     </row>
     <row r="57" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>66</v>
@@ -4998,23 +4999,23 @@
         <v>11</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K57" s="20">
         <v>2</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
@@ -5029,17 +5030,17 @@
     </row>
     <row r="58" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>66</v>
@@ -5060,17 +5061,17 @@
         <v>2</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
@@ -5085,17 +5086,17 @@
     </row>
     <row r="59" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B59" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>432</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>73</v>
@@ -5116,17 +5117,17 @@
         <v>2</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
@@ -5141,17 +5142,17 @@
     </row>
     <row r="60" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>436</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>437</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>73</v>
@@ -5166,23 +5167,23 @@
         <v>12</v>
       </c>
       <c r="J60" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="K60" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="K60" s="20" t="s">
+      <c r="L60" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M60" s="20" t="s">
         <v>440</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="M60" s="20" t="s">
-        <v>441</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
@@ -5197,23 +5198,23 @@
     </row>
     <row r="61" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" s="20" t="s">
         <v>443</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>444</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F61" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>139</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>140</v>
       </c>
       <c r="H61" s="20">
         <v>2</v>
@@ -5228,17 +5229,17 @@
         <v>2</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
@@ -5253,17 +5254,17 @@
     </row>
     <row r="62" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>448</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>449</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>80</v>
@@ -5287,14 +5288,14 @@
         <v>45</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
@@ -5309,17 +5310,17 @@
     </row>
     <row r="63" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>453</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>454</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>80</v>
@@ -5343,14 +5344,14 @@
         <v>45</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
@@ -5365,23 +5366,23 @@
     </row>
     <row r="64" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>458</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>459</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F64" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>142</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>143</v>
       </c>
       <c r="H64" s="20">
         <v>2</v>
@@ -5399,14 +5400,14 @@
         <v>45</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
@@ -5421,23 +5422,23 @@
     </row>
     <row r="65" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F65" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G65" s="31" t="s">
         <v>142</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>143</v>
       </c>
       <c r="H65" s="29">
         <v>2</v>
@@ -5446,23 +5447,23 @@
         <v>15</v>
       </c>
       <c r="J65" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="L65" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="M65" s="29" t="s">
         <v>465</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="L65" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="M65" s="29" t="s">
-        <v>466</v>
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
@@ -5477,23 +5478,23 @@
     </row>
     <row r="66" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="B66" s="34" t="s">
         <v>468</v>
-      </c>
-      <c r="B66" s="34" t="s">
-        <v>469</v>
       </c>
       <c r="C66" s="34"/>
       <c r="D66" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F66" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="H66" s="34">
         <v>2</v>
@@ -5502,21 +5503,21 @@
         <v>16</v>
       </c>
       <c r="J66" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K66" s="35"/>
       <c r="L66" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M66" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P66" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q66" s="35"/>
       <c r="R66" s="35"/>
@@ -5531,23 +5532,23 @@
     </row>
     <row r="67" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>473</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>474</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E67" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F67" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G67" s="41" t="s">
         <v>144</v>
-      </c>
-      <c r="G67" s="41" t="s">
-        <v>145</v>
       </c>
       <c r="H67" s="38">
         <v>2</v>
@@ -5562,17 +5563,17 @@
         <v>2</v>
       </c>
       <c r="L67" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M67" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P67" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Q67" s="38"/>
       <c r="R67" s="38"/>

--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDABD44-D5C6-C844-9668-E896E0AD629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C10ED0-338B-EA43-BBA8-9A29DEDDB144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="495">
   <si>
     <t>OMV identifier</t>
   </si>
@@ -1505,6 +1505,54 @@
   </si>
   <si>
     <t>AMD URL</t>
+  </si>
+  <si>
+    <t>liv_025997</t>
+  </si>
+  <si>
+    <t>liv_025998</t>
+  </si>
+  <si>
+    <t>liv_025999</t>
+  </si>
+  <si>
+    <t>Selim Aga</t>
+  </si>
+  <si>
+    <t>The Geographical Journal</t>
+  </si>
+  <si>
+    <t>A Trip Up the Congo or Zaire River</t>
+  </si>
+  <si>
+    <t>1 July 1875</t>
+  </si>
+  <si>
+    <t>1875-07-01</t>
+  </si>
+  <si>
+    <t>203-07</t>
+  </si>
+  <si>
+    <t>West and Central Africa</t>
+  </si>
+  <si>
+    <t>My Parentage and Early Career as a Slave</t>
+  </si>
+  <si>
+    <t>63-69; 120</t>
+  </si>
+  <si>
+    <t>Africa Considered in its Social and Political Condition [...]</t>
+  </si>
+  <si>
+    <t>1853-05</t>
+  </si>
+  <si>
+    <t>May 1853</t>
+  </si>
+  <si>
+    <t>short book</t>
   </si>
 </sst>
 </file>
@@ -2096,11 +2144,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z731"/>
+  <dimension ref="A1:Z735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3164,272 +3212,206 @@
       <c r="N23" s="50"/>
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="H24" s="20">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="12">
         <v>1</v>
       </c>
-      <c r="I24" s="20">
-        <v>1</v>
-      </c>
-      <c r="J24" s="23">
-        <v>44480</v>
-      </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-    </row>
-    <row r="25" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="20">
-        <v>13</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M25" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P25" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-    </row>
-    <row r="26" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26" s="20">
-        <v>1</v>
-      </c>
-      <c r="I26" s="20">
-        <v>14</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-    </row>
-    <row r="27" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="20">
-        <v>14</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M27" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+    </row>
+    <row r="26" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="H26" s="12">
+        <v>2</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H28" s="20">
         <v>1</v>
       </c>
       <c r="I28" s="20">
-        <v>17</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>221</v>
+        <v>1</v>
+      </c>
+      <c r="J28" s="23">
+        <v>44480</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
         <v>188</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
@@ -3444,46 +3426,46 @@
     </row>
     <row r="29" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="H29" s="20">
         <v>1</v>
       </c>
       <c r="I29" s="20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
@@ -3498,44 +3480,46 @@
     </row>
     <row r="30" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="H30" s="20"/>
+        <v>206</v>
+      </c>
+      <c r="H30" s="20">
+        <v>1</v>
+      </c>
       <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="J30" s="20">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
@@ -3550,46 +3534,46 @@
     </row>
     <row r="31" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="H31" s="20">
         <v>1</v>
       </c>
       <c r="I31" s="20">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>247</v>
+        <v>123</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
@@ -3602,48 +3586,48 @@
       <c r="Y31" s="24"/>
       <c r="Z31" s="24"/>
     </row>
-    <row r="32" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H32" s="20">
         <v>1</v>
       </c>
       <c r="I32" s="20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
@@ -3656,48 +3640,48 @@
       <c r="Y32" s="24"/>
       <c r="Z32" s="24"/>
     </row>
-    <row r="33" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="H33" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="20">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
@@ -3712,46 +3696,44 @@
     </row>
     <row r="34" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="H34" s="20">
-        <v>2</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="H34" s="20"/>
       <c r="I34" s="20">
+        <v>1</v>
+      </c>
+      <c r="J34" s="20">
         <v>4</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -3764,48 +3746,48 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
     </row>
-    <row r="35" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H35" s="20">
+        <v>1</v>
+      </c>
+      <c r="I35" s="20">
         <v>2</v>
       </c>
-      <c r="I35" s="20">
-        <v>6</v>
-      </c>
       <c r="J35" s="20" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20" t="s">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -3818,48 +3800,48 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
     </row>
-    <row r="36" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="H36" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="20">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
-        <v>288</v>
+        <v>65</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3872,48 +3854,48 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
     </row>
-    <row r="37" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="H37" s="20">
         <v>2</v>
       </c>
       <c r="I37" s="20">
-        <v>10</v>
-      </c>
-      <c r="J37" s="20">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="J37" s="20" t="s">
+        <v>264</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3928,46 +3910,46 @@
     </row>
     <row r="38" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="H38" s="20">
         <v>2</v>
       </c>
       <c r="I38" s="20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
@@ -3980,48 +3962,48 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>297</v>
+        <v>274</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E39" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="E39" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H39" s="20">
         <v>2</v>
       </c>
       <c r="I39" s="20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>306</v>
+        <v>45</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>280</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
@@ -4036,46 +4018,46 @@
     </row>
     <row r="40" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>297</v>
+        <v>282</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="H40" s="20">
         <v>2</v>
       </c>
       <c r="I40" s="20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>312</v>
+        <v>288</v>
+      </c>
+      <c r="M40" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
@@ -4090,46 +4072,46 @@
     </row>
     <row r="41" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>292</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="H41" s="20">
         <v>2</v>
       </c>
       <c r="I41" s="20">
-        <v>12</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>317</v>
+        <v>10</v>
+      </c>
+      <c r="J41" s="20">
+        <v>114</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
@@ -4144,46 +4126,46 @@
     </row>
     <row r="42" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="H42" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="20">
-        <v>6</v>
-      </c>
-      <c r="J42" s="20">
-        <v>66</v>
+        <v>9</v>
+      </c>
+      <c r="J42" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
         <v>188</v>
       </c>
       <c r="M42" s="20" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
@@ -4198,46 +4180,46 @@
     </row>
     <row r="43" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>328</v>
+        <v>304</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>297</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="E43" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>189</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="H43" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" s="20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M43" s="20" t="s">
-        <v>333</v>
+        <v>188</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>306</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -4252,46 +4234,46 @@
     </row>
     <row r="44" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>336</v>
+        <v>308</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>297</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>189</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="H44" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>340</v>
+        <v>188</v>
+      </c>
+      <c r="M44" s="26" t="s">
+        <v>312</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -4306,46 +4288,46 @@
     </row>
     <row r="45" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>343</v>
+        <v>314</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>297</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="H45" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20" t="s">
-        <v>348</v>
+        <v>188</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
@@ -4360,46 +4342,46 @@
     </row>
     <row r="46" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="H46" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" s="20">
         <v>6</v>
       </c>
-      <c r="J46" s="20" t="s">
-        <v>356</v>
+      <c r="J46" s="20">
+        <v>66</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
@@ -4414,46 +4396,46 @@
     </row>
     <row r="47" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="H47" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" s="20">
         <v>7</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
@@ -4468,46 +4450,46 @@
     </row>
     <row r="48" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>131</v>
+        <v>338</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>132</v>
+        <v>339</v>
       </c>
       <c r="H48" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" s="20">
-        <v>3</v>
-      </c>
-      <c r="J48" s="20">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="J48" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
@@ -4522,50 +4504,46 @@
     </row>
     <row r="49" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>373</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="H49" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" s="20">
-        <v>4</v>
-      </c>
-      <c r="J49" s="20">
-        <v>39</v>
-      </c>
-      <c r="K49" s="20">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" s="20"/>
       <c r="L49" s="20" t="s">
-        <v>65</v>
+        <v>348</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
@@ -4580,48 +4558,46 @@
     </row>
     <row r="50" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>134</v>
+        <v>355</v>
       </c>
       <c r="H50" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I50" s="20">
-        <v>4</v>
-      </c>
-      <c r="J50" s="20">
-        <v>43</v>
-      </c>
-      <c r="K50" s="20">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" s="20"/>
       <c r="L50" s="20" t="s">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
@@ -4636,50 +4612,46 @@
     </row>
     <row r="51" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>385</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C51" s="20"/>
       <c r="D51" s="20" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>70</v>
+        <v>363</v>
       </c>
       <c r="H51" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51" s="20">
-        <v>5</v>
-      </c>
-      <c r="J51" s="20">
-        <v>53</v>
-      </c>
-      <c r="K51" s="23">
-        <v>44198</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="K51" s="20"/>
       <c r="L51" s="20" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
@@ -4694,48 +4666,46 @@
     </row>
     <row r="52" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>392</v>
+        <v>131</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>393</v>
+        <v>132</v>
       </c>
       <c r="H52" s="20">
         <v>1</v>
       </c>
       <c r="I52" s="20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J52" s="20">
-        <v>77</v>
-      </c>
-      <c r="K52" s="23">
-        <v>44198</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="K52" s="20"/>
       <c r="L52" s="20" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
@@ -4750,48 +4720,50 @@
     </row>
     <row r="53" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="C53" s="20"/>
+        <v>372</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="D53" s="20" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>399</v>
+        <v>133</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="H53" s="20">
         <v>1</v>
       </c>
       <c r="I53" s="20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J53" s="20">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="K53" s="20">
         <v>2</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
@@ -4806,48 +4778,48 @@
     </row>
     <row r="54" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>406</v>
+        <v>133</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>407</v>
+        <v>134</v>
       </c>
       <c r="H54" s="20">
         <v>1</v>
       </c>
       <c r="I54" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J54" s="20">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="K54" s="20">
         <v>2</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
@@ -4862,48 +4834,50 @@
     </row>
     <row r="55" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C55" s="20"/>
+        <v>384</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>385</v>
+      </c>
       <c r="D55" s="20" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H55" s="20">
         <v>1</v>
       </c>
       <c r="I55" s="20">
-        <v>9</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="K55" s="20" t="s">
-        <v>140</v>
+        <v>5</v>
+      </c>
+      <c r="J55" s="20">
+        <v>53</v>
+      </c>
+      <c r="K55" s="23">
+        <v>44198</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>415</v>
+        <v>104</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
@@ -4918,32 +4892,32 @@
     </row>
     <row r="56" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>66</v>
+        <v>392</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="H56" s="20">
         <v>1</v>
       </c>
       <c r="I56" s="20">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J56" s="20">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="K56" s="23">
         <v>44198</v>
@@ -4952,14 +4926,14 @@
         <v>208</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
@@ -4974,48 +4948,48 @@
     </row>
     <row r="57" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>66</v>
+        <v>399</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="H57" s="20">
         <v>1</v>
       </c>
       <c r="I57" s="20">
-        <v>11</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>347</v>
+        <v>8</v>
+      </c>
+      <c r="J57" s="20">
+        <v>88</v>
       </c>
       <c r="K57" s="20">
         <v>2</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>380</v>
+        <v>188</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
@@ -5030,48 +5004,48 @@
     </row>
     <row r="58" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>42</v>
+        <v>404</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>66</v>
+        <v>406</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>67</v>
+        <v>407</v>
       </c>
       <c r="H58" s="20">
         <v>1</v>
       </c>
       <c r="I58" s="20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J58" s="20">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="K58" s="20">
         <v>2</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
@@ -5086,48 +5060,48 @@
     </row>
     <row r="59" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="H59" s="20">
         <v>1</v>
       </c>
       <c r="I59" s="20">
-        <v>12</v>
-      </c>
-      <c r="J59" s="20">
-        <v>136</v>
-      </c>
-      <c r="K59" s="20">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="J59" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="K59" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>208</v>
+        <v>415</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
@@ -5142,48 +5116,48 @@
     </row>
     <row r="60" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F60" s="21" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H60" s="20">
         <v>1</v>
       </c>
       <c r="I60" s="20">
-        <v>12</v>
-      </c>
-      <c r="J60" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>439</v>
+        <v>11</v>
+      </c>
+      <c r="J60" s="20">
+        <v>124</v>
+      </c>
+      <c r="K60" s="23">
+        <v>44198</v>
       </c>
       <c r="L60" s="20" t="s">
         <v>208</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
@@ -5198,48 +5172,48 @@
     </row>
     <row r="61" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>443</v>
+        <v>378</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>444</v>
+        <v>379</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="H61" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="20">
-        <v>13</v>
-      </c>
-      <c r="J61" s="20">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="J61" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="K61" s="20">
         <v>2</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>208</v>
+        <v>380</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
@@ -5254,48 +5228,48 @@
     </row>
     <row r="62" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H62" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J62" s="20">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="K62" s="20">
         <v>2</v>
       </c>
       <c r="L62" s="20" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
@@ -5310,48 +5284,48 @@
     </row>
     <row r="63" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H63" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J63" s="20">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="K63" s="20">
         <v>2</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
@@ -5366,48 +5340,48 @@
     </row>
     <row r="64" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="H64" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="20">
-        <v>15</v>
-      </c>
-      <c r="J64" s="20">
-        <v>26</v>
-      </c>
-      <c r="K64" s="20">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="J64" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="K64" s="20" t="s">
+        <v>439</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
@@ -5421,270 +5395,394 @@
       <c r="Z64" s="24"/>
     </row>
     <row r="65" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="20">
+        <v>2</v>
+      </c>
+      <c r="I65" s="20">
+        <v>13</v>
+      </c>
+      <c r="J65" s="20">
+        <v>9</v>
+      </c>
+      <c r="K65" s="20">
+        <v>2</v>
+      </c>
+      <c r="L65" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M65" s="20" t="s">
+        <v>445</v>
+      </c>
+      <c r="N65" s="12"/>
+      <c r="O65" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="P65" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+    </row>
+    <row r="66" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>448</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="20">
+        <v>2</v>
+      </c>
+      <c r="I66" s="20">
+        <v>14</v>
+      </c>
+      <c r="J66" s="20">
+        <v>20</v>
+      </c>
+      <c r="K66" s="20">
+        <v>2</v>
+      </c>
+      <c r="L66" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M66" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="N66" s="12"/>
+      <c r="O66" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="P66" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+    </row>
+    <row r="67" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>453</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="20">
+        <v>2</v>
+      </c>
+      <c r="I67" s="20">
+        <v>14</v>
+      </c>
+      <c r="J67" s="20">
+        <v>13</v>
+      </c>
+      <c r="K67" s="20">
+        <v>2</v>
+      </c>
+      <c r="L67" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="N67" s="12"/>
+      <c r="O67" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="P67" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+    </row>
+    <row r="68" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="20">
+        <v>2</v>
+      </c>
+      <c r="I68" s="20">
+        <v>15</v>
+      </c>
+      <c r="J68" s="20">
+        <v>26</v>
+      </c>
+      <c r="K68" s="20">
+        <v>2</v>
+      </c>
+      <c r="L68" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="N68" s="12"/>
+      <c r="O68" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="P68" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+    </row>
+    <row r="69" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B69" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29" t="s">
+      <c r="C69" s="29"/>
+      <c r="D69" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E69" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F69" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G65" s="31" t="s">
+      <c r="G69" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="H65" s="29">
+      <c r="H69" s="29">
         <v>2</v>
       </c>
-      <c r="I65" s="29">
+      <c r="I69" s="29">
         <v>15</v>
       </c>
-      <c r="J65" s="29" t="s">
+      <c r="J69" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="K65" s="29" t="s">
+      <c r="K69" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="L65" s="29" t="s">
+      <c r="L69" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="M65" s="29" t="s">
+      <c r="M69" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="N65" s="12"/>
-      <c r="O65" s="29" t="s">
+      <c r="N69" s="12"/>
+      <c r="O69" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="P65" s="29" t="s">
+      <c r="P69" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-    </row>
-    <row r="66" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" s="33" t="s">
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="32"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="32"/>
+    </row>
+    <row r="70" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B70" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34" t="s">
+      <c r="C70" s="34"/>
+      <c r="D70" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E70" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F70" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G66" s="34" t="s">
+      <c r="G70" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="H66" s="34">
+      <c r="H70" s="34">
         <v>2</v>
       </c>
-      <c r="I66" s="34">
+      <c r="I70" s="34">
         <v>16</v>
       </c>
-      <c r="J66" s="34" t="s">
+      <c r="J70" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="K66" s="35"/>
-      <c r="L66" s="34" t="s">
+      <c r="K70" s="35"/>
+      <c r="L70" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="M66" s="34" t="s">
+      <c r="M70" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="N66" s="12"/>
-      <c r="O66" s="34" t="s">
+      <c r="N70" s="12"/>
+      <c r="O70" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P66" s="34" t="s">
+      <c r="P70" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="Q66" s="35"/>
-      <c r="R66" s="35"/>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
-      <c r="Z66" s="35"/>
-    </row>
-    <row r="67" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="37" t="s">
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="35"/>
+      <c r="V70" s="35"/>
+      <c r="W70" s="35"/>
+      <c r="X70" s="35"/>
+      <c r="Y70" s="35"/>
+      <c r="Z70" s="35"/>
+    </row>
+    <row r="71" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B71" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39" t="s">
+      <c r="C71" s="38"/>
+      <c r="D71" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E71" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F71" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G67" s="41" t="s">
+      <c r="G71" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="H67" s="38">
+      <c r="H71" s="38">
         <v>2</v>
       </c>
-      <c r="I67" s="38">
+      <c r="I71" s="38">
         <v>16</v>
       </c>
-      <c r="J67" s="38">
+      <c r="J71" s="38">
         <v>41</v>
       </c>
-      <c r="K67" s="38">
+      <c r="K71" s="38">
         <v>2</v>
       </c>
-      <c r="L67" s="38" t="s">
+      <c r="L71" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="M67" s="38" t="s">
+      <c r="M71" s="38" t="s">
         <v>475</v>
       </c>
-      <c r="N67" s="12"/>
-      <c r="O67" s="38" t="s">
+      <c r="N71" s="12"/>
+      <c r="O71" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="P67" s="38" t="s">
+      <c r="P71" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38"/>
-      <c r="V67" s="38"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="42"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="38"/>
+      <c r="S71" s="38"/>
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="42"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -5750,7 +5848,7 @@
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
+      <c r="N74" s="12"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
@@ -5775,7 +5873,7 @@
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
+      <c r="N75" s="12"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
@@ -5800,7 +5898,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
+      <c r="N76" s="12"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
@@ -5825,7 +5923,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
+      <c r="N77" s="12"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
@@ -21887,104 +21985,104 @@
       <c r="W719" s="5"/>
     </row>
     <row r="720" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A720" s="1"/>
-      <c r="B720" s="1"/>
-      <c r="C720" s="1"/>
-      <c r="D720" s="1"/>
-      <c r="E720" s="1"/>
-      <c r="F720" s="1"/>
-      <c r="G720" s="1"/>
-      <c r="H720" s="1"/>
-      <c r="I720" s="1"/>
-      <c r="J720" s="1"/>
-      <c r="K720" s="1"/>
-      <c r="L720" s="1"/>
-      <c r="M720" s="10"/>
-      <c r="N720" s="1"/>
-      <c r="O720" s="1"/>
-      <c r="P720" s="1"/>
-      <c r="Q720" s="1"/>
-      <c r="R720" s="1"/>
-      <c r="S720" s="1"/>
-      <c r="T720" s="1"/>
-      <c r="U720" s="1"/>
-      <c r="V720" s="1"/>
-      <c r="W720" s="1"/>
+      <c r="A720" s="7"/>
+      <c r="B720" s="7"/>
+      <c r="C720" s="7"/>
+      <c r="D720" s="7"/>
+      <c r="E720" s="7"/>
+      <c r="F720" s="8"/>
+      <c r="G720" s="7"/>
+      <c r="H720" s="7"/>
+      <c r="I720" s="7"/>
+      <c r="J720" s="7"/>
+      <c r="K720" s="7"/>
+      <c r="L720" s="7"/>
+      <c r="M720" s="7"/>
+      <c r="N720" s="7"/>
+      <c r="O720" s="5"/>
+      <c r="P720" s="5"/>
+      <c r="Q720" s="5"/>
+      <c r="R720" s="5"/>
+      <c r="S720" s="5"/>
+      <c r="T720" s="5"/>
+      <c r="U720" s="5"/>
+      <c r="V720" s="5"/>
+      <c r="W720" s="5"/>
     </row>
     <row r="721" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A721" s="1"/>
-      <c r="B721" s="1"/>
-      <c r="C721" s="1"/>
-      <c r="D721" s="1"/>
-      <c r="E721" s="1"/>
-      <c r="F721" s="1"/>
-      <c r="G721" s="1"/>
-      <c r="H721" s="1"/>
-      <c r="I721" s="1"/>
-      <c r="J721" s="1"/>
-      <c r="K721" s="1"/>
-      <c r="L721" s="1"/>
-      <c r="M721" s="10"/>
-      <c r="N721" s="1"/>
-      <c r="O721" s="1"/>
-      <c r="P721" s="1"/>
-      <c r="Q721" s="1"/>
-      <c r="R721" s="1"/>
-      <c r="S721" s="1"/>
-      <c r="T721" s="1"/>
-      <c r="U721" s="1"/>
-      <c r="V721" s="1"/>
-      <c r="W721" s="1"/>
+      <c r="A721" s="7"/>
+      <c r="B721" s="7"/>
+      <c r="C721" s="7"/>
+      <c r="D721" s="7"/>
+      <c r="E721" s="7"/>
+      <c r="F721" s="8"/>
+      <c r="G721" s="7"/>
+      <c r="H721" s="7"/>
+      <c r="I721" s="7"/>
+      <c r="J721" s="7"/>
+      <c r="K721" s="7"/>
+      <c r="L721" s="7"/>
+      <c r="M721" s="7"/>
+      <c r="N721" s="7"/>
+      <c r="O721" s="5"/>
+      <c r="P721" s="5"/>
+      <c r="Q721" s="5"/>
+      <c r="R721" s="5"/>
+      <c r="S721" s="5"/>
+      <c r="T721" s="5"/>
+      <c r="U721" s="5"/>
+      <c r="V721" s="5"/>
+      <c r="W721" s="5"/>
     </row>
     <row r="722" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A722" s="1"/>
-      <c r="B722" s="1"/>
-      <c r="C722" s="1"/>
-      <c r="D722" s="1"/>
-      <c r="E722" s="1"/>
-      <c r="F722" s="1"/>
-      <c r="G722" s="1"/>
-      <c r="H722" s="1"/>
-      <c r="I722" s="1"/>
-      <c r="J722" s="1"/>
-      <c r="K722" s="1"/>
-      <c r="L722" s="1"/>
-      <c r="M722" s="10"/>
-      <c r="N722" s="1"/>
-      <c r="O722" s="1"/>
-      <c r="P722" s="1"/>
-      <c r="Q722" s="1"/>
-      <c r="R722" s="1"/>
-      <c r="S722" s="1"/>
-      <c r="T722" s="1"/>
-      <c r="U722" s="1"/>
-      <c r="V722" s="1"/>
-      <c r="W722" s="1"/>
+      <c r="A722" s="7"/>
+      <c r="B722" s="7"/>
+      <c r="C722" s="7"/>
+      <c r="D722" s="7"/>
+      <c r="E722" s="7"/>
+      <c r="F722" s="8"/>
+      <c r="G722" s="7"/>
+      <c r="H722" s="7"/>
+      <c r="I722" s="7"/>
+      <c r="J722" s="7"/>
+      <c r="K722" s="7"/>
+      <c r="L722" s="7"/>
+      <c r="M722" s="7"/>
+      <c r="N722" s="7"/>
+      <c r="O722" s="5"/>
+      <c r="P722" s="5"/>
+      <c r="Q722" s="5"/>
+      <c r="R722" s="5"/>
+      <c r="S722" s="5"/>
+      <c r="T722" s="5"/>
+      <c r="U722" s="5"/>
+      <c r="V722" s="5"/>
+      <c r="W722" s="5"/>
     </row>
     <row r="723" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A723" s="1"/>
-      <c r="B723" s="1"/>
-      <c r="C723" s="1"/>
-      <c r="D723" s="1"/>
-      <c r="E723" s="1"/>
-      <c r="F723" s="1"/>
-      <c r="G723" s="1"/>
-      <c r="H723" s="1"/>
-      <c r="I723" s="1"/>
-      <c r="J723" s="1"/>
-      <c r="K723" s="1"/>
-      <c r="L723" s="1"/>
-      <c r="M723" s="10"/>
-      <c r="N723" s="1"/>
-      <c r="O723" s="1"/>
-      <c r="P723" s="1"/>
-      <c r="Q723" s="1"/>
-      <c r="R723" s="1"/>
-      <c r="S723" s="1"/>
-      <c r="T723" s="1"/>
-      <c r="U723" s="1"/>
-      <c r="V723" s="1"/>
-      <c r="W723" s="1"/>
+      <c r="A723" s="7"/>
+      <c r="B723" s="7"/>
+      <c r="C723" s="7"/>
+      <c r="D723" s="7"/>
+      <c r="E723" s="7"/>
+      <c r="F723" s="8"/>
+      <c r="G723" s="7"/>
+      <c r="H723" s="7"/>
+      <c r="I723" s="7"/>
+      <c r="J723" s="7"/>
+      <c r="K723" s="7"/>
+      <c r="L723" s="7"/>
+      <c r="M723" s="7"/>
+      <c r="N723" s="7"/>
+      <c r="O723" s="5"/>
+      <c r="P723" s="5"/>
+      <c r="Q723" s="5"/>
+      <c r="R723" s="5"/>
+      <c r="S723" s="5"/>
+      <c r="T723" s="5"/>
+      <c r="U723" s="5"/>
+      <c r="V723" s="5"/>
+      <c r="W723" s="5"/>
     </row>
     <row r="724" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
@@ -22186,6 +22284,106 @@
       <c r="V731" s="1"/>
       <c r="W731" s="1"/>
     </row>
+    <row r="732" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A732" s="1"/>
+      <c r="B732" s="1"/>
+      <c r="C732" s="1"/>
+      <c r="D732" s="1"/>
+      <c r="E732" s="1"/>
+      <c r="F732" s="1"/>
+      <c r="G732" s="1"/>
+      <c r="H732" s="1"/>
+      <c r="I732" s="1"/>
+      <c r="J732" s="1"/>
+      <c r="K732" s="1"/>
+      <c r="L732" s="1"/>
+      <c r="M732" s="10"/>
+      <c r="N732" s="1"/>
+      <c r="O732" s="1"/>
+      <c r="P732" s="1"/>
+      <c r="Q732" s="1"/>
+      <c r="R732" s="1"/>
+      <c r="S732" s="1"/>
+      <c r="T732" s="1"/>
+      <c r="U732" s="1"/>
+      <c r="V732" s="1"/>
+      <c r="W732" s="1"/>
+    </row>
+    <row r="733" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A733" s="1"/>
+      <c r="B733" s="1"/>
+      <c r="C733" s="1"/>
+      <c r="D733" s="1"/>
+      <c r="E733" s="1"/>
+      <c r="F733" s="1"/>
+      <c r="G733" s="1"/>
+      <c r="H733" s="1"/>
+      <c r="I733" s="1"/>
+      <c r="J733" s="1"/>
+      <c r="K733" s="1"/>
+      <c r="L733" s="1"/>
+      <c r="M733" s="10"/>
+      <c r="N733" s="1"/>
+      <c r="O733" s="1"/>
+      <c r="P733" s="1"/>
+      <c r="Q733" s="1"/>
+      <c r="R733" s="1"/>
+      <c r="S733" s="1"/>
+      <c r="T733" s="1"/>
+      <c r="U733" s="1"/>
+      <c r="V733" s="1"/>
+      <c r="W733" s="1"/>
+    </row>
+    <row r="734" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A734" s="1"/>
+      <c r="B734" s="1"/>
+      <c r="C734" s="1"/>
+      <c r="D734" s="1"/>
+      <c r="E734" s="1"/>
+      <c r="F734" s="1"/>
+      <c r="G734" s="1"/>
+      <c r="H734" s="1"/>
+      <c r="I734" s="1"/>
+      <c r="J734" s="1"/>
+      <c r="K734" s="1"/>
+      <c r="L734" s="1"/>
+      <c r="M734" s="10"/>
+      <c r="N734" s="1"/>
+      <c r="O734" s="1"/>
+      <c r="P734" s="1"/>
+      <c r="Q734" s="1"/>
+      <c r="R734" s="1"/>
+      <c r="S734" s="1"/>
+      <c r="T734" s="1"/>
+      <c r="U734" s="1"/>
+      <c r="V734" s="1"/>
+      <c r="W734" s="1"/>
+    </row>
+    <row r="735" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A735" s="1"/>
+      <c r="B735" s="1"/>
+      <c r="C735" s="1"/>
+      <c r="D735" s="1"/>
+      <c r="E735" s="1"/>
+      <c r="F735" s="1"/>
+      <c r="G735" s="1"/>
+      <c r="H735" s="1"/>
+      <c r="I735" s="1"/>
+      <c r="J735" s="1"/>
+      <c r="K735" s="1"/>
+      <c r="L735" s="1"/>
+      <c r="M735" s="10"/>
+      <c r="N735" s="1"/>
+      <c r="O735" s="1"/>
+      <c r="P735" s="1"/>
+      <c r="Q735" s="1"/>
+      <c r="R735" s="1"/>
+      <c r="S735" s="1"/>
+      <c r="T735" s="1"/>
+      <c r="U735" s="1"/>
+      <c r="V735" s="1"/>
+      <c r="W735" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W22">
     <sortCondition ref="A4:A22"/>

--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C10ED0-338B-EA43-BBA8-9A29DEDDB144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701EE16C-DDF8-7E4E-AD56-7E2B6CAED7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="486">
   <si>
     <t>OMV identifier</t>
   </si>
@@ -743,36 +743,6 @@
   </si>
   <si>
     <t>https://www.churchmissionarysociety.amdigital.co.uk/Documents/Images/CMS_CRL_Quarterly_Subscribers_1856-1865_01/15#Articles</t>
-  </si>
-  <si>
-    <t>liv_026010</t>
-  </si>
-  <si>
-    <t>Anonymous; C. Sandreczki</t>
-  </si>
-  <si>
-    <t>Mediterranean Mission. Smyrna</t>
-  </si>
-  <si>
-    <t>The Church Missionary Intelligencer</t>
-  </si>
-  <si>
-    <t>1849-06</t>
-  </si>
-  <si>
-    <t>June 1849</t>
-  </si>
-  <si>
-    <t>29-30</t>
-  </si>
-  <si>
-    <t>Turkish Empire</t>
-  </si>
-  <si>
-    <t>Personal Journal Entries</t>
-  </si>
-  <si>
-    <t>https://www.churchmissionarysociety.amdigital.co.uk/Documents/Images/CMS_OX_Intelligencer_1849-1850_02/4#Articles</t>
   </si>
   <si>
     <t>liv_026011</t>
@@ -1228,9 +1198,6 @@
     <t>Sargent</t>
   </si>
   <si>
-    <t>The False and the True Vasanta Rayar: A Narrative of Religious Excitement in South India Ten Years Ago</t>
-  </si>
-  <si>
     <t>Proclamation of Vasanta Rayar</t>
   </si>
   <si>
@@ -1553,6 +1520,12 @@
   </si>
   <si>
     <t>short book</t>
+  </si>
+  <si>
+    <t>Richard F. Burton; Selim Aga</t>
+  </si>
+  <si>
+    <t>The False and the True Vasanta Rayar</t>
   </si>
 </sst>
 </file>
@@ -2144,11 +2117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z735"/>
+  <dimension ref="A1:Z734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2269,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -3222,31 +3195,31 @@
     </row>
     <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="8" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="16"/>
       <c r="J24" s="12"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -3261,17 +3234,17 @@
     </row>
     <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>69</v>
@@ -3284,11 +3257,11 @@
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="12" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -3304,34 +3277,34 @@
     </row>
     <row r="26" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="H26" s="12">
         <v>2</v>
       </c>
       <c r="I26" s="16"/>
       <c r="J26" s="12" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -3746,7 +3719,7 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
     </row>
-    <row r="35" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>241</v>
       </c>
@@ -3758,36 +3731,36 @@
         <v>243</v>
       </c>
       <c r="E35" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="22" t="s">
         <v>245</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="20">
         <v>1</v>
       </c>
       <c r="I35" s="20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -3800,48 +3773,48 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
     </row>
-    <row r="36" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F36" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="20">
+        <v>2</v>
+      </c>
+      <c r="I36" s="20">
+        <v>3</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="H36" s="20">
-        <v>1</v>
-      </c>
-      <c r="I36" s="20">
-        <v>19</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>256</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3854,48 +3827,48 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
     </row>
-    <row r="37" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>260</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E37" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F37" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="H37" s="20">
         <v>2</v>
       </c>
       <c r="I37" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>264</v>
+        <v>114</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3908,48 +3881,48 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H38" s="20">
         <v>2</v>
       </c>
       <c r="I38" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
@@ -3962,48 +3935,48 @@
       <c r="Y38" s="24"/>
       <c r="Z38" s="24"/>
     </row>
-    <row r="39" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H39" s="20">
         <v>2</v>
       </c>
       <c r="I39" s="20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J39" s="20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
@@ -4018,23 +3991,23 @@
     </row>
     <row r="40" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>282</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>283</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H40" s="20">
         <v>2</v>
@@ -4042,22 +4015,22 @@
       <c r="I40" s="20">
         <v>10</v>
       </c>
-      <c r="J40" s="20" t="s">
-        <v>287</v>
+      <c r="J40" s="20">
+        <v>114</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
@@ -4072,46 +4045,46 @@
     </row>
     <row r="41" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H41" s="20">
         <v>2</v>
       </c>
       <c r="I41" s="20">
-        <v>10</v>
-      </c>
-      <c r="J41" s="20">
-        <v>114</v>
+        <v>9</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>291</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M41" s="20" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
@@ -4126,46 +4099,46 @@
     </row>
     <row r="42" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>287</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>189</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="H42" s="20">
         <v>2</v>
       </c>
       <c r="I42" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="20" t="s">
-        <v>302</v>
+      <c r="M42" s="26" t="s">
+        <v>296</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
@@ -4180,46 +4153,46 @@
     </row>
     <row r="43" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>189</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="H43" s="20">
         <v>2</v>
       </c>
       <c r="I43" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20" t="s">
         <v>188</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -4234,46 +4207,46 @@
     </row>
     <row r="44" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H44" s="20">
         <v>2</v>
       </c>
       <c r="I44" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J44" s="20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="M44" s="26" t="s">
-        <v>312</v>
+      <c r="M44" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -4288,46 +4261,46 @@
     </row>
     <row r="45" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>297</v>
+        <v>310</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H45" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" s="20">
-        <v>12</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>317</v>
+        <v>6</v>
+      </c>
+      <c r="J45" s="20">
+        <v>66</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20" t="s">
         <v>188</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
@@ -4342,46 +4315,46 @@
     </row>
     <row r="46" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H46" s="20">
         <v>3</v>
       </c>
       <c r="I46" s="20">
-        <v>6</v>
-      </c>
-      <c r="J46" s="20">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
@@ -4396,46 +4369,46 @@
     </row>
     <row r="47" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H47" s="20">
         <v>3</v>
       </c>
       <c r="I47" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>332</v>
+        <v>105</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
@@ -4450,46 +4423,46 @@
     </row>
     <row r="48" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H48" s="20">
         <v>3</v>
       </c>
       <c r="I48" s="20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>105</v>
+        <v>337</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
@@ -4504,46 +4477,46 @@
     </row>
     <row r="49" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F49" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="H49" s="20">
+        <v>4</v>
+      </c>
+      <c r="I49" s="20">
+        <v>6</v>
+      </c>
+      <c r="J49" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="H49" s="20">
-        <v>3</v>
-      </c>
-      <c r="I49" s="20">
-        <v>11</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>347</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20" t="s">
-        <v>348</v>
+        <v>208</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
@@ -4558,46 +4531,46 @@
     </row>
     <row r="50" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H50" s="20">
         <v>4</v>
       </c>
       <c r="I50" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J50" s="20" t="s">
-        <v>356</v>
+        <v>106</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20" t="s">
         <v>208</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
@@ -4612,46 +4585,46 @@
     </row>
     <row r="51" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>363</v>
+        <v>132</v>
       </c>
       <c r="H51" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I51" s="20">
-        <v>7</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="J51" s="20">
+        <v>26</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="20" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
@@ -4666,46 +4639,50 @@
     </row>
     <row r="52" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C52" s="20"/>
+        <v>362</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>363</v>
+      </c>
       <c r="D52" s="20" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H52" s="20">
         <v>1</v>
       </c>
       <c r="I52" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J52" s="20">
-        <v>26</v>
-      </c>
-      <c r="K52" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="K52" s="20">
+        <v>2</v>
+      </c>
       <c r="L52" s="20" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
@@ -4720,16 +4697,14 @@
     </row>
     <row r="53" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>373</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C53" s="20"/>
       <c r="D53" s="20" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>189</v>
@@ -4747,23 +4722,23 @@
         <v>4</v>
       </c>
       <c r="J53" s="20">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K53" s="20">
         <v>2</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>65</v>
+        <v>370</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
@@ -4778,48 +4753,50 @@
     </row>
     <row r="54" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="C54" s="20"/>
+        <v>374</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>375</v>
+      </c>
       <c r="D54" s="20" t="s">
-        <v>379</v>
+        <v>485</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H54" s="20">
         <v>1</v>
       </c>
       <c r="I54" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J54" s="20">
-        <v>43</v>
-      </c>
-      <c r="K54" s="20">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="K54" s="23">
+        <v>44198</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>380</v>
+        <v>104</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
@@ -4834,50 +4811,48 @@
     </row>
     <row r="55" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>385</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>70</v>
+        <v>382</v>
       </c>
       <c r="H55" s="20">
         <v>1</v>
       </c>
       <c r="I55" s="20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J55" s="20">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="K55" s="23">
         <v>44198</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
@@ -4892,48 +4867,48 @@
     </row>
     <row r="56" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H56" s="20">
         <v>1</v>
       </c>
       <c r="I56" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J56" s="20">
-        <v>77</v>
-      </c>
-      <c r="K56" s="23">
-        <v>44198</v>
+        <v>88</v>
+      </c>
+      <c r="K56" s="20">
+        <v>2</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
@@ -4948,48 +4923,48 @@
     </row>
     <row r="57" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H57" s="20">
         <v>1</v>
       </c>
       <c r="I57" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J57" s="20">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K57" s="20">
         <v>2</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>188</v>
+        <v>397</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
@@ -5004,48 +4979,48 @@
     </row>
     <row r="58" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>406</v>
+        <v>135</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>407</v>
+        <v>136</v>
       </c>
       <c r="H58" s="20">
         <v>1</v>
       </c>
       <c r="I58" s="20">
-        <v>6</v>
-      </c>
-      <c r="J58" s="20">
-        <v>65</v>
-      </c>
-      <c r="K58" s="20">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="K58" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
@@ -5060,48 +5035,48 @@
     </row>
     <row r="59" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F59" s="21" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="H59" s="20">
         <v>1</v>
       </c>
       <c r="I59" s="20">
-        <v>9</v>
-      </c>
-      <c r="J59" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="K59" s="20" t="s">
-        <v>140</v>
+        <v>11</v>
+      </c>
+      <c r="J59" s="20">
+        <v>124</v>
+      </c>
+      <c r="K59" s="23">
+        <v>44198</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
@@ -5116,14 +5091,14 @@
     </row>
     <row r="60" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>420</v>
+        <v>369</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>189</v>
@@ -5140,24 +5115,24 @@
       <c r="I60" s="20">
         <v>11</v>
       </c>
-      <c r="J60" s="20">
-        <v>124</v>
-      </c>
-      <c r="K60" s="23">
-        <v>44198</v>
+      <c r="J60" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="K60" s="20">
+        <v>2</v>
       </c>
       <c r="L60" s="20" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
@@ -5172,14 +5147,14 @@
     </row>
     <row r="61" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>189</v>
@@ -5196,24 +5171,24 @@
       <c r="I61" s="20">
         <v>11</v>
       </c>
-      <c r="J61" s="20" t="s">
-        <v>347</v>
+      <c r="J61" s="20">
+        <v>131</v>
       </c>
       <c r="K61" s="20">
         <v>2</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>380</v>
+        <v>208</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
@@ -5228,32 +5203,32 @@
     </row>
     <row r="62" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F62" s="21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G62" s="22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H62" s="20">
         <v>1</v>
       </c>
       <c r="I62" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J62" s="20">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K62" s="20">
         <v>2</v>
@@ -5262,14 +5237,14 @@
         <v>208</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
@@ -5284,14 +5259,14 @@
     </row>
     <row r="63" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E63" s="20" t="s">
         <v>189</v>
@@ -5308,24 +5283,24 @@
       <c r="I63" s="20">
         <v>12</v>
       </c>
-      <c r="J63" s="20">
-        <v>136</v>
-      </c>
-      <c r="K63" s="20">
-        <v>2</v>
+      <c r="J63" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="K63" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="L63" s="20" t="s">
         <v>208</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
@@ -5340,48 +5315,48 @@
     </row>
     <row r="64" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="H64" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="20">
-        <v>12</v>
-      </c>
-      <c r="J64" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="K64" s="20" t="s">
-        <v>439</v>
+        <v>13</v>
+      </c>
+      <c r="J64" s="20">
+        <v>9</v>
+      </c>
+      <c r="K64" s="20">
+        <v>2</v>
       </c>
       <c r="L64" s="20" t="s">
         <v>208</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
@@ -5396,48 +5371,48 @@
     </row>
     <row r="65" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F65" s="21" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="H65" s="20">
         <v>2</v>
       </c>
       <c r="I65" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J65" s="20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K65" s="20">
         <v>2</v>
       </c>
       <c r="L65" s="20" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
@@ -5452,14 +5427,14 @@
     </row>
     <row r="66" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E66" s="20" t="s">
         <v>189</v>
@@ -5477,7 +5452,7 @@
         <v>14</v>
       </c>
       <c r="J66" s="20">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K66" s="20">
         <v>2</v>
@@ -5486,14 +5461,14 @@
         <v>45</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q66" s="20"/>
       <c r="R66" s="20"/>
@@ -5508,32 +5483,32 @@
     </row>
     <row r="67" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>189</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="G67" s="22" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="H67" s="20">
         <v>2</v>
       </c>
       <c r="I67" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J67" s="20">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K67" s="20">
         <v>2</v>
@@ -5542,14 +5517,14 @@
         <v>45</v>
       </c>
       <c r="M67" s="20" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="20" t="s">
         <v>193</v>
       </c>
       <c r="P67" s="20" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q67" s="20"/>
       <c r="R67" s="20"/>
@@ -5563,226 +5538,195 @@
       <c r="Z67" s="24"/>
     </row>
     <row r="68" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" s="29">
+        <v>2</v>
+      </c>
+      <c r="I68" s="29">
+        <v>15</v>
+      </c>
+      <c r="J68" s="29" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="L68" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="M68" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="N68" s="12"/>
+      <c r="O68" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="P68" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="32"/>
+      <c r="X68" s="32"/>
+      <c r="Y68" s="32"/>
+      <c r="Z68" s="32"/>
+    </row>
+    <row r="69" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="B69" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20" t="s">
+      <c r="E69" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F69" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="34">
+        <v>2</v>
+      </c>
+      <c r="I69" s="34">
+        <v>16</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="35"/>
+      <c r="L69" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M69" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="N69" s="12"/>
+      <c r="O69" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="P69" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35"/>
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35"/>
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+    </row>
+    <row r="70" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="F68" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="20">
+      <c r="F70" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70" s="38">
         <v>2</v>
       </c>
-      <c r="I68" s="20">
-        <v>15</v>
-      </c>
-      <c r="J68" s="20">
-        <v>26</v>
-      </c>
-      <c r="K68" s="20">
+      <c r="I70" s="38">
+        <v>16</v>
+      </c>
+      <c r="J70" s="38">
+        <v>41</v>
+      </c>
+      <c r="K70" s="38">
         <v>2</v>
       </c>
-      <c r="L68" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M68" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="N68" s="12"/>
-      <c r="O68" s="20" t="s">
+      <c r="L70" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M70" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="N70" s="12"/>
+      <c r="O70" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="P68" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="24"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="24"/>
-    </row>
-    <row r="69" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29" t="s">
-        <v>463</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F69" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G69" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H69" s="29">
-        <v>2</v>
-      </c>
-      <c r="I69" s="29">
-        <v>15</v>
-      </c>
-      <c r="J69" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="L69" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="M69" s="29" t="s">
+      <c r="P70" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="N69" s="12"/>
-      <c r="O69" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="P69" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="29"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="29"/>
-      <c r="U69" s="29"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="32"/>
-    </row>
-    <row r="70" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>468</v>
-      </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34" t="s">
-        <v>469</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G70" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" s="34">
-        <v>2</v>
-      </c>
-      <c r="I70" s="34">
-        <v>16</v>
-      </c>
-      <c r="J70" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="K70" s="35"/>
-      <c r="L70" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="M70" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="N70" s="12"/>
-      <c r="O70" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="P70" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-    </row>
-    <row r="71" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39" t="s">
-        <v>474</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F71" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G71" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="H71" s="38">
-        <v>2</v>
-      </c>
-      <c r="I71" s="38">
-        <v>16</v>
-      </c>
-      <c r="J71" s="38">
-        <v>41</v>
-      </c>
-      <c r="K71" s="38">
-        <v>2</v>
-      </c>
-      <c r="L71" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="M71" s="38" t="s">
-        <v>475</v>
-      </c>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
       <c r="N71" s="12"/>
-      <c r="O71" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="P71" s="38" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="38"/>
-      <c r="S71" s="38"/>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="42"/>
-      <c r="X71" s="42"/>
-      <c r="Y71" s="42"/>
-      <c r="Z71" s="42"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="5"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
@@ -5923,7 +5867,7 @@
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
-      <c r="N77" s="12"/>
+      <c r="N77" s="7"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>
@@ -22060,29 +22004,29 @@
       <c r="W722" s="5"/>
     </row>
     <row r="723" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A723" s="7"/>
-      <c r="B723" s="7"/>
-      <c r="C723" s="7"/>
-      <c r="D723" s="7"/>
-      <c r="E723" s="7"/>
-      <c r="F723" s="8"/>
-      <c r="G723" s="7"/>
-      <c r="H723" s="7"/>
-      <c r="I723" s="7"/>
-      <c r="J723" s="7"/>
-      <c r="K723" s="7"/>
-      <c r="L723" s="7"/>
-      <c r="M723" s="7"/>
-      <c r="N723" s="7"/>
-      <c r="O723" s="5"/>
-      <c r="P723" s="5"/>
-      <c r="Q723" s="5"/>
-      <c r="R723" s="5"/>
-      <c r="S723" s="5"/>
-      <c r="T723" s="5"/>
-      <c r="U723" s="5"/>
-      <c r="V723" s="5"/>
-      <c r="W723" s="5"/>
+      <c r="A723" s="1"/>
+      <c r="B723" s="1"/>
+      <c r="C723" s="1"/>
+      <c r="D723" s="1"/>
+      <c r="E723" s="1"/>
+      <c r="F723" s="1"/>
+      <c r="G723" s="1"/>
+      <c r="H723" s="1"/>
+      <c r="I723" s="1"/>
+      <c r="J723" s="1"/>
+      <c r="K723" s="1"/>
+      <c r="L723" s="1"/>
+      <c r="M723" s="10"/>
+      <c r="N723" s="1"/>
+      <c r="O723" s="1"/>
+      <c r="P723" s="1"/>
+      <c r="Q723" s="1"/>
+      <c r="R723" s="1"/>
+      <c r="S723" s="1"/>
+      <c r="T723" s="1"/>
+      <c r="U723" s="1"/>
+      <c r="V723" s="1"/>
+      <c r="W723" s="1"/>
     </row>
     <row r="724" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
@@ -22359,31 +22303,6 @@
       <c r="V734" s="1"/>
       <c r="W734" s="1"/>
     </row>
-    <row r="735" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A735" s="1"/>
-      <c r="B735" s="1"/>
-      <c r="C735" s="1"/>
-      <c r="D735" s="1"/>
-      <c r="E735" s="1"/>
-      <c r="F735" s="1"/>
-      <c r="G735" s="1"/>
-      <c r="H735" s="1"/>
-      <c r="I735" s="1"/>
-      <c r="J735" s="1"/>
-      <c r="K735" s="1"/>
-      <c r="L735" s="1"/>
-      <c r="M735" s="10"/>
-      <c r="N735" s="1"/>
-      <c r="O735" s="1"/>
-      <c r="P735" s="1"/>
-      <c r="Q735" s="1"/>
-      <c r="R735" s="1"/>
-      <c r="S735" s="1"/>
-      <c r="T735" s="1"/>
-      <c r="U735" s="1"/>
-      <c r="V735" s="1"/>
-      <c r="W735" s="1"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W22">
     <sortCondition ref="A4:A22"/>

--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701EE16C-DDF8-7E4E-AD56-7E2B6CAED7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB30E62-2986-BC45-B99D-7F9774AC6F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="481">
   <si>
     <t>OMV identifier</t>
   </si>
@@ -367,18 +367,6 @@
     <t>39-40</t>
   </si>
   <si>
-    <t>liv_025154</t>
-  </si>
-  <si>
-    <t>The Eighty Fourth Report of the London Missionary Society for the Year ending May 1st, 1878</t>
-  </si>
-  <si>
-    <t>1878</t>
-  </si>
-  <si>
-    <t>reported speech</t>
-  </si>
-  <si>
     <t>1872-09</t>
   </si>
   <si>
@@ -530,9 +518,6 @@
   </si>
   <si>
     <t>Anonymous; [South African Missionary Society]; Jan; Karolus</t>
-  </si>
-  <si>
-    <t>The Eighty Fourth Report of the London Missionary Society (Excerpt)</t>
   </si>
   <si>
     <t>[Letter from Rev. W.J. Davis] extract of a letter</t>
@@ -2117,11 +2102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z734"/>
+  <dimension ref="A1:Z733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2146,7 +2131,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2173,7 +2158,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -2236,16 +2221,16 @@
         <v>12</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -2264,7 +2249,7 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -2311,7 +2296,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
@@ -2413,7 +2398,7 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -2458,11 +2443,11 @@
         <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -2489,7 +2474,7 @@
         <v>45</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>14</v>
@@ -2509,13 +2494,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -2533,7 +2518,7 @@
         <v>167</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K9" s="11">
         <v>44198</v>
@@ -2542,7 +2527,7 @@
         <v>46</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>14</v>
@@ -2572,17 +2557,17 @@
         <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H10" s="12">
         <v>15</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="12" t="s">
@@ -2613,7 +2598,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>56</v>
@@ -2658,7 +2643,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>56</v>
@@ -2793,7 +2778,7 @@
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>56</v>
@@ -2879,13 +2864,13 @@
         <v>107</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>109</v>
@@ -2923,40 +2908,46 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="17" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1878</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="H18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="12">
+        <v>44</v>
+      </c>
       <c r="J18" s="7">
-        <v>35</v>
-      </c>
-      <c r="K18" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="K18" s="11">
+        <v>44198</v>
+      </c>
       <c r="L18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>118</v>
+      <c r="M18" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -2970,32 +2961,34 @@
     </row>
     <row r="19" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="17" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I19" s="12">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J19" s="7">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="K19" s="11">
         <v>44198</v>
@@ -3004,10 +2997,10 @@
         <v>16</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -3021,46 +3014,40 @@
     </row>
     <row r="20" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>130</v>
+        <v>142</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I20" s="12">
-        <v>46</v>
-      </c>
-      <c r="J20" s="7">
-        <v>170</v>
-      </c>
-      <c r="K20" s="11">
-        <v>44198</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="12"/>
       <c r="L20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="17" t="s">
-        <v>173</v>
+      <c r="M20" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -3072,42 +3059,44 @@
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>125</v>
+    <row r="21" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12" t="s">
+      <c r="I21" s="16">
+        <v>49</v>
+      </c>
+      <c r="J21" s="7">
+        <v>7</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M21" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>137</v>
+      <c r="M21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -3119,72 +3108,62 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="16">
-        <v>49</v>
-      </c>
-      <c r="J22" s="7">
-        <v>7</v>
-      </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -3195,32 +3174,36 @@
     </row>
     <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>473</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>467</v>
+      </c>
       <c r="F24" s="8" t="s">
-        <v>481</v>
+        <v>69</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="H24" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
       <c r="I24" s="16"/>
-      <c r="J24" s="12"/>
+      <c r="J24" s="12" t="s">
+        <v>474</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>483</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -3234,34 +3217,34 @@
     </row>
     <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>69</v>
+        <v>470</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>70</v>
+        <v>469</v>
       </c>
       <c r="H25" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="12" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -3275,116 +3258,127 @@
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
     </row>
-    <row r="26" spans="1:26" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="H26" s="12">
-        <v>2</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="20">
+        <v>1</v>
+      </c>
+      <c r="J27" s="23">
+        <v>44480</v>
+      </c>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="12"/>
+      <c r="O27" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
     </row>
     <row r="28" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H28" s="20">
         <v>1</v>
       </c>
       <c r="I28" s="20">
-        <v>1</v>
-      </c>
-      <c r="J28" s="23">
-        <v>44480</v>
+        <v>13</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>195</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
@@ -3399,46 +3393,46 @@
     </row>
     <row r="29" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H29" s="20">
         <v>1</v>
       </c>
       <c r="I29" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
@@ -3453,23 +3447,23 @@
     </row>
     <row r="30" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H30" s="20">
         <v>1</v>
@@ -3478,18 +3472,18 @@
         <v>14</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="M30" s="20" t="s">
         <v>209</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P30" s="20" t="s">
         <v>210</v>
@@ -3517,36 +3511,36 @@
         <v>213</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H31" s="20">
         <v>1</v>
       </c>
       <c r="I31" s="20">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
@@ -3561,46 +3555,46 @@
     </row>
     <row r="32" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H32" s="20">
         <v>1</v>
       </c>
       <c r="I32" s="20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
@@ -3615,46 +3609,44 @@
     </row>
     <row r="33" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="H33" s="20">
+        <v>232</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20">
         <v>1</v>
       </c>
-      <c r="I33" s="20">
-        <v>18</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>229</v>
+      <c r="J33" s="20">
+        <v>4</v>
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
@@ -3667,46 +3659,48 @@
       <c r="Y33" s="24"/>
       <c r="Z33" s="24"/>
     </row>
-    <row r="34" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34" s="20"/>
+        <v>240</v>
+      </c>
+      <c r="H34" s="20">
+        <v>1</v>
+      </c>
       <c r="I34" s="20">
-        <v>1</v>
-      </c>
-      <c r="J34" s="20">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>241</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -3719,48 +3713,48 @@
       <c r="Y34" s="24"/>
       <c r="Z34" s="24"/>
     </row>
-    <row r="35" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H35" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="20">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -3773,48 +3767,48 @@
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
     </row>
-    <row r="36" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H36" s="20">
         <v>2</v>
       </c>
       <c r="I36" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3827,48 +3821,48 @@
       <c r="Y36" s="24"/>
       <c r="Z36" s="24"/>
     </row>
-    <row r="37" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H37" s="20">
         <v>2</v>
       </c>
       <c r="I37" s="20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3881,48 +3875,48 @@
       <c r="Y37" s="24"/>
       <c r="Z37" s="24"/>
     </row>
-    <row r="38" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H38" s="20">
         <v>2</v>
       </c>
       <c r="I38" s="20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
@@ -3937,23 +3931,23 @@
     </row>
     <row r="39" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H39" s="20">
         <v>2</v>
@@ -3961,19 +3955,19 @@
       <c r="I39" s="20">
         <v>10</v>
       </c>
-      <c r="J39" s="20" t="s">
-        <v>277</v>
+      <c r="J39" s="20">
+        <v>114</v>
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="M39" s="20" t="s">
         <v>279</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P39" s="20" t="s">
         <v>280</v>
@@ -4001,36 +3995,36 @@
         <v>283</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="H40" s="20">
         <v>2</v>
       </c>
       <c r="I40" s="20">
-        <v>10</v>
-      </c>
-      <c r="J40" s="20">
-        <v>114</v>
+        <v>9</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>286</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
@@ -4045,46 +4039,46 @@
     </row>
     <row r="41" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>287</v>
+        <v>289</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>282</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>189</v>
+        <v>283</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="H41" s="20">
         <v>2</v>
       </c>
       <c r="I41" s="20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>292</v>
+        <v>183</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
@@ -4099,46 +4093,46 @@
     </row>
     <row r="42" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="H42" s="20">
         <v>2</v>
       </c>
       <c r="I42" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
@@ -4153,46 +4147,46 @@
     </row>
     <row r="43" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>189</v>
+        <v>283</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H43" s="20">
         <v>2</v>
       </c>
       <c r="I43" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="M43" s="26" t="s">
-        <v>302</v>
+        <v>183</v>
+      </c>
+      <c r="M43" s="20" t="s">
+        <v>303</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -4207,46 +4201,46 @@
     </row>
     <row r="44" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>287</v>
+        <v>305</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>306</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H44" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" s="20">
-        <v>12</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>307</v>
+        <v>6</v>
+      </c>
+      <c r="J44" s="20">
+        <v>66</v>
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -4261,46 +4255,46 @@
     </row>
     <row r="45" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H45" s="20">
         <v>3</v>
       </c>
       <c r="I45" s="20">
-        <v>6</v>
-      </c>
-      <c r="J45" s="20">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
@@ -4315,46 +4309,46 @@
     </row>
     <row r="46" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H46" s="20">
         <v>3</v>
       </c>
       <c r="I46" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>322</v>
+        <v>105</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
@@ -4369,46 +4363,46 @@
     </row>
     <row r="47" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H47" s="20">
         <v>3</v>
       </c>
       <c r="I47" s="20">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>105</v>
+        <v>332</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20" t="s">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
@@ -4423,46 +4417,46 @@
     </row>
     <row r="48" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H48" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
-        <v>338</v>
+        <v>203</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
@@ -4477,46 +4471,46 @@
     </row>
     <row r="49" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H49" s="20">
         <v>4</v>
       </c>
       <c r="I49" s="20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
@@ -4531,43 +4525,43 @@
     </row>
     <row r="50" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>352</v>
+        <v>127</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>353</v>
+        <v>128</v>
       </c>
       <c r="H50" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" s="20">
-        <v>7</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="J50" s="20">
+        <v>26</v>
       </c>
       <c r="K50" s="20"/>
       <c r="L50" s="20" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="M50" s="20" t="s">
         <v>354</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P50" s="20" t="s">
         <v>355</v>
@@ -4590,41 +4584,45 @@
       <c r="B51" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="20" t="s">
+        <v>358</v>
+      </c>
       <c r="D51" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H51" s="20">
         <v>1</v>
       </c>
       <c r="I51" s="20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J51" s="20">
-        <v>26</v>
-      </c>
-      <c r="K51" s="20"/>
+        <v>39</v>
+      </c>
+      <c r="K51" s="20">
+        <v>2</v>
+      </c>
       <c r="L51" s="20" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
@@ -4639,25 +4637,23 @@
     </row>
     <row r="52" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C52" s="20" t="s">
         <v>363</v>
       </c>
+      <c r="C52" s="20"/>
       <c r="D52" s="20" t="s">
         <v>364</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H52" s="20">
         <v>1</v>
@@ -4666,23 +4662,23 @@
         <v>4</v>
       </c>
       <c r="J52" s="20">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K52" s="20">
         <v>2</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
@@ -4697,45 +4693,47 @@
     </row>
     <row r="53" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C53" s="20"/>
+        <v>369</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>370</v>
+      </c>
       <c r="D53" s="20" t="s">
-        <v>369</v>
+        <v>480</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H53" s="20">
         <v>1</v>
       </c>
       <c r="I53" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J53" s="20">
-        <v>43</v>
-      </c>
-      <c r="K53" s="20">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="K53" s="23">
+        <v>44198</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>370</v>
+        <v>104</v>
       </c>
       <c r="M53" s="20" t="s">
         <v>371</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P53" s="20" t="s">
         <v>372</v>
@@ -4758,45 +4756,43 @@
       <c r="B54" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>485</v>
-      </c>
       <c r="E54" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>69</v>
+        <v>376</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>70</v>
+        <v>377</v>
       </c>
       <c r="H54" s="20">
         <v>1</v>
       </c>
       <c r="I54" s="20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J54" s="20">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="K54" s="23">
         <v>44198</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
@@ -4811,48 +4807,48 @@
     </row>
     <row r="55" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H55" s="20">
         <v>1</v>
       </c>
       <c r="I55" s="20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J55" s="20">
-        <v>77</v>
-      </c>
-      <c r="K55" s="23">
-        <v>44198</v>
+        <v>88</v>
+      </c>
+      <c r="K55" s="20">
+        <v>2</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
@@ -4867,48 +4863,48 @@
     </row>
     <row r="56" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H56" s="20">
         <v>1</v>
       </c>
       <c r="I56" s="20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J56" s="20">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="K56" s="20">
         <v>2</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
@@ -4923,48 +4919,48 @@
     </row>
     <row r="57" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>395</v>
+        <v>131</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="H57" s="20">
         <v>1</v>
       </c>
       <c r="I57" s="20">
-        <v>6</v>
-      </c>
-      <c r="J57" s="20">
-        <v>65</v>
-      </c>
-      <c r="K57" s="20">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="J57" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="K57" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
@@ -4979,45 +4975,45 @@
     </row>
     <row r="58" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="H58" s="20">
         <v>1</v>
       </c>
       <c r="I58" s="20">
-        <v>9</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="K58" s="20" t="s">
-        <v>140</v>
+        <v>11</v>
+      </c>
+      <c r="J58" s="20">
+        <v>124</v>
+      </c>
+      <c r="K58" s="23">
+        <v>44198</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>404</v>
+        <v>203</v>
       </c>
       <c r="M58" s="20" t="s">
         <v>405</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P58" s="20" t="s">
         <v>406</v>
@@ -5038,14 +5034,14 @@
         <v>407</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>66</v>
@@ -5059,24 +5055,24 @@
       <c r="I59" s="20">
         <v>11</v>
       </c>
-      <c r="J59" s="20">
-        <v>124</v>
-      </c>
-      <c r="K59" s="23">
-        <v>44198</v>
+      <c r="J59" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="K59" s="20">
+        <v>2</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
@@ -5091,17 +5087,17 @@
     </row>
     <row r="60" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>368</v>
+        <v>42</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>66</v>
@@ -5115,24 +5111,24 @@
       <c r="I60" s="20">
         <v>11</v>
       </c>
-      <c r="J60" s="20" t="s">
-        <v>337</v>
+      <c r="J60" s="20">
+        <v>131</v>
       </c>
       <c r="K60" s="20">
         <v>2</v>
       </c>
       <c r="L60" s="20" t="s">
-        <v>370</v>
+        <v>203</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
@@ -5147,45 +5143,45 @@
     </row>
     <row r="61" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B61" s="20" t="s">
         <v>415</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
         <v>416</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H61" s="20">
         <v>1</v>
       </c>
       <c r="I61" s="20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J61" s="20">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K61" s="20">
         <v>2</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M61" s="20" t="s">
         <v>417</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P61" s="20" t="s">
         <v>418</v>
@@ -5213,7 +5209,7 @@
         <v>421</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>73</v>
@@ -5227,24 +5223,24 @@
       <c r="I62" s="20">
         <v>12</v>
       </c>
-      <c r="J62" s="20">
-        <v>136</v>
-      </c>
-      <c r="K62" s="20">
-        <v>2</v>
+      <c r="J62" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>423</v>
       </c>
       <c r="L62" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
@@ -5259,45 +5255,45 @@
     </row>
     <row r="63" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="H63" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="20">
-        <v>12</v>
-      </c>
-      <c r="J63" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="K63" s="20" t="s">
-        <v>428</v>
+        <v>13</v>
+      </c>
+      <c r="J63" s="20">
+        <v>9</v>
+      </c>
+      <c r="K63" s="20">
+        <v>2</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M63" s="20" t="s">
         <v>429</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P63" s="20" t="s">
         <v>430</v>
@@ -5325,35 +5321,35 @@
         <v>433</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F64" s="21" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="H64" s="20">
         <v>2</v>
       </c>
       <c r="I64" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J64" s="20">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K64" s="20">
         <v>2</v>
       </c>
       <c r="L64" s="20" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="M64" s="20" t="s">
         <v>434</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P64" s="20" t="s">
         <v>435</v>
@@ -5381,7 +5377,7 @@
         <v>438</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F65" s="21" t="s">
         <v>80</v>
@@ -5396,7 +5392,7 @@
         <v>14</v>
       </c>
       <c r="J65" s="20">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K65" s="20">
         <v>2</v>
@@ -5409,7 +5405,7 @@
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P65" s="20" t="s">
         <v>440</v>
@@ -5437,22 +5433,22 @@
         <v>443</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="H66" s="20">
         <v>2</v>
       </c>
       <c r="I66" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J66" s="20">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K66" s="20">
         <v>2</v>
@@ -5465,7 +5461,7 @@
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P66" s="20" t="s">
         <v>445</v>
@@ -5482,226 +5478,195 @@
       <c r="Z66" s="24"/>
     </row>
     <row r="67" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20" t="s">
+      <c r="E67" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="29">
+        <v>2</v>
+      </c>
+      <c r="I67" s="29">
+        <v>15</v>
+      </c>
+      <c r="J67" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="E67" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="20">
+      <c r="K67" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="L67" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M67" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="N67" s="12"/>
+      <c r="O67" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="P67" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="32"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="32"/>
+      <c r="Z67" s="32"/>
+    </row>
+    <row r="68" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34" t="s">
+        <v>453</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F68" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H68" s="34">
         <v>2</v>
       </c>
-      <c r="I67" s="20">
-        <v>15</v>
-      </c>
-      <c r="J67" s="20">
-        <v>26</v>
-      </c>
-      <c r="K67" s="20">
+      <c r="I68" s="34">
+        <v>16</v>
+      </c>
+      <c r="J68" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K68" s="35"/>
+      <c r="L68" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="M68" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="N68" s="12"/>
+      <c r="O68" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="P68" s="34" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+    </row>
+    <row r="69" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H69" s="38">
         <v>2</v>
       </c>
-      <c r="L67" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="M67" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="N67" s="12"/>
-      <c r="O67" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="P67" s="20" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-    </row>
-    <row r="68" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29" t="s">
-        <v>452</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="F68" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G68" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H68" s="29">
+      <c r="I69" s="38">
+        <v>16</v>
+      </c>
+      <c r="J69" s="38">
+        <v>41</v>
+      </c>
+      <c r="K69" s="38">
         <v>2</v>
       </c>
-      <c r="I68" s="29">
-        <v>15</v>
-      </c>
-      <c r="J68" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="K68" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="L68" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="M68" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="N68" s="12"/>
-      <c r="O68" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="P68" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="32"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-    </row>
-    <row r="69" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="B69" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34" t="s">
-        <v>458</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="34">
-        <v>2</v>
-      </c>
-      <c r="I69" s="34">
-        <v>16</v>
-      </c>
-      <c r="J69" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="K69" s="35"/>
-      <c r="L69" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="M69" s="34" t="s">
+      <c r="L69" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="M69" s="38" t="s">
         <v>459</v>
       </c>
       <c r="N69" s="12"/>
-      <c r="O69" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="P69" s="34" t="s">
+      <c r="O69" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="P69" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-    </row>
-    <row r="70" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="39" t="s">
-        <v>463</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="H70" s="38">
-        <v>2</v>
-      </c>
-      <c r="I70" s="38">
-        <v>16</v>
-      </c>
-      <c r="J70" s="38">
-        <v>41</v>
-      </c>
-      <c r="K70" s="38">
-        <v>2</v>
-      </c>
-      <c r="L70" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="M70" s="38" t="s">
-        <v>464</v>
-      </c>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="38"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="42"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
       <c r="N70" s="12"/>
-      <c r="O70" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="P70" s="38" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="42"/>
-      <c r="Y70" s="42"/>
-      <c r="Z70" s="42"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="5"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
@@ -5842,7 +5807,7 @@
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
-      <c r="N76" s="12"/>
+      <c r="N76" s="7"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
@@ -21979,29 +21944,29 @@
       <c r="W721" s="5"/>
     </row>
     <row r="722" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A722" s="7"/>
-      <c r="B722" s="7"/>
-      <c r="C722" s="7"/>
-      <c r="D722" s="7"/>
-      <c r="E722" s="7"/>
-      <c r="F722" s="8"/>
-      <c r="G722" s="7"/>
-      <c r="H722" s="7"/>
-      <c r="I722" s="7"/>
-      <c r="J722" s="7"/>
-      <c r="K722" s="7"/>
-      <c r="L722" s="7"/>
-      <c r="M722" s="7"/>
-      <c r="N722" s="7"/>
-      <c r="O722" s="5"/>
-      <c r="P722" s="5"/>
-      <c r="Q722" s="5"/>
-      <c r="R722" s="5"/>
-      <c r="S722" s="5"/>
-      <c r="T722" s="5"/>
-      <c r="U722" s="5"/>
-      <c r="V722" s="5"/>
-      <c r="W722" s="5"/>
+      <c r="A722" s="1"/>
+      <c r="B722" s="1"/>
+      <c r="C722" s="1"/>
+      <c r="D722" s="1"/>
+      <c r="E722" s="1"/>
+      <c r="F722" s="1"/>
+      <c r="G722" s="1"/>
+      <c r="H722" s="1"/>
+      <c r="I722" s="1"/>
+      <c r="J722" s="1"/>
+      <c r="K722" s="1"/>
+      <c r="L722" s="1"/>
+      <c r="M722" s="10"/>
+      <c r="N722" s="1"/>
+      <c r="O722" s="1"/>
+      <c r="P722" s="1"/>
+      <c r="Q722" s="1"/>
+      <c r="R722" s="1"/>
+      <c r="S722" s="1"/>
+      <c r="T722" s="1"/>
+      <c r="U722" s="1"/>
+      <c r="V722" s="1"/>
+      <c r="W722" s="1"/>
     </row>
     <row r="723" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
@@ -22278,34 +22243,9 @@
       <c r="V733" s="1"/>
       <c r="W733" s="1"/>
     </row>
-    <row r="734" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A734" s="1"/>
-      <c r="B734" s="1"/>
-      <c r="C734" s="1"/>
-      <c r="D734" s="1"/>
-      <c r="E734" s="1"/>
-      <c r="F734" s="1"/>
-      <c r="G734" s="1"/>
-      <c r="H734" s="1"/>
-      <c r="I734" s="1"/>
-      <c r="J734" s="1"/>
-      <c r="K734" s="1"/>
-      <c r="L734" s="1"/>
-      <c r="M734" s="10"/>
-      <c r="N734" s="1"/>
-      <c r="O734" s="1"/>
-      <c r="P734" s="1"/>
-      <c r="Q734" s="1"/>
-      <c r="R734" s="1"/>
-      <c r="S734" s="1"/>
-      <c r="T734" s="1"/>
-      <c r="U734" s="1"/>
-      <c r="V734" s="1"/>
-      <c r="W734" s="1"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W22">
-    <sortCondition ref="A4:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W21">
+    <sortCondition ref="A4:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB30E62-2986-BC45-B99D-7F9774AC6F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C5AAC-9EB5-844F-B928-F982E85CF964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="479">
   <si>
     <t>OMV identifier</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Anonymous; Ranavolmanjaka; Rainilaiarivony</t>
   </si>
   <si>
-    <t>Royal Proclamation on Slavery</t>
-  </si>
-  <si>
     <t>1875-02</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>Anonymous; Nee Sima</t>
   </si>
   <si>
-    <t>Letter from a Native Missionary</t>
-  </si>
-  <si>
     <t>1876-01</t>
   </si>
   <si>
@@ -325,9 +319,6 @@
     <t>Anonymous; Diphukwe</t>
   </si>
   <si>
-    <t>Diphukwe's Address</t>
-  </si>
-  <si>
     <t>reported</t>
   </si>
   <si>
@@ -352,9 +343,6 @@
     <t xml:space="preserve">Transactions of the Missionary Society </t>
   </si>
   <si>
-    <t>1804</t>
-  </si>
-  <si>
     <t xml:space="preserve">letters from mixed-race congregants  in Dutch </t>
   </si>
   <si>
@@ -514,9 +502,6 @@
     <t>Jamaica—The Native Pastorate</t>
   </si>
   <si>
-    <t>Madagascar. The Queen's Proclamation</t>
-  </si>
-  <si>
     <t>Anonymous; [South African Missionary Society]; Jan; Karolus</t>
   </si>
   <si>
@@ -530,15 +515,6 @@
   </si>
   <si>
     <t>James Dwane</t>
-  </si>
-  <si>
-    <t>South Africa. Graham Town's District</t>
-  </si>
-  <si>
-    <t>Letter of a Bastard Hottentot; Letter of Another Bastard Hottentot</t>
-  </si>
-  <si>
-    <t>The Autobiography of Poonapun [...]; Autobiography of Authautchee [...]</t>
   </si>
   <si>
     <t>Anoymous; Poonapun; Authautchee</t>
@@ -1511,6 +1487,24 @@
   </si>
   <si>
     <t>The False and the True Vasanta Rayar</t>
+  </si>
+  <si>
+    <t>Rearrangements of the Madagascar Mission</t>
+  </si>
+  <si>
+    <t>India. Bellary</t>
+  </si>
+  <si>
+    <t>Central South Africa</t>
+  </si>
+  <si>
+    <t>South African Mission</t>
+  </si>
+  <si>
+    <t>Graham's Town District</t>
+  </si>
+  <si>
+    <t>1802</t>
   </si>
 </sst>
 </file>
@@ -2105,8 +2099,8 @@
   <dimension ref="A1:Z733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2125,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -2221,16 +2215,16 @@
         <v>12</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -2249,7 +2243,7 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -2296,7 +2290,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
@@ -2398,7 +2392,7 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -2443,11 +2437,11 @@
         <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -2465,7 +2459,7 @@
         <v>160</v>
       </c>
       <c r="J8" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" s="11">
         <v>44198</v>
@@ -2474,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>14</v>
@@ -2489,18 +2483,18 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>172</v>
+        <v>474</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -2518,7 +2512,7 @@
         <v>167</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K9" s="11">
         <v>44198</v>
@@ -2527,7 +2521,7 @@
         <v>46</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>14</v>
@@ -2557,17 +2551,17 @@
         <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H10" s="12">
         <v>15</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="12" t="s">
@@ -2598,7 +2592,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>56</v>
@@ -2643,7 +2637,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>56</v>
@@ -2688,16 +2682,16 @@
         <v>68</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -2709,7 +2703,7 @@
         <v>13</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>14</v>
@@ -2726,35 +2720,35 @@
     </row>
     <row r="14" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>84</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>14</v>
@@ -2771,35 +2765,35 @@
     </row>
     <row r="15" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="17" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>14</v>
@@ -2816,23 +2810,23 @@
     </row>
     <row r="16" spans="1:23" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -2844,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>14</v>
@@ -2861,42 +2855,42 @@
     </row>
     <row r="17" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>171</v>
+        <v>476</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>110</v>
+        <v>478</v>
       </c>
       <c r="G17" s="12">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="H17" s="12">
         <v>1</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K17" s="12"/>
       <c r="L17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
@@ -2910,26 +2904,26 @@
     </row>
     <row r="18" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="17" t="s">
-        <v>126</v>
+      <c r="D18" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I18" s="12">
         <v>44</v>
@@ -2944,10 +2938,10 @@
         <v>16</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
@@ -2961,28 +2955,28 @@
     </row>
     <row r="19" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="I19" s="12">
         <v>46</v>
@@ -2997,10 +2991,10 @@
         <v>16</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -3014,40 +3008,40 @@
     </row>
     <row r="20" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="17" t="s">
-        <v>170</v>
+      <c r="D20" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12" t="s">
         <v>16</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -3061,26 +3055,26 @@
     </row>
     <row r="21" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I21" s="16">
         <v>49</v>
@@ -3093,10 +3087,10 @@
         <v>16</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -3135,31 +3129,31 @@
     </row>
     <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="16"/>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -3174,17 +3168,17 @@
     </row>
     <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>69</v>
@@ -3197,11 +3191,11 @@
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="12" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -3217,34 +3211,34 @@
     </row>
     <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="H25" s="12">
         <v>2</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="12" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -3285,23 +3279,23 @@
     </row>
     <row r="27" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H27" s="20">
         <v>1</v>
@@ -3314,17 +3308,17 @@
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
@@ -3339,23 +3333,23 @@
     </row>
     <row r="28" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H28" s="20">
         <v>1</v>
@@ -3364,21 +3358,21 @@
         <v>13</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
@@ -3393,23 +3387,23 @@
     </row>
     <row r="29" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H29" s="20">
         <v>1</v>
@@ -3418,21 +3412,21 @@
         <v>14</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M29" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
@@ -3447,23 +3441,23 @@
     </row>
     <row r="30" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H30" s="20">
         <v>1</v>
@@ -3472,21 +3466,21 @@
         <v>14</v>
       </c>
       <c r="J30" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K30" s="20"/>
       <c r="L30" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
@@ -3501,23 +3495,23 @@
     </row>
     <row r="31" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H31" s="20">
         <v>1</v>
@@ -3526,21 +3520,21 @@
         <v>17</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
@@ -3555,23 +3549,23 @@
     </row>
     <row r="32" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H32" s="20">
         <v>1</v>
@@ -3580,21 +3574,21 @@
         <v>18</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
@@ -3609,23 +3603,23 @@
     </row>
     <row r="33" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20">
@@ -3636,17 +3630,17 @@
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
@@ -3661,23 +3655,23 @@
     </row>
     <row r="34" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="H34" s="20">
         <v>1</v>
@@ -3686,21 +3680,21 @@
         <v>19</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
         <v>65</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -3715,23 +3709,23 @@
     </row>
     <row r="35" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H35" s="20">
         <v>2</v>
@@ -3740,21 +3734,21 @@
         <v>3</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -3769,23 +3763,23 @@
     </row>
     <row r="36" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H36" s="20">
         <v>2</v>
@@ -3794,21 +3788,21 @@
         <v>4</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3823,23 +3817,23 @@
     </row>
     <row r="37" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H37" s="20">
         <v>2</v>
@@ -3848,21 +3842,21 @@
         <v>6</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3877,23 +3871,23 @@
     </row>
     <row r="38" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H38" s="20">
         <v>2</v>
@@ -3902,21 +3896,21 @@
         <v>10</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M38" s="20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
@@ -3931,23 +3925,23 @@
     </row>
     <row r="39" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H39" s="20">
         <v>2</v>
@@ -3960,17 +3954,17 @@
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
@@ -3985,23 +3979,23 @@
     </row>
     <row r="40" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H40" s="20">
         <v>2</v>
@@ -4010,21 +4004,21 @@
         <v>9</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
@@ -4039,23 +4033,23 @@
     </row>
     <row r="41" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H41" s="20">
         <v>2</v>
@@ -4064,21 +4058,21 @@
         <v>10</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
@@ -4093,23 +4087,23 @@
     </row>
     <row r="42" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H42" s="20">
         <v>2</v>
@@ -4118,21 +4112,21 @@
         <v>11</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
@@ -4147,23 +4141,23 @@
     </row>
     <row r="43" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G43" s="22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="H43" s="20">
         <v>2</v>
@@ -4172,21 +4166,21 @@
         <v>12</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -4201,23 +4195,23 @@
     </row>
     <row r="44" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="H44" s="20">
         <v>3</v>
@@ -4230,17 +4224,17 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -4255,23 +4249,23 @@
     </row>
     <row r="45" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H45" s="20">
         <v>3</v>
@@ -4280,21 +4274,21 @@
         <v>7</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
@@ -4309,23 +4303,23 @@
     </row>
     <row r="46" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H46" s="20">
         <v>3</v>
@@ -4334,21 +4328,21 @@
         <v>9</v>
       </c>
       <c r="J46" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K46" s="20"/>
       <c r="L46" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
@@ -4363,23 +4357,23 @@
     </row>
     <row r="47" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H47" s="20">
         <v>3</v>
@@ -4388,21 +4382,21 @@
         <v>11</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M47" s="20" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
@@ -4417,23 +4411,23 @@
     </row>
     <row r="48" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="H48" s="20">
         <v>4</v>
@@ -4442,21 +4436,21 @@
         <v>6</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
@@ -4471,23 +4465,23 @@
     </row>
     <row r="49" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H49" s="20">
         <v>4</v>
@@ -4496,21 +4490,21 @@
         <v>7</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
@@ -4525,23 +4519,23 @@
     </row>
     <row r="50" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H50" s="20">
         <v>1</v>
@@ -4557,14 +4551,14 @@
         <v>45</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
@@ -4579,25 +4573,25 @@
     </row>
     <row r="51" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H51" s="20">
         <v>1</v>
@@ -4615,14 +4609,14 @@
         <v>65</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
@@ -4637,23 +4631,23 @@
     </row>
     <row r="52" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H52" s="20">
         <v>1</v>
@@ -4668,17 +4662,17 @@
         <v>2</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
@@ -4693,19 +4687,19 @@
     </row>
     <row r="53" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>69</v>
@@ -4726,17 +4720,17 @@
         <v>44198</v>
       </c>
       <c r="L53" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
@@ -4751,23 +4745,23 @@
     </row>
     <row r="54" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H54" s="20">
         <v>1</v>
@@ -4782,17 +4776,17 @@
         <v>44198</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
@@ -4807,23 +4801,23 @@
     </row>
     <row r="55" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F55" s="21" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H55" s="20">
         <v>1</v>
@@ -4838,17 +4832,17 @@
         <v>2</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
@@ -4863,23 +4857,23 @@
     </row>
     <row r="56" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H56" s="20">
         <v>1</v>
@@ -4894,17 +4888,17 @@
         <v>2</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
@@ -4919,23 +4913,23 @@
     </row>
     <row r="57" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F57" s="21" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H57" s="20">
         <v>1</v>
@@ -4944,23 +4938,23 @@
         <v>9</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
@@ -4975,17 +4969,17 @@
     </row>
     <row r="58" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>66</v>
@@ -5006,17 +5000,17 @@
         <v>44198</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
@@ -5031,17 +5025,17 @@
     </row>
     <row r="59" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>66</v>
@@ -5056,23 +5050,23 @@
         <v>11</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="K59" s="20">
         <v>2</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
@@ -5087,17 +5081,17 @@
     </row>
     <row r="60" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>66</v>
@@ -5118,17 +5112,17 @@
         <v>2</v>
       </c>
       <c r="L60" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
@@ -5143,17 +5137,17 @@
     </row>
     <row r="61" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>73</v>
@@ -5174,17 +5168,17 @@
         <v>2</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
@@ -5199,17 +5193,17 @@
     </row>
     <row r="62" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>73</v>
@@ -5224,23 +5218,23 @@
         <v>12</v>
       </c>
       <c r="J62" s="20" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L62" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M62" s="20" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
@@ -5255,23 +5249,23 @@
     </row>
     <row r="63" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H63" s="20">
         <v>2</v>
@@ -5286,17 +5280,17 @@
         <v>2</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
@@ -5311,23 +5305,23 @@
     </row>
     <row r="64" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F64" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="H64" s="20">
         <v>2</v>
@@ -5345,14 +5339,14 @@
         <v>45</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
@@ -5367,23 +5361,23 @@
     </row>
     <row r="65" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F65" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="H65" s="20">
         <v>2</v>
@@ -5401,14 +5395,14 @@
         <v>45</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
@@ -5423,23 +5417,23 @@
     </row>
     <row r="66" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H66" s="20">
         <v>2</v>
@@ -5457,14 +5451,14 @@
         <v>45</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="Q66" s="20"/>
       <c r="R66" s="20"/>
@@ -5479,23 +5473,23 @@
     </row>
     <row r="67" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G67" s="31" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H67" s="29">
         <v>2</v>
@@ -5504,23 +5498,23 @@
         <v>15</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K67" s="29" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M67" s="29" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="29" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P67" s="29" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
@@ -5535,23 +5529,23 @@
     </row>
     <row r="68" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="33" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C68" s="34"/>
       <c r="D68" s="34" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H68" s="34">
         <v>2</v>
@@ -5560,21 +5554,21 @@
         <v>16</v>
       </c>
       <c r="J68" s="34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K68" s="35"/>
       <c r="L68" s="34" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="34" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
@@ -5589,23 +5583,23 @@
     </row>
     <row r="69" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="37" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="39" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H69" s="38">
         <v>2</v>
@@ -5620,17 +5614,17 @@
         <v>2</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="38" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="P69" s="38" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="Q69" s="38"/>
       <c r="R69" s="38"/>

--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C5AAC-9EB5-844F-B928-F982E85CF964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC4B66C-D64A-1243-BE81-894C94ED47A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,9 +484,6 @@
     <t>266-68</t>
   </si>
   <si>
-    <t>Caffres. Extract from a Letter from Mr Brownlee to John Philip</t>
-  </si>
-  <si>
     <t>[John] Philip; Edward Edwards; Anonymous</t>
   </si>
   <si>
@@ -729,6 +726,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Reported first-person account of Dennis's story (while he was ill?); Original publication:</t>
     </r>
@@ -738,6 +736,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Church Missionary Juvenile Instructor</t>
     </r>
@@ -746,6 +745,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (June and July 1850)</t>
     </r>
@@ -780,6 +780,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">A British-Guianan missionary account of snake catching; possible original publication (unconfirmed): </t>
     </r>
@@ -789,6 +790,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Brett's Indian Missions in Guiana</t>
     </r>
@@ -797,6 +799,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>, 35-37</t>
     </r>
@@ -1123,9 +1126,6 @@
     <t>Moule, A.E. [of poem by Dziao]</t>
   </si>
   <si>
-    <t>Praying for Rain in China. Plain Directions as to Prayer for Rain</t>
-  </si>
-  <si>
     <t>A poem praying for rain written by Mr. Dziao</t>
   </si>
   <si>
@@ -1486,9 +1486,6 @@
     <t>Richard F. Burton; Selim Aga</t>
   </si>
   <si>
-    <t>The False and the True Vasanta Rayar</t>
-  </si>
-  <si>
     <t>Rearrangements of the Madagascar Mission</t>
   </si>
   <si>
@@ -1505,6 +1502,15 @@
   </si>
   <si>
     <t>1802</t>
+  </si>
+  <si>
+    <t>Caffres</t>
+  </si>
+  <si>
+    <t>Praying for Rain in China</t>
+  </si>
+  <si>
+    <t>The False and the True Vasanta Rayar. A Narrative of Religious Excitement in Southern India Ten Years Ago</t>
   </si>
 </sst>
 </file>
@@ -1566,18 +1572,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2099,8 +2108,8 @@
   <dimension ref="A1:Z733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2125,7 +2134,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2152,7 +2161,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -2215,16 +2224,16 @@
         <v>12</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="O3" s="43" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P3" s="43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -2243,7 +2252,7 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>154</v>
+        <v>476</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>15</v>
@@ -2290,7 +2299,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12" t="s">
@@ -2392,7 +2401,7 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -2437,11 +2446,11 @@
         <v>47</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -2468,7 +2477,7 @@
         <v>45</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>14</v>
@@ -2488,13 +2497,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>43</v>
@@ -2512,7 +2521,7 @@
         <v>167</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" s="11">
         <v>44198</v>
@@ -2521,7 +2530,7 @@
         <v>46</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>14</v>
@@ -2592,7 +2601,7 @@
         <v>61</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>56</v>
@@ -2637,7 +2646,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>56</v>
@@ -2682,7 +2691,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>56</v>
@@ -2817,7 +2826,7 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>56</v>
@@ -2858,19 +2867,19 @@
         <v>104</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G17" s="12">
         <v>1802</v>
@@ -2911,7 +2920,7 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>117</v>
@@ -2938,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>116</v>
@@ -2958,10 +2967,10 @@
         <v>121</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>122</v>
@@ -2991,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>116</v>
@@ -3129,31 +3138,31 @@
     </row>
     <row r="23" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="16"/>
       <c r="J23" s="12"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -3168,17 +3177,17 @@
     </row>
     <row r="24" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>456</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>458</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>69</v>
@@ -3191,11 +3200,11 @@
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
@@ -3211,34 +3220,34 @@
     </row>
     <row r="25" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="G25" s="8" t="s">
         <v>459</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>461</v>
       </c>
       <c r="H25" s="12">
         <v>2</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -3279,23 +3288,23 @@
     </row>
     <row r="27" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>174</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="H27" s="20">
         <v>1</v>
@@ -3308,17 +3317,17 @@
       </c>
       <c r="K27" s="20"/>
       <c r="L27" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M27" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N27" s="12"/>
       <c r="O27" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" s="20" t="s">
         <v>180</v>
-      </c>
-      <c r="P27" s="20" t="s">
-        <v>181</v>
       </c>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
@@ -3333,23 +3342,23 @@
     </row>
     <row r="28" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>183</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="G28" s="22" t="s">
         <v>185</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>186</v>
       </c>
       <c r="H28" s="20">
         <v>1</v>
@@ -3358,21 +3367,21 @@
         <v>13</v>
       </c>
       <c r="J28" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M28" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
@@ -3387,23 +3396,23 @@
     </row>
     <row r="29" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="H29" s="20">
         <v>1</v>
@@ -3412,21 +3421,21 @@
         <v>14</v>
       </c>
       <c r="J29" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" s="20"/>
       <c r="L29" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M29" s="20" t="s">
         <v>195</v>
-      </c>
-      <c r="M29" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="20"/>
       <c r="R29" s="20"/>
@@ -3441,23 +3450,23 @@
     </row>
     <row r="30" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>199</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F30" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>192</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>193</v>
       </c>
       <c r="H30" s="20">
         <v>1</v>
@@ -3473,14 +3482,14 @@
         <v>45</v>
       </c>
       <c r="M30" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N30" s="12"/>
       <c r="O30" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
@@ -3495,23 +3504,23 @@
     </row>
     <row r="31" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>204</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="G31" s="22" t="s">
         <v>206</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>207</v>
       </c>
       <c r="H31" s="20">
         <v>1</v>
@@ -3520,21 +3529,21 @@
         <v>17</v>
       </c>
       <c r="J31" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K31" s="20"/>
       <c r="L31" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M31" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N31" s="12"/>
       <c r="O31" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P31" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
@@ -3549,23 +3558,23 @@
     </row>
     <row r="32" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="G32" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>215</v>
       </c>
       <c r="H32" s="20">
         <v>1</v>
@@ -3574,21 +3583,21 @@
         <v>18</v>
       </c>
       <c r="J32" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K32" s="20"/>
       <c r="L32" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M32" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N32" s="12"/>
       <c r="O32" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P32" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
@@ -3603,23 +3612,23 @@
     </row>
     <row r="33" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>219</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>220</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="F33" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>224</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20">
@@ -3630,17 +3639,17 @@
       </c>
       <c r="K33" s="20"/>
       <c r="L33" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>226</v>
       </c>
       <c r="N33" s="12"/>
       <c r="O33" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P33" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
@@ -3655,23 +3664,23 @@
     </row>
     <row r="34" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>228</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>229</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>232</v>
       </c>
       <c r="H34" s="20">
         <v>1</v>
@@ -3680,21 +3689,21 @@
         <v>19</v>
       </c>
       <c r="J34" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K34" s="20"/>
       <c r="L34" s="20" t="s">
         <v>65</v>
       </c>
       <c r="M34" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N34" s="12"/>
       <c r="O34" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P34" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
@@ -3709,23 +3718,23 @@
     </row>
     <row r="35" spans="1:26" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>236</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="22" t="s">
         <v>239</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>240</v>
       </c>
       <c r="H35" s="20">
         <v>2</v>
@@ -3734,21 +3743,21 @@
         <v>3</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K35" s="20"/>
       <c r="L35" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="M35" s="20" t="s">
         <v>242</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>243</v>
       </c>
       <c r="N35" s="12"/>
       <c r="O35" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P35" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
@@ -3763,23 +3772,23 @@
     </row>
     <row r="36" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>249</v>
       </c>
       <c r="H36" s="20">
         <v>2</v>
@@ -3795,14 +3804,14 @@
         <v>45</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N36" s="12"/>
       <c r="O36" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P36" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
@@ -3817,23 +3826,23 @@
     </row>
     <row r="37" spans="1:26" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>251</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>252</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="G37" s="22" t="s">
         <v>254</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>255</v>
       </c>
       <c r="H37" s="20">
         <v>2</v>
@@ -3842,21 +3851,21 @@
         <v>6</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P37" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3871,23 +3880,23 @@
     </row>
     <row r="38" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>260</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="G38" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="H38" s="20">
         <v>2</v>
@@ -3896,21 +3905,21 @@
         <v>10</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K38" s="20"/>
       <c r="L38" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="M38" s="20" t="s">
         <v>265</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>266</v>
       </c>
       <c r="N38" s="12"/>
       <c r="O38" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
@@ -3925,23 +3934,23 @@
     </row>
     <row r="39" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>268</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>269</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F39" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="H39" s="20">
         <v>2</v>
@@ -3954,17 +3963,17 @@
       </c>
       <c r="K39" s="20"/>
       <c r="L39" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P39" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
@@ -3979,23 +3988,23 @@
     </row>
     <row r="40" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>273</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>274</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="21" t="s">
+      <c r="G40" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="G40" s="22" t="s">
-        <v>277</v>
       </c>
       <c r="H40" s="20">
         <v>2</v>
@@ -4004,21 +4013,21 @@
         <v>9</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P40" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="20"/>
       <c r="R40" s="20"/>
@@ -4033,23 +4042,23 @@
     </row>
     <row r="41" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F41" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>262</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>263</v>
       </c>
       <c r="H41" s="20">
         <v>2</v>
@@ -4058,21 +4067,21 @@
         <v>10</v>
       </c>
       <c r="J41" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K41" s="20"/>
       <c r="L41" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N41" s="12"/>
       <c r="O41" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
@@ -4087,23 +4096,23 @@
     </row>
     <row r="42" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F42" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>286</v>
-      </c>
-      <c r="G42" s="22" t="s">
-        <v>287</v>
       </c>
       <c r="H42" s="20">
         <v>2</v>
@@ -4112,21 +4121,21 @@
         <v>11</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
@@ -4141,23 +4150,23 @@
     </row>
     <row r="43" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F43" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>292</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>293</v>
       </c>
       <c r="H43" s="20">
         <v>2</v>
@@ -4166,21 +4175,21 @@
         <v>12</v>
       </c>
       <c r="J43" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K43" s="20"/>
       <c r="L43" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M43" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N43" s="12"/>
       <c r="O43" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
@@ -4195,23 +4204,23 @@
     </row>
     <row r="44" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>297</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>298</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="E44" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F44" s="21" t="s">
+      <c r="G44" s="22" t="s">
         <v>300</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>301</v>
       </c>
       <c r="H44" s="20">
         <v>3</v>
@@ -4224,17 +4233,17 @@
       </c>
       <c r="K44" s="20"/>
       <c r="L44" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N44" s="12"/>
       <c r="O44" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
@@ -4249,23 +4258,23 @@
     </row>
     <row r="45" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>304</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>305</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E45" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="21" t="s">
+      <c r="G45" s="22" t="s">
         <v>307</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>308</v>
       </c>
       <c r="H45" s="20">
         <v>3</v>
@@ -4274,21 +4283,21 @@
         <v>7</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20" t="s">
         <v>45</v>
       </c>
       <c r="M45" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
@@ -4303,23 +4312,23 @@
     </row>
     <row r="46" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>313</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F46" s="21" t="s">
+      <c r="G46" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="H46" s="20">
         <v>3</v>
@@ -4335,14 +4344,14 @@
         <v>45</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N46" s="12"/>
       <c r="O46" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
@@ -4357,23 +4366,23 @@
     </row>
     <row r="47" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>319</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>320</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F47" s="21" t="s">
+      <c r="G47" s="22" t="s">
         <v>322</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>323</v>
       </c>
       <c r="H47" s="20">
         <v>3</v>
@@ -4382,21 +4391,21 @@
         <v>11</v>
       </c>
       <c r="J47" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="M47" s="20" t="s">
         <v>325</v>
-      </c>
-      <c r="M47" s="20" t="s">
-        <v>326</v>
       </c>
       <c r="N47" s="12"/>
       <c r="O47" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
@@ -4411,23 +4420,23 @@
     </row>
     <row r="48" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>329</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F48" s="21" t="s">
+      <c r="G48" s="22" t="s">
         <v>331</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>332</v>
       </c>
       <c r="H48" s="20">
         <v>4</v>
@@ -4436,21 +4445,21 @@
         <v>6</v>
       </c>
       <c r="J48" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K48" s="20"/>
       <c r="L48" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M48" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N48" s="12"/>
       <c r="O48" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
@@ -4465,23 +4474,23 @@
     </row>
     <row r="49" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>336</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>337</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="E49" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F49" s="21" t="s">
+      <c r="G49" s="22" t="s">
         <v>339</v>
-      </c>
-      <c r="G49" s="22" t="s">
-        <v>340</v>
       </c>
       <c r="H49" s="20">
         <v>4</v>
@@ -4494,17 +4503,17 @@
       </c>
       <c r="K49" s="20"/>
       <c r="L49" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M49" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N49" s="12"/>
       <c r="O49" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q49" s="20"/>
       <c r="R49" s="20"/>
@@ -4519,17 +4528,17 @@
     </row>
     <row r="50" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>344</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>123</v>
@@ -4551,14 +4560,14 @@
         <v>45</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
@@ -4573,19 +4582,19 @@
     </row>
     <row r="51" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>351</v>
+      <c r="D51" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>125</v>
@@ -4609,14 +4618,14 @@
         <v>65</v>
       </c>
       <c r="M51" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N51" s="12"/>
       <c r="O51" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
@@ -4631,17 +4640,17 @@
     </row>
     <row r="52" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>125</v>
@@ -4662,17 +4671,17 @@
         <v>2</v>
       </c>
       <c r="L52" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M52" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="N52" s="12"/>
       <c r="O52" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
@@ -4687,19 +4696,19 @@
     </row>
     <row r="53" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>472</v>
+      <c r="D53" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F53" s="21" t="s">
         <v>69</v>
@@ -4723,14 +4732,14 @@
         <v>101</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N53" s="12"/>
       <c r="O53" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
@@ -4745,23 +4754,23 @@
     </row>
     <row r="54" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54" s="22" t="s">
         <v>367</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>369</v>
       </c>
       <c r="H54" s="20">
         <v>1</v>
@@ -4776,17 +4785,17 @@
         <v>44198</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N54" s="12"/>
       <c r="O54" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
@@ -4801,23 +4810,23 @@
     </row>
     <row r="55" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>374</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>376</v>
       </c>
       <c r="H55" s="20">
         <v>1</v>
@@ -4832,17 +4841,17 @@
         <v>2</v>
       </c>
       <c r="L55" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M55" s="20" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="N55" s="12"/>
       <c r="O55" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
@@ -4857,23 +4866,23 @@
     </row>
     <row r="56" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>381</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>383</v>
       </c>
       <c r="H56" s="20">
         <v>1</v>
@@ -4888,17 +4897,17 @@
         <v>2</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M56" s="20" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
@@ -4913,17 +4922,17 @@
     </row>
     <row r="57" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>127</v>
@@ -4938,23 +4947,23 @@
         <v>9</v>
       </c>
       <c r="J57" s="20" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K57" s="20" t="s">
         <v>132</v>
       </c>
       <c r="L57" s="20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M57" s="20" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N57" s="12"/>
       <c r="O57" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
@@ -4969,17 +4978,17 @@
     </row>
     <row r="58" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>66</v>
@@ -5000,17 +5009,17 @@
         <v>44198</v>
       </c>
       <c r="L58" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M58" s="20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N58" s="12"/>
       <c r="O58" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
@@ -5025,17 +5034,17 @@
     </row>
     <row r="59" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>66</v>
@@ -5050,23 +5059,23 @@
         <v>11</v>
       </c>
       <c r="J59" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K59" s="20">
         <v>2</v>
       </c>
       <c r="L59" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N59" s="12"/>
       <c r="O59" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
@@ -5081,17 +5090,17 @@
     </row>
     <row r="60" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>66</v>
@@ -5112,17 +5121,17 @@
         <v>2</v>
       </c>
       <c r="L60" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M60" s="20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N60" s="12"/>
       <c r="O60" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
@@ -5137,17 +5146,17 @@
     </row>
     <row r="61" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>73</v>
@@ -5168,17 +5177,17 @@
         <v>2</v>
       </c>
       <c r="L61" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M61" s="20" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N61" s="12"/>
       <c r="O61" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
@@ -5193,17 +5202,17 @@
     </row>
     <row r="62" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>73</v>
@@ -5218,23 +5227,23 @@
         <v>12</v>
       </c>
       <c r="J62" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M62" s="20" t="s">
         <v>414</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="M62" s="20" t="s">
-        <v>416</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
@@ -5249,17 +5258,17 @@
     </row>
     <row r="63" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E63" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>130</v>
@@ -5280,17 +5289,17 @@
         <v>2</v>
       </c>
       <c r="L63" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M63" s="20" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
@@ -5305,17 +5314,17 @@
     </row>
     <row r="64" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>79</v>
@@ -5339,14 +5348,14 @@
         <v>45</v>
       </c>
       <c r="M64" s="20" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
@@ -5361,17 +5370,17 @@
     </row>
     <row r="65" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F65" s="21" t="s">
         <v>79</v>
@@ -5395,14 +5404,14 @@
         <v>45</v>
       </c>
       <c r="M65" s="20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
@@ -5417,17 +5426,17 @@
     </row>
     <row r="66" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F66" s="21" t="s">
         <v>133</v>
@@ -5451,14 +5460,14 @@
         <v>45</v>
       </c>
       <c r="M66" s="20" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q66" s="20"/>
       <c r="R66" s="20"/>
@@ -5473,17 +5482,17 @@
     </row>
     <row r="67" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F67" s="30" t="s">
         <v>133</v>
@@ -5498,23 +5507,23 @@
         <v>15</v>
       </c>
       <c r="J67" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K67" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M67" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="29" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P67" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
@@ -5529,17 +5538,17 @@
     </row>
     <row r="68" spans="1:26" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C68" s="34"/>
       <c r="D68" s="34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>135</v>
@@ -5558,17 +5567,17 @@
       </c>
       <c r="K68" s="35"/>
       <c r="L68" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P68" s="34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Q68" s="35"/>
       <c r="R68" s="35"/>
@@ -5583,17 +5592,17 @@
     </row>
     <row r="69" spans="1:26" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="39" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E69" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F69" s="40" t="s">
         <v>135</v>
@@ -5614,17 +5623,17 @@
         <v>2</v>
       </c>
       <c r="L69" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M69" s="38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P69" s="38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="Q69" s="38"/>
       <c r="R69" s="38"/>

--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1BD59-B893-6C4D-B95D-83E3850B1F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772DB56-8739-4347-ACCD-989DEEAE5E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,9 +811,6 @@
     <t>liv_026014</t>
   </si>
   <si>
-    <t>Anonymous; [W. Clarkson]; Gungaram; "Native Catechist"</t>
-  </si>
-  <si>
     <t>The Hindus</t>
   </si>
   <si>
@@ -1571,6 +1568,9 @@
   </si>
   <si>
     <t>article subtitle(s)</t>
+  </si>
+  <si>
+    <t>Anonymous; [W. Clarkson]; Gungaram</t>
   </si>
 </sst>
 </file>
@@ -2167,9 +2167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2262,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -2295,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="P3" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q3" s="43" t="s">
         <v>451</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>452</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -2317,10 +2317,10 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>15</v>
@@ -2424,7 +2424,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>15</v>
@@ -2476,7 +2476,7 @@
         <v>155</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>15</v>
@@ -2579,10 +2579,10 @@
         <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>43</v>
@@ -2636,7 +2636,7 @@
         <v>55</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>43</v>
@@ -2775,10 +2775,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>56</v>
@@ -2826,7 +2826,7 @@
         <v>87</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>56</v>
@@ -2874,7 +2874,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>56</v>
@@ -2919,10 +2919,10 @@
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>56</v>
@@ -2969,16 +2969,16 @@
         <v>105</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>106</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H17" s="12">
         <v>1802</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
@@ -3076,7 +3076,7 @@
         <v>122</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>117</v>
@@ -3130,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>117</v>
@@ -3246,34 +3246,34 @@
     </row>
     <row r="23" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>467</v>
       </c>
       <c r="I23" s="13"/>
       <c r="J23" s="16"/>
       <c r="K23" s="12"/>
       <c r="L23" s="13"/>
       <c r="M23" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -3288,18 +3288,18 @@
     </row>
     <row r="24" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>69</v>
@@ -3312,11 +3312,11 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L24" s="13"/>
       <c r="M24" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -3332,35 +3332,35 @@
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I25" s="12">
         <v>2</v>
       </c>
       <c r="J25" s="16"/>
       <c r="K25" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L25" s="13"/>
       <c r="M25" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -3522,7 +3522,7 @@
         <v>190</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>175</v>
@@ -3899,22 +3899,22 @@
       <c r="A36" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>245</v>
+      <c r="B36" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G36" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>248</v>
       </c>
       <c r="I36" s="20">
         <v>2</v>
@@ -3937,7 +3937,7 @@
         <v>179</v>
       </c>
       <c r="Q36" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R36" s="20"/>
       <c r="S36" s="20"/>
@@ -3952,24 +3952,24 @@
     </row>
     <row r="37" spans="1:27" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>250</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>251</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G37" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="H37" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>254</v>
       </c>
       <c r="I37" s="20">
         <v>2</v>
@@ -3978,21 +3978,21 @@
         <v>6</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="20" t="s">
         <v>45</v>
       </c>
       <c r="N37" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O37" s="12"/>
       <c r="P37" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q37" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R37" s="20"/>
       <c r="S37" s="20"/>
@@ -4007,24 +4007,24 @@
     </row>
     <row r="38" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>258</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>259</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G38" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="I38" s="20">
         <v>2</v>
@@ -4033,21 +4033,21 @@
         <v>10</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="N38" s="20" t="s">
         <v>264</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>265</v>
       </c>
       <c r="O38" s="12"/>
       <c r="P38" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R38" s="20"/>
       <c r="S38" s="20"/>
@@ -4062,24 +4062,24 @@
     </row>
     <row r="39" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>267</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>268</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G39" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="I39" s="20">
         <v>2</v>
@@ -4095,14 +4095,14 @@
         <v>194</v>
       </c>
       <c r="N39" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O39" s="12"/>
       <c r="P39" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q39" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R39" s="20"/>
       <c r="S39" s="20"/>
@@ -4117,24 +4117,24 @@
     </row>
     <row r="40" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>272</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>273</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G40" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="I40" s="20">
         <v>2</v>
@@ -4143,21 +4143,21 @@
         <v>9</v>
       </c>
       <c r="K40" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="20" t="s">
         <v>174</v>
       </c>
       <c r="N40" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R40" s="20"/>
       <c r="S40" s="20"/>
@@ -4172,24 +4172,24 @@
     </row>
     <row r="41" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="26" t="s">
         <v>175</v>
       </c>
       <c r="G41" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>261</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="I41" s="20">
         <v>2</v>
@@ -4198,21 +4198,21 @@
         <v>10</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="20" t="s">
         <v>174</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O41" s="12"/>
       <c r="P41" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q41" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R41" s="20"/>
       <c r="S41" s="20"/>
@@ -4227,24 +4227,24 @@
     </row>
     <row r="42" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="26" t="s">
         <v>175</v>
       </c>
       <c r="G42" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="H42" s="22" t="s">
-        <v>286</v>
       </c>
       <c r="I42" s="20">
         <v>2</v>
@@ -4253,21 +4253,21 @@
         <v>11</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="20" t="s">
         <v>174</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O42" s="12"/>
       <c r="P42" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q42" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="R42" s="20"/>
       <c r="S42" s="20"/>
@@ -4282,24 +4282,24 @@
     </row>
     <row r="43" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G43" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="22" t="s">
         <v>291</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="I43" s="20">
         <v>2</v>
@@ -4308,21 +4308,21 @@
         <v>12</v>
       </c>
       <c r="K43" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="20" t="s">
         <v>174</v>
       </c>
       <c r="N43" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O43" s="12"/>
       <c r="P43" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q43" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
@@ -4337,24 +4337,24 @@
     </row>
     <row r="44" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>296</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>297</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G44" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H44" s="22" t="s">
         <v>299</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>300</v>
       </c>
       <c r="I44" s="20">
         <v>3</v>
@@ -4370,14 +4370,14 @@
         <v>174</v>
       </c>
       <c r="N44" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O44" s="12"/>
       <c r="P44" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q44" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R44" s="20"/>
       <c r="S44" s="20"/>
@@ -4392,24 +4392,24 @@
     </row>
     <row r="45" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>303</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>304</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G45" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>306</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>307</v>
       </c>
       <c r="I45" s="20">
         <v>3</v>
@@ -4418,21 +4418,21 @@
         <v>7</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="20" t="s">
         <v>45</v>
       </c>
       <c r="N45" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O45" s="12"/>
       <c r="P45" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q45" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="R45" s="20"/>
       <c r="S45" s="20"/>
@@ -4447,24 +4447,24 @@
     </row>
     <row r="46" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B46" s="20" t="s">
         <v>311</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>312</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G46" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="H46" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="H46" s="22" t="s">
-        <v>315</v>
       </c>
       <c r="I46" s="20">
         <v>3</v>
@@ -4480,14 +4480,14 @@
         <v>45</v>
       </c>
       <c r="N46" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O46" s="12"/>
       <c r="P46" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q46" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R46" s="20"/>
       <c r="S46" s="20"/>
@@ -4502,24 +4502,24 @@
     </row>
     <row r="47" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>318</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>319</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G47" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="H47" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="H47" s="22" t="s">
-        <v>322</v>
       </c>
       <c r="I47" s="20">
         <v>3</v>
@@ -4528,21 +4528,21 @@
         <v>11</v>
       </c>
       <c r="K47" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L47" s="20"/>
       <c r="M47" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="N47" s="20" t="s">
         <v>324</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>325</v>
       </c>
       <c r="O47" s="12"/>
       <c r="P47" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q47" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R47" s="20"/>
       <c r="S47" s="20"/>
@@ -4557,24 +4557,24 @@
     </row>
     <row r="48" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>327</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G48" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="H48" s="22" t="s">
         <v>330</v>
-      </c>
-      <c r="H48" s="22" t="s">
-        <v>331</v>
       </c>
       <c r="I48" s="20">
         <v>4</v>
@@ -4583,21 +4583,21 @@
         <v>6</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="20" t="s">
         <v>194</v>
       </c>
       <c r="N48" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q48" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R48" s="20"/>
       <c r="S48" s="20"/>
@@ -4612,24 +4612,24 @@
     </row>
     <row r="49" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>336</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G49" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>338</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>339</v>
       </c>
       <c r="I49" s="20">
         <v>4</v>
@@ -4645,14 +4645,14 @@
         <v>194</v>
       </c>
       <c r="N49" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O49" s="12"/>
       <c r="P49" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q49" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R49" s="20"/>
       <c r="S49" s="20"/>
@@ -4667,14 +4667,14 @@
     </row>
     <row r="50" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>343</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20" t="s">
@@ -4700,14 +4700,14 @@
         <v>45</v>
       </c>
       <c r="N50" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O50" s="12"/>
       <c r="P50" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q50" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R50" s="20"/>
       <c r="S50" s="20"/>
@@ -4722,19 +4722,19 @@
     </row>
     <row r="51" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C51" s="20" t="s">
-        <v>349</v>
-      </c>
       <c r="D51" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F51" s="20" t="s">
         <v>175</v>
@@ -4761,14 +4761,14 @@
         <v>65</v>
       </c>
       <c r="N51" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O51" s="12"/>
       <c r="P51" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q51" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
@@ -4783,17 +4783,17 @@
     </row>
     <row r="52" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>353</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>175</v>
@@ -4817,17 +4817,17 @@
         <v>2</v>
       </c>
       <c r="M52" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="N52" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="N52" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="O52" s="12"/>
       <c r="P52" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q52" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R52" s="20"/>
       <c r="S52" s="20"/>
@@ -4842,19 +4842,19 @@
     </row>
     <row r="53" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="C53" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>360</v>
-      </c>
       <c r="D53" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>175</v>
@@ -4881,14 +4881,14 @@
         <v>101</v>
       </c>
       <c r="N53" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O53" s="12"/>
       <c r="P53" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q53" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R53" s="20"/>
       <c r="S53" s="20"/>
@@ -4903,24 +4903,24 @@
     </row>
     <row r="54" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G54" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H54" s="22" t="s">
         <v>366</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>367</v>
       </c>
       <c r="I54" s="20">
         <v>1</v>
@@ -4938,14 +4938,14 @@
         <v>194</v>
       </c>
       <c r="N54" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O54" s="12"/>
       <c r="P54" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R54" s="20"/>
       <c r="S54" s="20"/>
@@ -4960,24 +4960,24 @@
     </row>
     <row r="55" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>370</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>371</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G55" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="H55" s="22" t="s">
         <v>373</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>374</v>
       </c>
       <c r="I55" s="20">
         <v>1</v>
@@ -4995,14 +4995,14 @@
         <v>174</v>
       </c>
       <c r="N55" s="20" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O55" s="12"/>
       <c r="P55" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q55" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R55" s="20"/>
       <c r="S55" s="20"/>
@@ -5017,24 +5017,24 @@
     </row>
     <row r="56" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>377</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>378</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20" t="s">
         <v>175</v>
       </c>
       <c r="G56" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="H56" s="22" t="s">
         <v>380</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>381</v>
       </c>
       <c r="I56" s="20">
         <v>1</v>
@@ -5049,17 +5049,17 @@
         <v>2</v>
       </c>
       <c r="M56" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="N56" s="20" t="s">
         <v>382</v>
-      </c>
-      <c r="N56" s="20" t="s">
-        <v>383</v>
       </c>
       <c r="O56" s="12"/>
       <c r="P56" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R56" s="20"/>
       <c r="S56" s="20"/>
@@ -5074,14 +5074,14 @@
     </row>
     <row r="57" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="C57" s="20"/>
       <c r="D57" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20" t="s">
@@ -5100,23 +5100,23 @@
         <v>9</v>
       </c>
       <c r="K57" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L57" s="20" t="s">
         <v>132</v>
       </c>
       <c r="M57" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="N57" s="20" t="s">
         <v>389</v>
-      </c>
-      <c r="N57" s="20" t="s">
-        <v>390</v>
       </c>
       <c r="O57" s="12"/>
       <c r="P57" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q57" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R57" s="20"/>
       <c r="S57" s="20"/>
@@ -5131,17 +5131,17 @@
     </row>
     <row r="58" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>392</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>393</v>
       </c>
       <c r="C58" s="20"/>
       <c r="D58" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>175</v>
@@ -5168,14 +5168,14 @@
         <v>194</v>
       </c>
       <c r="N58" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O58" s="12"/>
       <c r="P58" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R58" s="20"/>
       <c r="S58" s="20"/>
@@ -5190,17 +5190,17 @@
     </row>
     <row r="59" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C59" s="20"/>
       <c r="D59" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F59" s="20" t="s">
         <v>175</v>
@@ -5218,23 +5218,23 @@
         <v>11</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L59" s="20">
         <v>2</v>
       </c>
       <c r="M59" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="N59" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="O59" s="12"/>
       <c r="P59" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q59" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="R59" s="20"/>
       <c r="S59" s="20"/>
@@ -5249,14 +5249,14 @@
     </row>
     <row r="60" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="20" t="s">
@@ -5284,14 +5284,14 @@
         <v>194</v>
       </c>
       <c r="N60" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O60" s="12"/>
       <c r="P60" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R60" s="20"/>
       <c r="S60" s="20"/>
@@ -5306,14 +5306,14 @@
     </row>
     <row r="61" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" s="20" t="s">
         <v>404</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20" t="s">
@@ -5341,14 +5341,14 @@
         <v>194</v>
       </c>
       <c r="N61" s="20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O61" s="12"/>
       <c r="P61" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q61" s="20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R61" s="20"/>
       <c r="S61" s="20"/>
@@ -5363,14 +5363,14 @@
     </row>
     <row r="62" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>409</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>410</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20" t="s">
@@ -5389,23 +5389,23 @@
         <v>12</v>
       </c>
       <c r="K62" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="L62" s="20" t="s">
         <v>412</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="M62" s="20" t="s">
         <v>194</v>
       </c>
       <c r="N62" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O62" s="12"/>
       <c r="P62" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R62" s="20"/>
       <c r="S62" s="20"/>
@@ -5420,14 +5420,14 @@
     </row>
     <row r="63" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B63" s="20" t="s">
         <v>416</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>417</v>
       </c>
       <c r="C63" s="20"/>
       <c r="D63" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20" t="s">
@@ -5455,14 +5455,14 @@
         <v>194</v>
       </c>
       <c r="N63" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O63" s="12"/>
       <c r="P63" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q63" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R63" s="20"/>
       <c r="S63" s="20"/>
@@ -5477,14 +5477,14 @@
     </row>
     <row r="64" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>421</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>422</v>
       </c>
       <c r="C64" s="20"/>
       <c r="D64" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20" t="s">
@@ -5512,14 +5512,14 @@
         <v>45</v>
       </c>
       <c r="N64" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O64" s="12"/>
       <c r="P64" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R64" s="20"/>
       <c r="S64" s="20"/>
@@ -5534,14 +5534,14 @@
     </row>
     <row r="65" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="B65" s="20" t="s">
         <v>426</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>427</v>
       </c>
       <c r="C65" s="20"/>
       <c r="D65" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E65" s="20"/>
       <c r="F65" s="20" t="s">
@@ -5569,14 +5569,14 @@
         <v>45</v>
       </c>
       <c r="N65" s="20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O65" s="12"/>
       <c r="P65" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q65" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R65" s="20"/>
       <c r="S65" s="20"/>
@@ -5591,14 +5591,14 @@
     </row>
     <row r="66" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>432</v>
       </c>
       <c r="C66" s="20"/>
       <c r="D66" s="20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E66" s="20"/>
       <c r="F66" s="20" t="s">
@@ -5626,14 +5626,14 @@
         <v>45</v>
       </c>
       <c r="N66" s="20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O66" s="12"/>
       <c r="P66" s="20" t="s">
         <v>179</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="R66" s="20"/>
       <c r="S66" s="20"/>
@@ -5648,14 +5648,14 @@
     </row>
     <row r="67" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B67" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="29" t="s">
@@ -5674,23 +5674,23 @@
         <v>15</v>
       </c>
       <c r="K67" s="29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L67" s="29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M67" s="29" t="s">
         <v>194</v>
       </c>
       <c r="N67" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O67" s="12"/>
       <c r="P67" s="29" t="s">
         <v>179</v>
       </c>
       <c r="Q67" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
@@ -5705,14 +5705,14 @@
     </row>
     <row r="68" spans="1:27" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B68" s="34" t="s">
         <v>441</v>
-      </c>
-      <c r="B68" s="34" t="s">
-        <v>442</v>
       </c>
       <c r="C68" s="34"/>
       <c r="D68" s="34" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E68" s="34"/>
       <c r="F68" s="34" t="s">
@@ -5738,14 +5738,14 @@
         <v>194</v>
       </c>
       <c r="N68" s="34" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O68" s="12"/>
       <c r="P68" s="34" t="s">
         <v>179</v>
       </c>
       <c r="Q68" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R68" s="35"/>
       <c r="S68" s="35"/>
@@ -5760,14 +5760,14 @@
     </row>
     <row r="69" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="38" t="s">
         <v>446</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>447</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="39" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="38" t="s">
@@ -5795,14 +5795,14 @@
         <v>194</v>
       </c>
       <c r="N69" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O69" s="12"/>
       <c r="P69" s="38" t="s">
         <v>179</v>
       </c>
       <c r="Q69" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>

--- a/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
+++ b/txt/bipoc-voices-corpus/data/bipoc-voices-corpus-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/txt/bipoc-voices-corpus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C772DB56-8739-4347-ACCD-989DEEAE5E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95F6E51-3447-F647-8A21-201A6513A12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1810,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1861,7 +1861,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1949,6 +1948,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2168,14 +2179,14 @@
   <dimension ref="A1:AA733"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" style="55" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="5" width="56.83203125" customWidth="1"/>
     <col min="6" max="6" width="50.83203125" customWidth="1"/>
@@ -2193,25 +2204,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -2221,25 +2232,25 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="46"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2252,7 +2263,7 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2294,10 +2305,10 @@
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="42" t="s">
         <v>451</v>
       </c>
       <c r="R3" s="5"/>
@@ -2962,7 +2973,7 @@
       <c r="A17" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="54" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -3172,7 +3183,7 @@
       <c r="A21" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="13" t="s">
         <v>146</v>
       </c>
       <c r="C21" s="5"/>
@@ -3219,23 +3230,23 @@
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
@@ -3375,23 +3386,23 @@
       <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
@@ -3400,1334 +3411,1334 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <v>1</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="19">
         <v>1</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="22">
         <v>44480</v>
       </c>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20" t="s">
+      <c r="L27" s="19"/>
+      <c r="M27" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="19" t="s">
         <v>178</v>
       </c>
       <c r="O27" s="12"/>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q27" s="20" t="s">
+      <c r="Q27" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-    </row>
-    <row r="28" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+    </row>
+    <row r="28" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="E28" s="19"/>
+      <c r="F28" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>1</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="19">
         <v>13</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20" t="s">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="19" t="s">
         <v>187</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="20" t="s">
+      <c r="P28" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="Q28" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="24"/>
-    </row>
-    <row r="29" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+    </row>
+    <row r="29" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <v>1</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="19">
         <v>14</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20" t="s">
+      <c r="L29" s="19"/>
+      <c r="M29" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="19" t="s">
         <v>195</v>
       </c>
       <c r="O29" s="12"/>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q29" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-    </row>
-    <row r="30" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+    </row>
+    <row r="30" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
+      <c r="E30" s="19"/>
+      <c r="F30" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G30" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="22" t="s">
+      <c r="H30" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="19">
         <v>1</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="19">
         <v>14</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20" t="s">
+      <c r="L30" s="19"/>
+      <c r="M30" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N30" s="20" t="s">
+      <c r="N30" s="19" t="s">
         <v>200</v>
       </c>
       <c r="O30" s="12"/>
-      <c r="P30" s="20" t="s">
+      <c r="P30" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q30" s="20" t="s">
+      <c r="Q30" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-    </row>
-    <row r="31" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+    </row>
+    <row r="31" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
+      <c r="E31" s="19"/>
+      <c r="F31" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="22" t="s">
+      <c r="H31" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="19">
         <v>1</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <v>17</v>
       </c>
-      <c r="K31" s="20" t="s">
+      <c r="K31" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20" t="s">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N31" s="20" t="s">
+      <c r="N31" s="19" t="s">
         <v>208</v>
       </c>
       <c r="O31" s="12"/>
-      <c r="P31" s="20" t="s">
+      <c r="P31" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q31" s="20" t="s">
+      <c r="Q31" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-    </row>
-    <row r="32" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+    </row>
+    <row r="32" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="21" t="s">
+      <c r="G32" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H32" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="19">
         <v>1</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="19">
         <v>18</v>
       </c>
-      <c r="K32" s="20" t="s">
+      <c r="K32" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20" t="s">
+      <c r="L32" s="19"/>
+      <c r="M32" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="19" t="s">
         <v>216</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="20" t="s">
+      <c r="P32" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q32" s="20" t="s">
+      <c r="Q32" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-    </row>
-    <row r="33" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+    </row>
+    <row r="33" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="G33" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20">
+      <c r="I33" s="19"/>
+      <c r="J33" s="19">
         <v>1</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="19">
         <v>4</v>
       </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20" t="s">
+      <c r="L33" s="19"/>
+      <c r="M33" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="N33" s="20" t="s">
+      <c r="N33" s="19" t="s">
         <v>225</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="20" t="s">
+      <c r="P33" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q33" s="20" t="s">
+      <c r="Q33" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-    </row>
-    <row r="34" spans="1:27" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+    </row>
+    <row r="34" spans="1:27" s="24" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="19">
         <v>1</v>
       </c>
-      <c r="J34" s="20">
+      <c r="J34" s="19">
         <v>19</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20" t="s">
+      <c r="L34" s="19"/>
+      <c r="M34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="19" t="s">
         <v>233</v>
       </c>
       <c r="O34" s="12"/>
-      <c r="P34" s="20" t="s">
+      <c r="P34" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q34" s="20" t="s">
+      <c r="Q34" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="24"/>
-      <c r="AA34" s="24"/>
-    </row>
-    <row r="35" spans="1:27" s="25" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="23"/>
+      <c r="Y34" s="23"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+    </row>
+    <row r="35" spans="1:27" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20" t="s">
+      <c r="C35" s="19"/>
+      <c r="D35" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="21" t="s">
+      <c r="G35" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <v>2</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="19">
         <v>3</v>
       </c>
-      <c r="K35" s="20" t="s">
+      <c r="K35" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20" t="s">
+      <c r="L35" s="19"/>
+      <c r="M35" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="N35" s="20" t="s">
+      <c r="N35" s="19" t="s">
         <v>242</v>
       </c>
       <c r="O35" s="12"/>
-      <c r="P35" s="20" t="s">
+      <c r="P35" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q35" s="20" t="s">
+      <c r="Q35" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="24"/>
-      <c r="AA35" s="24"/>
-    </row>
-    <row r="36" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+    </row>
+    <row r="36" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>244</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G36" s="21" t="s">
+      <c r="G36" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="19">
         <v>2</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="19">
         <v>4</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20" t="s">
+      <c r="L36" s="19"/>
+      <c r="M36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N36" s="20" t="s">
+      <c r="N36" s="19" t="s">
         <v>216</v>
       </c>
       <c r="O36" s="12"/>
-      <c r="P36" s="20" t="s">
+      <c r="P36" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q36" s="20" t="s">
+      <c r="Q36" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="24"/>
-      <c r="AA36" s="24"/>
-    </row>
-    <row r="37" spans="1:27" s="25" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="23"/>
+      <c r="Y36" s="23"/>
+      <c r="Z36" s="23"/>
+      <c r="AA36" s="23"/>
+    </row>
+    <row r="37" spans="1:27" s="24" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="H37" s="22" t="s">
+      <c r="H37" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="19">
         <v>2</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="19">
         <v>6</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20" t="s">
+      <c r="L37" s="19"/>
+      <c r="M37" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N37" s="20" t="s">
+      <c r="N37" s="19" t="s">
         <v>255</v>
       </c>
       <c r="O37" s="12"/>
-      <c r="P37" s="20" t="s">
+      <c r="P37" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q37" s="20" t="s">
+      <c r="Q37" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-    </row>
-    <row r="38" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+    </row>
+    <row r="38" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="H38" s="22" t="s">
+      <c r="H38" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="19">
         <v>2</v>
       </c>
-      <c r="J38" s="20">
+      <c r="J38" s="19">
         <v>10</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20" t="s">
+      <c r="L38" s="19"/>
+      <c r="M38" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="N38" s="20" t="s">
+      <c r="N38" s="19" t="s">
         <v>264</v>
       </c>
       <c r="O38" s="12"/>
-      <c r="P38" s="20" t="s">
+      <c r="P38" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q38" s="20" t="s">
+      <c r="Q38" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-      <c r="AA38" s="24"/>
-    </row>
-    <row r="39" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+      <c r="AA38" s="23"/>
+    </row>
+    <row r="39" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20" t="s">
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20" t="s">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="19">
         <v>2</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J39" s="19">
         <v>10</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="19">
         <v>114</v>
       </c>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20" t="s">
+      <c r="L39" s="19"/>
+      <c r="M39" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N39" s="20" t="s">
+      <c r="N39" s="19" t="s">
         <v>269</v>
       </c>
       <c r="O39" s="12"/>
-      <c r="P39" s="20" t="s">
+      <c r="P39" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q39" s="20" t="s">
+      <c r="Q39" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-    </row>
-    <row r="40" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
+      <c r="AA39" s="23"/>
+    </row>
+    <row r="40" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20" t="s">
+      <c r="E40" s="19"/>
+      <c r="F40" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G40" s="21" t="s">
+      <c r="G40" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="19">
         <v>2</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="19">
         <v>9</v>
       </c>
-      <c r="K40" s="20" t="s">
+      <c r="K40" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20" t="s">
+      <c r="L40" s="19"/>
+      <c r="M40" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N40" s="20" t="s">
+      <c r="N40" s="19" t="s">
         <v>277</v>
       </c>
       <c r="O40" s="12"/>
-      <c r="P40" s="20" t="s">
+      <c r="P40" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q40" s="20" t="s">
+      <c r="Q40" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
-    </row>
-    <row r="41" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
+      <c r="AA40" s="23"/>
+    </row>
+    <row r="41" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="19"/>
+      <c r="F41" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G41" s="21" t="s">
+      <c r="G41" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="H41" s="22" t="s">
+      <c r="H41" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="19">
         <v>2</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="19">
         <v>10</v>
       </c>
-      <c r="K41" s="20" t="s">
+      <c r="K41" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20" t="s">
+      <c r="L41" s="19"/>
+      <c r="M41" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N41" s="26" t="s">
+      <c r="N41" s="25" t="s">
         <v>281</v>
       </c>
       <c r="O41" s="12"/>
-      <c r="P41" s="20" t="s">
+      <c r="P41" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q41" s="20" t="s">
+      <c r="Q41" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
-    </row>
-    <row r="42" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+    </row>
+    <row r="42" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="26" t="s">
+      <c r="E42" s="19"/>
+      <c r="F42" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="H42" s="22" t="s">
+      <c r="H42" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="19">
         <v>2</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J42" s="19">
         <v>11</v>
       </c>
-      <c r="K42" s="20" t="s">
+      <c r="K42" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20" t="s">
+      <c r="L42" s="19"/>
+      <c r="M42" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="26" t="s">
+      <c r="N42" s="25" t="s">
         <v>287</v>
       </c>
       <c r="O42" s="12"/>
-      <c r="P42" s="20" t="s">
+      <c r="P42" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q42" s="20" t="s">
+      <c r="Q42" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="24"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
-    </row>
-    <row r="43" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+    </row>
+    <row r="43" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="25" t="s">
         <v>272</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20" t="s">
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="H43" s="22" t="s">
+      <c r="H43" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="19">
         <v>2</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="19">
         <v>12</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20" t="s">
+      <c r="L43" s="19"/>
+      <c r="M43" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="19" t="s">
         <v>293</v>
       </c>
       <c r="O43" s="12"/>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="Q43" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
-    </row>
-    <row r="44" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
+      <c r="AA43" s="23"/>
+    </row>
+    <row r="44" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20" t="s">
+      <c r="E44" s="19"/>
+      <c r="F44" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="21" t="s">
+      <c r="G44" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="H44" s="22" t="s">
+      <c r="H44" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="19">
         <v>3</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="19">
         <v>6</v>
       </c>
-      <c r="K44" s="20">
+      <c r="K44" s="19">
         <v>66</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20" t="s">
+      <c r="L44" s="19"/>
+      <c r="M44" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N44" s="20" t="s">
+      <c r="N44" s="19" t="s">
         <v>300</v>
       </c>
       <c r="O44" s="12"/>
-      <c r="P44" s="20" t="s">
+      <c r="P44" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q44" s="20" t="s">
+      <c r="Q44" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="24"/>
-      <c r="AA44" s="24"/>
-    </row>
-    <row r="45" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+      <c r="AA44" s="23"/>
+    </row>
+    <row r="45" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
+      <c r="E45" s="19"/>
+      <c r="F45" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G45" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H45" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="19">
         <v>3</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="19">
         <v>7</v>
       </c>
-      <c r="K45" s="20" t="s">
+      <c r="K45" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20" t="s">
+      <c r="L45" s="19"/>
+      <c r="M45" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N45" s="20" t="s">
+      <c r="N45" s="19" t="s">
         <v>308</v>
       </c>
       <c r="O45" s="12"/>
-      <c r="P45" s="20" t="s">
+      <c r="P45" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q45" s="20" t="s">
+      <c r="Q45" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="24"/>
-      <c r="AA45" s="24"/>
-    </row>
-    <row r="46" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+    </row>
+    <row r="46" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20" t="s">
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="21" t="s">
+      <c r="G46" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="H46" s="22" t="s">
+      <c r="H46" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="19">
         <v>3</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="19">
         <v>9</v>
       </c>
-      <c r="K46" s="20" t="s">
+      <c r="K46" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20" t="s">
+      <c r="L46" s="19"/>
+      <c r="M46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="20" t="s">
+      <c r="N46" s="19" t="s">
         <v>315</v>
       </c>
       <c r="O46" s="12"/>
-      <c r="P46" s="20" t="s">
+      <c r="P46" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q46" s="20" t="s">
+      <c r="Q46" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="24"/>
-      <c r="AA46" s="24"/>
-    </row>
-    <row r="47" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+    </row>
+    <row r="47" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G47" s="21" t="s">
+      <c r="G47" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="H47" s="22" t="s">
+      <c r="H47" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="19">
         <v>3</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="19">
         <v>11</v>
       </c>
-      <c r="K47" s="20" t="s">
+      <c r="K47" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20" t="s">
+      <c r="L47" s="19"/>
+      <c r="M47" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="19" t="s">
         <v>324</v>
       </c>
       <c r="O47" s="12"/>
-      <c r="P47" s="20" t="s">
+      <c r="P47" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q47" s="20" t="s">
+      <c r="Q47" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-    </row>
-    <row r="48" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+      <c r="AA47" s="23"/>
+    </row>
+    <row r="48" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G48" s="21" t="s">
+      <c r="G48" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="H48" s="22" t="s">
+      <c r="H48" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="19">
         <v>4</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="19">
         <v>6</v>
       </c>
-      <c r="K48" s="20" t="s">
+      <c r="K48" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20" t="s">
+      <c r="L48" s="19"/>
+      <c r="M48" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N48" s="20" t="s">
+      <c r="N48" s="19" t="s">
         <v>332</v>
       </c>
       <c r="O48" s="12"/>
-      <c r="P48" s="20" t="s">
+      <c r="P48" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q48" s="20" t="s">
+      <c r="Q48" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-    </row>
-    <row r="49" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+    </row>
+    <row r="49" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B49" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="H49" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="19">
         <v>4</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="19">
         <v>7</v>
       </c>
-      <c r="K49" s="20" t="s">
+      <c r="K49" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20" t="s">
+      <c r="L49" s="19"/>
+      <c r="M49" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N49" s="20" t="s">
+      <c r="N49" s="19" t="s">
         <v>339</v>
       </c>
       <c r="O49" s="12"/>
-      <c r="P49" s="20" t="s">
+      <c r="P49" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q49" s="20" t="s">
+      <c r="Q49" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-    </row>
-    <row r="50" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+    </row>
+    <row r="50" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20" t="s">
+      <c r="E50" s="19"/>
+      <c r="F50" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G50" s="21" t="s">
+      <c r="G50" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="19">
         <v>1</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="19">
         <v>3</v>
       </c>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>26</v>
       </c>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20" t="s">
+      <c r="L50" s="19"/>
+      <c r="M50" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N50" s="20" t="s">
+      <c r="N50" s="19" t="s">
         <v>344</v>
       </c>
       <c r="O50" s="12"/>
-      <c r="P50" s="20" t="s">
+      <c r="P50" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q50" s="20" t="s">
+      <c r="Q50" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-    </row>
-    <row r="51" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+    </row>
+    <row r="51" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
         <v>346</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>348</v>
       </c>
       <c r="D51" s="12" t="s">
@@ -4736,118 +4747,118 @@
       <c r="E51" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H51" s="22" t="s">
+      <c r="H51" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="19">
         <v>1</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51" s="19">
         <v>4</v>
       </c>
-      <c r="K51" s="20">
+      <c r="K51" s="19">
         <v>39</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="19">
         <v>2</v>
       </c>
-      <c r="M51" s="20" t="s">
+      <c r="M51" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="N51" s="20" t="s">
+      <c r="N51" s="19" t="s">
         <v>349</v>
       </c>
       <c r="O51" s="12"/>
-      <c r="P51" s="20" t="s">
+      <c r="P51" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q51" s="20" t="s">
+      <c r="Q51" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-    </row>
-    <row r="52" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+    </row>
+    <row r="52" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20" t="s">
+      <c r="C52" s="19"/>
+      <c r="D52" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G52" s="21" t="s">
+      <c r="G52" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H52" s="22" t="s">
+      <c r="H52" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="19">
         <v>1</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="19">
         <v>4</v>
       </c>
-      <c r="K52" s="20">
+      <c r="K52" s="19">
         <v>43</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="19">
         <v>2</v>
       </c>
-      <c r="M52" s="20" t="s">
+      <c r="M52" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="N52" s="20" t="s">
+      <c r="N52" s="19" t="s">
         <v>355</v>
       </c>
       <c r="O52" s="12"/>
-      <c r="P52" s="20" t="s">
+      <c r="P52" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q52" s="20" t="s">
+      <c r="Q52" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
-      <c r="AA52" s="24"/>
-    </row>
-    <row r="53" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+    </row>
+    <row r="53" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="26" t="s">
         <v>359</v>
       </c>
       <c r="D53" s="12" t="s">
@@ -4856,968 +4867,968 @@
       <c r="E53" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="22" t="s">
+      <c r="H53" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="19">
         <v>1</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="19">
         <v>5</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <v>53</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="22">
         <v>44198</v>
       </c>
-      <c r="M53" s="20" t="s">
+      <c r="M53" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="N53" s="20" t="s">
+      <c r="N53" s="19" t="s">
         <v>360</v>
       </c>
       <c r="O53" s="12"/>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q53" s="20" t="s">
+      <c r="Q53" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="24"/>
-      <c r="AA53" s="24"/>
-    </row>
-    <row r="54" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+    </row>
+    <row r="54" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20" t="s">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20" t="s">
+      <c r="E54" s="19"/>
+      <c r="F54" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="21" t="s">
+      <c r="G54" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="H54" s="22" t="s">
+      <c r="H54" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="19">
         <v>1</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="19">
         <v>7</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="19">
         <v>77</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="22">
         <v>44198</v>
       </c>
-      <c r="M54" s="20" t="s">
+      <c r="M54" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N54" s="20" t="s">
+      <c r="N54" s="19" t="s">
         <v>367</v>
       </c>
       <c r="O54" s="12"/>
-      <c r="P54" s="20" t="s">
+      <c r="P54" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q54" s="20" t="s">
+      <c r="Q54" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="24"/>
-      <c r="AA54" s="24"/>
-    </row>
-    <row r="55" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+    </row>
+    <row r="55" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20" t="s">
+      <c r="C55" s="19"/>
+      <c r="D55" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20" t="s">
+      <c r="E55" s="19"/>
+      <c r="F55" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G55" s="21" t="s">
+      <c r="G55" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="H55" s="22" t="s">
+      <c r="H55" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="19">
         <v>1</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="19">
         <v>8</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="19">
         <v>88</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="19">
         <v>2</v>
       </c>
-      <c r="M55" s="20" t="s">
+      <c r="M55" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="N55" s="20" t="s">
+      <c r="N55" s="19" t="s">
         <v>374</v>
       </c>
       <c r="O55" s="12"/>
-      <c r="P55" s="20" t="s">
+      <c r="P55" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q55" s="20" t="s">
+      <c r="Q55" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="24"/>
-      <c r="AA55" s="24"/>
-    </row>
-    <row r="56" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+    </row>
+    <row r="56" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20" t="s">
+      <c r="E56" s="19"/>
+      <c r="F56" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="21" t="s">
+      <c r="G56" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H56" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="19">
         <v>1</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="19">
         <v>6</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="19">
         <v>65</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="19">
         <v>2</v>
       </c>
-      <c r="M56" s="20" t="s">
+      <c r="M56" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="N56" s="20" t="s">
+      <c r="N56" s="19" t="s">
         <v>382</v>
       </c>
       <c r="O56" s="12"/>
-      <c r="P56" s="20" t="s">
+      <c r="P56" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q56" s="20" t="s">
+      <c r="Q56" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="24"/>
-      <c r="AA56" s="24"/>
-    </row>
-    <row r="57" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+    </row>
+    <row r="57" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20" t="s">
+      <c r="E57" s="19"/>
+      <c r="F57" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="19">
         <v>1</v>
       </c>
-      <c r="J57" s="20">
+      <c r="J57" s="19">
         <v>9</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="K57" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="L57" s="20" t="s">
+      <c r="L57" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="M57" s="20" t="s">
+      <c r="M57" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="N57" s="20" t="s">
+      <c r="N57" s="19" t="s">
         <v>389</v>
       </c>
       <c r="O57" s="12"/>
-      <c r="P57" s="20" t="s">
+      <c r="P57" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q57" s="20" t="s">
+      <c r="Q57" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
-      <c r="AA57" s="24"/>
-    </row>
-    <row r="58" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="23"/>
+      <c r="Y57" s="23"/>
+      <c r="Z57" s="23"/>
+      <c r="AA57" s="23"/>
+    </row>
+    <row r="58" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20" t="s">
+      <c r="C58" s="19"/>
+      <c r="D58" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="F58" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="19">
         <v>1</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="19">
         <v>11</v>
       </c>
-      <c r="K58" s="20">
+      <c r="K58" s="19">
         <v>124</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="22">
         <v>44198</v>
       </c>
-      <c r="M58" s="20" t="s">
+      <c r="M58" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N58" s="20" t="s">
+      <c r="N58" s="19" t="s">
         <v>394</v>
       </c>
       <c r="O58" s="12"/>
-      <c r="P58" s="20" t="s">
+      <c r="P58" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q58" s="20" t="s">
+      <c r="Q58" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="24"/>
-      <c r="AA58" s="24"/>
-    </row>
-    <row r="59" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+    </row>
+    <row r="59" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="F59" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G59" s="21" t="s">
+      <c r="G59" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H59" s="22" t="s">
+      <c r="H59" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="19">
         <v>1</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="19">
         <v>11</v>
       </c>
-      <c r="K59" s="20" t="s">
+      <c r="K59" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="19">
         <v>2</v>
       </c>
-      <c r="M59" s="20" t="s">
+      <c r="M59" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="N59" s="20" t="s">
+      <c r="N59" s="19" t="s">
         <v>397</v>
       </c>
       <c r="O59" s="12"/>
-      <c r="P59" s="20" t="s">
+      <c r="P59" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q59" s="20" t="s">
+      <c r="Q59" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="24"/>
-      <c r="AA59" s="24"/>
-    </row>
-    <row r="60" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="23"/>
+      <c r="Y59" s="23"/>
+      <c r="Z59" s="23"/>
+      <c r="AA59" s="23"/>
+    </row>
+    <row r="60" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20" t="s">
+      <c r="C60" s="19"/>
+      <c r="D60" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20" t="s">
+      <c r="E60" s="19"/>
+      <c r="F60" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="G60" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H60" s="22" t="s">
+      <c r="H60" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="19">
         <v>1</v>
       </c>
-      <c r="J60" s="20">
+      <c r="J60" s="19">
         <v>11</v>
       </c>
-      <c r="K60" s="20">
+      <c r="K60" s="19">
         <v>131</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="19">
         <v>2</v>
       </c>
-      <c r="M60" s="20" t="s">
+      <c r="M60" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N60" s="20" t="s">
+      <c r="N60" s="19" t="s">
         <v>401</v>
       </c>
       <c r="O60" s="12"/>
-      <c r="P60" s="20" t="s">
+      <c r="P60" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q60" s="20" t="s">
+      <c r="Q60" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="24"/>
-    </row>
-    <row r="61" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="23"/>
+      <c r="AA60" s="23"/>
+    </row>
+    <row r="61" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20" t="s">
+      <c r="C61" s="19"/>
+      <c r="D61" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20" t="s">
+      <c r="E61" s="19"/>
+      <c r="F61" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G61" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H61" s="22" t="s">
+      <c r="H61" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="19">
         <v>1</v>
       </c>
-      <c r="J61" s="20">
+      <c r="J61" s="19">
         <v>12</v>
       </c>
-      <c r="K61" s="20">
+      <c r="K61" s="19">
         <v>136</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="19">
         <v>2</v>
       </c>
-      <c r="M61" s="20" t="s">
+      <c r="M61" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N61" s="20" t="s">
+      <c r="N61" s="19" t="s">
         <v>406</v>
       </c>
       <c r="O61" s="12"/>
-      <c r="P61" s="20" t="s">
+      <c r="P61" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q61" s="20" t="s">
+      <c r="Q61" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="24"/>
-      <c r="AA61" s="24"/>
-    </row>
-    <row r="62" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="23"/>
+      <c r="AA61" s="23"/>
+    </row>
+    <row r="62" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20" t="s">
+      <c r="E62" s="19"/>
+      <c r="F62" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G62" s="21" t="s">
+      <c r="G62" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="19">
         <v>1</v>
       </c>
-      <c r="J62" s="20">
+      <c r="J62" s="19">
         <v>12</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="L62" s="20" t="s">
+      <c r="L62" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="M62" s="20" t="s">
+      <c r="M62" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N62" s="20" t="s">
+      <c r="N62" s="19" t="s">
         <v>413</v>
       </c>
       <c r="O62" s="12"/>
-      <c r="P62" s="20" t="s">
+      <c r="P62" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q62" s="20" t="s">
+      <c r="Q62" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="24"/>
-      <c r="Y62" s="24"/>
-      <c r="Z62" s="24"/>
-      <c r="AA62" s="24"/>
-    </row>
-    <row r="63" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="23"/>
+      <c r="AA62" s="23"/>
+    </row>
+    <row r="63" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20" t="s">
+      <c r="E63" s="19"/>
+      <c r="F63" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="22" t="s">
+      <c r="H63" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="19">
         <v>2</v>
       </c>
-      <c r="J63" s="20">
+      <c r="J63" s="19">
         <v>13</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K63" s="19">
         <v>9</v>
       </c>
-      <c r="L63" s="20">
+      <c r="L63" s="19">
         <v>2</v>
       </c>
-      <c r="M63" s="20" t="s">
+      <c r="M63" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="N63" s="20" t="s">
+      <c r="N63" s="19" t="s">
         <v>418</v>
       </c>
       <c r="O63" s="12"/>
-      <c r="P63" s="20" t="s">
+      <c r="P63" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q63" s="20" t="s">
+      <c r="Q63" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="24"/>
-      <c r="Y63" s="24"/>
-      <c r="Z63" s="24"/>
-      <c r="AA63" s="24"/>
-    </row>
-    <row r="64" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="19"/>
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+    </row>
+    <row r="64" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20" t="s">
+      <c r="E64" s="19"/>
+      <c r="F64" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G64" s="21" t="s">
+      <c r="G64" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="22" t="s">
+      <c r="H64" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="19">
         <v>2</v>
       </c>
-      <c r="J64" s="20">
+      <c r="J64" s="19">
         <v>14</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K64" s="19">
         <v>20</v>
       </c>
-      <c r="L64" s="20">
+      <c r="L64" s="19">
         <v>2</v>
       </c>
-      <c r="M64" s="20" t="s">
+      <c r="M64" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N64" s="20" t="s">
+      <c r="N64" s="19" t="s">
         <v>423</v>
       </c>
       <c r="O64" s="12"/>
-      <c r="P64" s="20" t="s">
+      <c r="P64" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q64" s="20" t="s">
+      <c r="Q64" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="24"/>
-    </row>
-    <row r="65" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="19"/>
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+    </row>
+    <row r="65" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="B65" s="20" t="s">
+      <c r="B65" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20" t="s">
+      <c r="C65" s="19"/>
+      <c r="D65" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20" t="s">
+      <c r="E65" s="19"/>
+      <c r="F65" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G65" s="21" t="s">
+      <c r="G65" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H65" s="22" t="s">
+      <c r="H65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="19">
         <v>2</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="19">
         <v>14</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="19">
         <v>13</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="19">
         <v>2</v>
       </c>
-      <c r="M65" s="20" t="s">
+      <c r="M65" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N65" s="20" t="s">
+      <c r="N65" s="19" t="s">
         <v>428</v>
       </c>
       <c r="O65" s="12"/>
-      <c r="P65" s="20" t="s">
+      <c r="P65" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q65" s="20" t="s">
+      <c r="Q65" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-    </row>
-    <row r="66" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+    </row>
+    <row r="66" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20" t="s">
+      <c r="E66" s="19"/>
+      <c r="F66" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G66" s="21" t="s">
+      <c r="G66" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="19">
         <v>2</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J66" s="19">
         <v>15</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K66" s="19">
         <v>26</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L66" s="19">
         <v>2</v>
       </c>
-      <c r="M66" s="20" t="s">
+      <c r="M66" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="N66" s="20" t="s">
+      <c r="N66" s="19" t="s">
         <v>433</v>
       </c>
       <c r="O66" s="12"/>
-      <c r="P66" s="20" t="s">
+      <c r="P66" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Q66" s="20" t="s">
+      <c r="Q66" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-    </row>
-    <row r="67" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+    </row>
+    <row r="67" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A67" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29" t="s">
+      <c r="C67" s="28"/>
+      <c r="D67" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29" t="s">
+      <c r="E67" s="28"/>
+      <c r="F67" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G67" s="30" t="s">
+      <c r="G67" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H67" s="31" t="s">
+      <c r="H67" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="I67" s="29">
+      <c r="I67" s="28">
         <v>2</v>
       </c>
-      <c r="J67" s="29">
+      <c r="J67" s="28">
         <v>15</v>
       </c>
-      <c r="K67" s="29" t="s">
+      <c r="K67" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="L67" s="29" t="s">
+      <c r="L67" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="M67" s="29" t="s">
+      <c r="M67" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="N67" s="29" t="s">
+      <c r="N67" s="28" t="s">
         <v>438</v>
       </c>
       <c r="O67" s="12"/>
-      <c r="P67" s="29" t="s">
+      <c r="P67" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="Q67" s="29" t="s">
+      <c r="Q67" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-    </row>
-    <row r="68" spans="1:27" s="36" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A68" s="33" t="s">
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="31"/>
+      <c r="Y67" s="31"/>
+      <c r="Z67" s="31"/>
+      <c r="AA67" s="31"/>
+    </row>
+    <row r="68" spans="1:27" s="35" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34" t="s">
+      <c r="C68" s="33"/>
+      <c r="D68" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34" t="s">
+      <c r="E68" s="33"/>
+      <c r="F68" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="G68" s="34" t="s">
+      <c r="G68" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="H68" s="34" t="s">
+      <c r="H68" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="I68" s="34">
+      <c r="I68" s="33">
         <v>2</v>
       </c>
-      <c r="J68" s="34">
+      <c r="J68" s="33">
         <v>16</v>
       </c>
-      <c r="K68" s="34" t="s">
+      <c r="K68" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="L68" s="35"/>
-      <c r="M68" s="34" t="s">
+      <c r="L68" s="34"/>
+      <c r="M68" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="N68" s="34" t="s">
+      <c r="N68" s="33" t="s">
         <v>443</v>
       </c>
       <c r="O68" s="12"/>
-      <c r="P68" s="34" t="s">
+      <c r="P68" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="Q68" s="34" t="s">
+      <c r="Q68" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="35"/>
-    </row>
-    <row r="69" spans="1:27" s="25" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A69" s="37" t="s">
+      <c r="R68" s="34"/>
+      <c r="S68" s="34"/>
+      <c r="T68" s="34"/>
+      <c r="U68" s="34"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="34"/>
+      <c r="X68" s="34"/>
+      <c r="Y68" s="34"/>
+      <c r="Z68" s="34"/>
+      <c r="AA68" s="34"/>
+    </row>
+    <row r="69" spans="1:27" s="24" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A69" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39" t="s">
+      <c r="C69" s="37"/>
+      <c r="D69" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="38" t="s">
+      <c r="E69" s="38"/>
+      <c r="F69" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="G69" s="40" t="s">
+      <c r="G69" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="H69" s="41" t="s">
+      <c r="H69" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="I69" s="38">
+      <c r="I69" s="37">
         <v>2</v>
       </c>
-      <c r="J69" s="38">
+      <c r="J69" s="37">
         <v>16</v>
       </c>
-      <c r="K69" s="38">
+      <c r="K69" s="37">
         <v>41</v>
       </c>
-      <c r="L69" s="38">
+      <c r="L69" s="37">
         <v>2</v>
       </c>
-      <c r="M69" s="38" t="s">
+      <c r="M69" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="N69" s="38" t="s">
+      <c r="N69" s="37" t="s">
         <v>448</v>
       </c>
       <c r="O69" s="12"/>
-      <c r="P69" s="38" t="s">
+      <c r="P69" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="Q69" s="38" t="s">
+      <c r="Q69" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="42"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="42"/>
-      <c r="AA69" s="42"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="12"/>
@@ -5843,7 +5854,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="12"/>
@@ -5869,7 +5880,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="12"/>
@@ -5895,7 +5906,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="12"/>
@@ -5921,7 +5932,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="12"/>
@@ -5947,7 +5958,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="12"/>
@@ -5973,7 +5984,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="12"/>
@@ -5999,7 +6010,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="12"/>
@@ -6025,7 +6036,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="12"/>
@@ -6051,7 +6062,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="12"/>
@@ -6077,7 +6088,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="12"/>
@@ -6103,7 +6114,7 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="12"/>
@@ -6129,7 +6140,7 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="12"/>
@@ -6155,7 +6166,7 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="12"/>
@@ -6181,7 +6192,7 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="12"/>
@@ -6207,7 +6218,7 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="12"/>
@@ -6233,7 +6244,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="12"/>
@@ -6259,7 +6270,7 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="12"/>
@@ -6285,7 +6296,7 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="12"/>
@@ -6311,7 +6322,7 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="12"/>
@@ -6337,7 +6348,7 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="12"/>
@@ -6363,7 +6374,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="12"/>
@@ -6389,7 +6400,7 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="12"/>
@@ -6415,7 +6426,7 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="12"/>
@@ -6441,7 +6452,7 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="12"/>
@@ -6467,7 +6478,7 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="12"/>
@@ -6493,7 +6504,7 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="12"/>
@@ -6519,7 +6530,7 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="12"/>
@@ -6545,7 +6556,7 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="12"/>
@@ -6571,7 +6582,7 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="12"/>
@@ -6597,7 +6608,7 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="12"/>
@@ -6623,7 +6634,7 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="12"/>
@@ -6649,7 +6660,7 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
       <c r="E102" s="12"/>
@@ -6675,7 +6686,7 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="12"/>
@@ -6701,7 +6712,7 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="12"/>
@@ -6727,7 +6738,7 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
       <c r="E105" s="12"/>
@@ -6753,7 +6764,7 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="12"/>
@@ -6779,7 +6790,7 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
       <c r="E107" s="12"/>
@@ -6805,7 +6816,7 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
       <c r="E108" s="12"/>
@@ -6831,7 +6842,7 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="12"/>
@@ -6857,7 +6868,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="12"/>
@@ -6883,7 +6894,7 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
       <c r="E111" s="12"/>
@@ -6909,7 +6920,7 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="12"/>
@@ -6935,7 +6946,7 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="12"/>
@@ -6961,7 +6972,7 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="12"/>
@@ -6987,7 +6998,7 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
       <c r="E115" s="12"/>
@@ -7013,7 +7024,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="12"/>
@@ -7039,7 +7050,7 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="12"/>
@@ -7065,7 +7076,7 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="12"/>
@@ -7091,7 +7102,7 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="12"/>
@@ -7117,7 +7128,7 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="12"/>
@@ -7143,7 +7154,7 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="12"/>
@@ -7169,7 +7180,7 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="12"/>
@@ -7195,7 +7206,7 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="12"/>
@@ -7221,7 +7232,7 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="12"/>
@@ -7247,7 +7258,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="12"/>
@@ -7273,7 +7284,7 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
       <c r="E126" s="12"/>
@@ -7299,7 +7310,7 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+      <c r="B127" s="12"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="12"/>
@@ -7325,7 +7336,7 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
       <c r="E128" s="12"/>
@@ -7351,7 +7362,7 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="12"/>
@@ -7377,7 +7388,7 @@
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="12"/>
@@ -7403,7 +7414,7 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="7"/>
       <c r="D131" s="7"/>
       <c r="E131" s="12"/>
@@ -7429,7 +7440,7 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="12"/>
@@ -7455,7 +7466,7 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="12"/>
@@ -7481,7 +7492,7 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+      <c r="B134" s="12"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="12"/>
@@ -7507,7 +7518,7 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
+      <c r="B135" s="12"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="12"/>
@@ -7533,7 +7544,7 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7"/>
       <c r="E136" s="12"/>
@@ -7559,7 +7570,7 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="12"/>
@@ -7585,7 +7596,7 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="12"/>
@@ -7611,7 +7622,7 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
       <c r="E139" s="12"/>
@@ -7637,7 +7648,7 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7"/>
       <c r="E140" s="12"/>
@@ -7663,7 +7674,7 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
       <c r="E141" s="12"/>
@@ -7689,7 +7700,7 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="12"/>
@@ -7715,7 +7726,7 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
       <c r="E143" s="12"/>
@@ -7741,7 +7752,7 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="12"/>
@@ -7767,7 +7778,7 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="12"/>
@@ -7793,7 +7804,7 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="12"/>
@@ -7819,7 +7830,7 @@
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="12"/>
@@ -7845,7 +7856,7 @@
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="12"/>
@@ -7871,7 +7882,7 @@
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="12"/>
@@ -7897,7 +7908,7 @@
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="12"/>
@@ -7923,7 +7934,7 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="12"/>
@@ -7949,7 +7960,7 @@
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="12"/>
@@ -7975,7 +7986,7 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="12"/>
@@ -8001,7 +8012,7 @@
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="12"/>
@@ -8027,7 +8038,7 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="12"/>
@@ -8053,7 +8064,7 @@
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="12"/>
@@ -8079,7 +8090,7 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="12"/>
@@ -8105,7 +8116,7 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="12"/>
@@ -8131,7 +8142,7 @@
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="12"/>
@@ -8157,7 +8168,7 @@
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="12"/>
@@ -8183,7 +8194,7 @@
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="12"/>
@@ -8209,7 +8220,7 @@
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="12"/>
@@ -8235,7 +8246,7 @@
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="12"/>
@@ -8261,7 +8272,7 @@
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="12"/>
@@ -8287,7 +8298,7 @@
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="12"/>
@@ -8313,7 +8324,7 @@
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="12"/>
@@ -8339,7 +8350,7 @@
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="12"/>
@@ -8365,7 +8376,7 @@
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="12"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="12"/>
@@ -8391,7 +8402,7 @@
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="12"/>
@@ -8417,7 +8428,7 @@
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="12"/>
@@ -8443,7 +8454,7 @@
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="12"/>
@@ -8469,7 +8480,7 @@
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="12"/>
@@ -8495,7 +8506,7 @@
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="12"/>
@@ -8521,7 +8532,7 @@
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="12"/>
@@ -8547,7 +8558,7 @@
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="12"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="12"/>
@@ -8573,7 +8584,7 @@
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="12"/>
@@ -8599,7 +8610,7 @@
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="12"/>
@@ -8625,7 +8636,7 @@
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="12"/>
@@ -8651,7 +8662,7 @@
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
+      <c r="B179" s="12"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="12"/>
@@ -8677,7 +8688,7 @@
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="12"/>
@@ -8703,7 +8714,7 @@
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="B181" s="12"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="12"/>
@@ -8729,7 +8740,7 @@
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
-      <c r="B182" s="7"/>
+      <c r="B182" s="12"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="12"/>
@@ -8755,7 +8766,7 @@
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
       <c r="E183" s="12"/>
@@ -8781,7 +8792,7 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
-      <c r="B184" s="7"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
       <c r="E184" s="12"/>
@@ -8807,7 +8818,7 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
+      <c r="B185" s="12"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
       <c r="E185" s="12"/>
@@ -8833,7 +8844,7 @@
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
-      <c r="B186" s="7"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
       <c r="E186" s="12"/>
@@ -8859,7 +8870,7 @@
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="12"/>
@@ -8885,7 +8896,7 @@
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
-      <c r="B188" s="7"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="12"/>
@@ -8911,7 +8922,7 @@
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
-      <c r="B189" s="7"/>
+      <c r="B189" s="12"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="E189" s="12"/>
@@ -8937,7 +8948,7 @@
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
+      <c r="B190" s="12"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="12"/>
@@ -8963,7 +8974,7 @@
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
+      <c r="B191" s="12"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="E191" s="12"/>
@@ -8989,7 +9000,7 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
-      <c r="B192" s="7"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="12"/>
@@ -9015,7 +9026,7 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
+      <c r="B193" s="12"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="12"/>
@@ -9041,7 +9052,7 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="12"/>
@@ -9067,7 +9078,7 @@
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
-      <c r="B195" s="7"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="12"/>
@@ -9093,7 +9104,7 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
-      <c r="B196" s="7"/>
+      <c r="B196" s="12"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="12"/>
@@ -9119,7 +9130,7 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
-      <c r="B197" s="7"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="12"/>
@@ -9145,7 +9156,7 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
-      <c r="B198" s="7"/>
+      <c r="B198" s="12"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="12"/>
@@ -9171,7 +9182,7 @@
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
-      <c r="B199" s="7"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="12"/>
@@ -9197,7 +9208,7 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
-      <c r="B200" s="7"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="12"/>
@@ -9223,7 +9234,7 @@
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
-      <c r="B201" s="7"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="12"/>
@@ -9249,7 +9260,7 @@
     </row>
     <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="12"/>
@@ -9275,7 +9286,7 @@
     </row>
     <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
-      <c r="B203" s="7"/>
+      <c r="B203" s="12"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="12"/>
@@ -9301,7 +9312,7 @@
     </row>
     <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
-      <c r="B204" s="7"/>
+      <c r="B204" s="12"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="12"/>
@@ -9327,7 +9338,7 @@
     </row>
     <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
-      <c r="B205" s="7"/>
+      <c r="B205" s="12"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="12"/>
@@ -9353,7 +9364,7 @@
     </row>
     <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
-      <c r="B206" s="7"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="12"/>
@@ -9379,7 +9390,7 @@
     </row>
     <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
-      <c r="B207" s="7"/>
+      <c r="B207" s="12"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="12"/>
@@ -9405,7 +9416,7 @@
     </row>
     <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
-      <c r="B208" s="7"/>
+      <c r="B208" s="12"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="12"/>
@@ -9431,7 +9442,7 @@
     </row>
     <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
-      <c r="B209" s="7"/>
+      <c r="B209" s="12"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="12"/>
@@ -9457,7 +9468,7 @@
     </row>
     <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
-      <c r="B210" s="7"/>
+      <c r="B210" s="12"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="12"/>
@@ -9483,7 +9494,7 @@
     </row>
     <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
+      <c r="B211" s="12"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="12"/>
@@ -9509,7 +9520,7 @@
     </row>
     <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
-      <c r="B212" s="7"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="12"/>
@@ -9535,7 +9546,7 @@
     </row>
     <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
-      <c r="B213" s="7"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="12"/>
@@ -9561,7 +9572,7 @@
     </row>
     <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
-      <c r="B214" s="7"/>
+      <c r="B214" s="12"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="12"/>
@@ -9587,7 +9598,7 @@
     </row>
     <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
-      <c r="B215" s="7"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="12"/>
@@ -9613,7 +9624,7 @@
     </row>
     <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
-      <c r="B216" s="7"/>
+      <c r="B216" s="12"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="12"/>
@@ -9639,7 +9650,7 @@
     </row>
     <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
-      <c r="B217" s="7"/>
+      <c r="B217" s="12"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="12"/>
@@ -9665,7 +9676,7 @@
     </row>
     <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
-      <c r="B218" s="7"/>
+      <c r="B218" s="12"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="12"/>
@@ -9691,7 +9702,7 @@
     </row>
     <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
-      <c r="B219" s="7"/>
+      <c r="B219" s="12"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="12"/>
@@ -9717,7 +9728,7 @@
     </row>
     <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
+      <c r="B220" s="12"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="12"/>
@@ -9743,7 +9754,7 @@
     </row>
     <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="7"/>
-      <c r="B221" s="7"/>
+      <c r="B221" s="12"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="12"/>
@@ -9769,7 +9780,7 @@
     </row>
     <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
-      <c r="B222" s="7"/>
+      <c r="B222" s="12"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="12"/>
@@ -9795,7 +9806,7 @@
     </row>
     <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="7"/>
-      <c r="B223" s="7"/>
+      <c r="B223" s="12"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="12"/>
@@ -9821,7 +9832,7 @@
     </row>
     <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
-      <c r="B224" s="7"/>
+      <c r="B224" s="12"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="12"/>
@@ -9847,7 +9858,7 @@
     </row>
     <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="7"/>
-      <c r="B225" s="7"/>
+      <c r="B225" s="12"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="12"/>
@@ -9873,7 +9884,7 @@
     </row>
     <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
+      <c r="B226" s="12"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="12"/>
@@ -9899,7 +9910,7 @@
     </row>
     <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
-      <c r="B227" s="7"/>
+      <c r="B227" s="12"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="12"/>
@@ -9925,7 +9936,7 @@
     </row>
     <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="12"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="12"/>
@@ -9951,7 +9962,7 @@
     </row>
     <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="12"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="12"/>
@@ -9977,7 +9988,7 @@
     </row>
     <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="12"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="12"/>
@@ -10003,7 +10014,7 @@
     </row>
     <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="12"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="12"/>
@@ -10029,7 +10040,7 @@
     </row>
     <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="12"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7"/>
       <c r="E232" s="12"/>
@@ -10055,7 +10066,7 @@
     </row>
     <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="12"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7"/>
       <c r="E233" s="12"/>
@@ -10081,7 +10092,7 @@
     </row>
     <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="12"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7"/>
       <c r="E234" s="12"/>
@@ -10107,7 +10118,7 @@
     </row>
     <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+      <c r="B235" s="12"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7"/>
       <c r="E235" s="12"/>
@@ -10133,7 +10144,7 @@
     </row>
     <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="12"/>
@@ -10159,7 +10170,7 @@
     </row>
     <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7"/>
       <c r="E237" s="12"/>
@@ -10185,7 +10196,7 @@
     </row>
     <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="12"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7"/>
       <c r="E238" s="12"/>
@@ -10211,7 +10222,7 @@
     </row>
     <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
-      <c r="B239" s="7"/>
+      <c r="B239" s="12"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7"/>
       <c r="E239" s="12"/>
@@ -10237,7 +10248,7 @@
     </row>
     <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
-      <c r="B240" s="7"/>
+      <c r="B240" s="12"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7"/>
       <c r="E240" s="12"/>
@@ -10263,7 +10274,7 @@
     </row>
     <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="12"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="12"/>
@@ -10289,7 +10300,7 @@
     </row>
     <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="12"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7"/>
       <c r="E242" s="12"/>
@@ -10315,7 +10326,7 @@
     </row>
     <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="12"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7"/>
       <c r="E243" s="12"/>
@@ -10341,7 +10352,7 @@
     </row>
     <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="12"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7"/>
       <c r="E244" s="12"/>
@@ -10367,7 +10378,7 @@
     </row>
     <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="12"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7"/>
       <c r="E245" s="12"/>
@@ -10393,7 +10404,7 @@
     </row>
     <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="12"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="12"/>
@@ -10419,7 +10430,7 @@
     </row>
     <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="12"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7"/>
       <c r="E247" s="12"/>
@@ -10445,7 +10456,7 @@
     </row>
     <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="12"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7"/>
       <c r="E248" s="12"/>
@@ -10471,7 +10482,7 @@
     </row>
     <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="12"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="12"/>
@@ -10497,7 +10508,7 @@
     </row>
     <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="12"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="12"/>
@@ -10523,7 +10534,7 @@
     </row>
     <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="12"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="12"/>
@@ -10549,7 +10560,7 @@
     </row>
     <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="12"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="12"/>
@@ -10575,7 +10586,7 @@
     </row>
     <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="12"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="12"/>
@@ -10601,7 +10612,7 @@
     </row>
     <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="12"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="12"/>
@@ -10627,7 +10638,7 @@
     </row>
     <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
-      <c r="B255" s="7"/>
+      <c r="B255" s="12"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="12"/>
@@ -10653,7 +10664,7 @@
     </row>
     <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
-      <c r="B256" s="7"/>
+      <c r="B256" s="12"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="12"/>
@@ -10679,7 +10690,7 @@
     </row>
     <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
-      <c r="B257" s="7"/>
+      <c r="B257" s="12"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="12"/>
@@ -10705,7 +10716,7 @@
     </row>
     <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
+      <c r="B258" s="12"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="12"/>
@@ -10731,7 +10742,7 @@
     </row>
     <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
-      <c r="B259" s="7"/>
+      <c r="B259" s="12"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="12"/>
@@ -10757,7 +10768,7 @@
     </row>
     <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
+      <c r="B260" s="12"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="12"/>
@@ -10783,7 +10794,7 @@
     </row>
     <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
-      <c r="B261" s="7"/>
+      <c r="B261" s="12"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="12"/>
@@ -10809,7 +10820,7 @@
     </row>
     <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
-      <c r="B262" s="7"/>
+      <c r="B262" s="12"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="12"/>
@@ -10835,7 +10846,7 @@
     </row>
     <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
-      <c r="B263" s="7"/>
+      <c r="B263" s="12"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="12"/>
@@ -10861,7 +10872,7 @@
     </row>
     <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
-      <c r="B264" s="7"/>
+      <c r="B264" s="12"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="12"/>
@@ -10887,7 +10898,7 @@
     </row>
     <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
-      <c r="B265" s="7"/>
+      <c r="B265" s="12"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7"/>
       <c r="E265" s="12"/>
@@ -10913,7 +10924,7 @@
     </row>
     <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
-      <c r="B266" s="7"/>
+      <c r="B266" s="12"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="12"/>
@@ -10939,7 +10950,7 @@
     </row>
     <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
-      <c r="B267" s="7"/>
+      <c r="B267" s="12"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7"/>
       <c r="E267" s="12"/>
@@ -10965,7 +10976,7 @@
     </row>
     <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
+      <c r="B268" s="12"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7"/>
       <c r="E268" s="12"/>
@@ -10991,7 +11002,7 @@
     </row>
     <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="7"/>
-      <c r="B269" s="7"/>
+      <c r="B269" s="12"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7"/>
       <c r="E269" s="12"/>
@@ -11017,7 +11028,7 @@
     </row>
     <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="7"/>
-      <c r="B270" s="7"/>
+      <c r="B270" s="12"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7"/>
       <c r="E270" s="12"/>
@@ -11043,7 +11054,7 @@
     </row>
     <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="7"/>
-      <c r="B271" s="7"/>
+      <c r="B271" s="12"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="12"/>
@@ -11069,7 +11080,7 @@
     </row>
     <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="7"/>
-      <c r="B272" s="7"/>
+      <c r="B272" s="12"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7"/>
       <c r="E272" s="12"/>
@@ -11095,7 +11106,7 @@
     </row>
     <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
+      <c r="B273" s="12"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7"/>
       <c r="E273" s="12"/>
@@ -11121,7 +11132,7 @@
     </row>
     <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="7"/>
-      <c r="B274" s="7"/>
+      <c r="B274" s="12"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7"/>
       <c r="E274" s="12"/>
@@ -11147,7 +11158,7 @@
     </row>
     <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="7"/>
-      <c r="B275" s="7"/>
+      <c r="B275" s="12"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7"/>
       <c r="E275" s="12"/>
@@ -11173,7 +11184,7 @@
     </row>
     <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
+      <c r="B276" s="12"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="12"/>
@@ -11199,7 +11210,7 @@
     </row>
     <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="7"/>
-      <c r="B277" s="7"/>
+      <c r="B277" s="12"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7"/>
       <c r="E277" s="12"/>
@@ -11225,7 +11236,7 @@
     </row>
     <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="7"/>
-      <c r="B278" s="7"/>
+      <c r="B278" s="12"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7"/>
       <c r="E278" s="12"/>
@@ -11251,7 +11262,7 @@
     </row>
     <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="12"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7"/>
       <c r="E279" s="12"/>
@@ -11277,7 +11288,7 @@
     </row>
     <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="12"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7"/>
       <c r="E280" s="12"/>
@@ -11303,7 +11314,7 @@
     </row>
     <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="12"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="12"/>
@@ -11329,7 +11340,7 @@
     </row>
     <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="12"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7"/>
       <c r="E282" s="12"/>
@@ -11355,7 +11366,7 @@
     </row>
     <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="12"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7"/>
       <c r="E283" s="12"/>
@@ -11381,7 +11392,7 @@
     </row>
     <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="12"/>
       <c r="C284" s="7"/>
       <c r="D284" s="7"/>
       <c r="E284" s="12"/>
@@ -11407,7 +11418,7 @@
     </row>
     <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="12"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7"/>
       <c r="E285" s="12"/>
@@ -11433,7 +11444,7 @@
     </row>
     <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="12"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="12"/>
@@ -11459,7 +11470,7 @@
     </row>
     <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="12"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="12"/>
@@ -11485,7 +11496,7 @@
     </row>
     <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="12"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="12"/>
@@ -11511,7 +11522,7 @@
     </row>
     <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
+      <c r="B289" s="12"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="12"/>
@@ -11537,7 +11548,7 @@
     </row>
     <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
+      <c r="B290" s="12"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="12"/>
@@ -11563,7 +11574,7 @@
     </row>
     <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
+      <c r="B291" s="12"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="12"/>
@@ -11589,7 +11600,7 @@
     </row>
     <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="12"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="12"/>
@@ -11615,7 +11626,7 @@
     </row>
     <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
+      <c r="B293" s="12"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="12"/>
@@ -11641,7 +11652,7 @@
     </row>
     <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="7"/>
-      <c r="B294" s="7"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7"/>
       <c r="E294" s="12"/>
@@ -11667,7 +11678,7 @@
     </row>
     <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="7"/>
-      <c r="B295" s="7"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7"/>
       <c r="E295" s="12"/>
@@ -11693,7 +11704,7 @@
     </row>
     <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="7"/>
-      <c r="B296" s="7"/>
+      <c r="B296" s="12"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="12"/>
@@ -11719,7 +11730,7 @@
     </row>
     <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
-      <c r="B297" s="7"/>
+      <c r="B297" s="12"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="12"/>
@@ -11745,7 +11756,7 @@
     </row>
     <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
-      <c r="B298" s="7"/>
+      <c r="B298" s="12"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="12"/>
@@ -11771,7 +11782,7 @@
     </row>
     <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
-      <c r="B299" s="7"/>
+      <c r="B299" s="12"/>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="12"/>
@@ -11797,7 +11808,7 @@
     </row>
     <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
+      <c r="B300" s="12"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="12"/>
@@ -11823,7 +11834,7 @@
     </row>
     <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="7"/>
-      <c r="B301" s="7"/>
+      <c r="B301" s="12"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="12"/>
@@ -11849,7 +11860,7 @@
     </row>
     <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
-      <c r="B302" s="7"/>
+      <c r="B302" s="12"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="12"/>
@@ -11875,7 +11886,7 @@
     </row>
     <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
-      <c r="B303" s="7"/>
+      <c r="B303" s="12"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7"/>
       <c r="E303" s="12"/>
@@ -11901,7 +11912,7 @@
     </row>
     <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="7"/>
-      <c r="B304" s="7"/>
+      <c r="B304" s="12"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="12"/>
@@ -11927,7 +11938,7 @@
     </row>
     <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
+      <c r="B305" s="12"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7"/>
       <c r="E305" s="12"/>
@@ -11953,7 +11964,7 @@
     </row>
     <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="7"/>
-      <c r="B306" s="7"/>
+      <c r="B306" s="12"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7"/>
       <c r="E306" s="12"/>
@@ -11979,7 +11990,7 @@
     </row>
     <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
-      <c r="B307" s="7"/>
+      <c r="B307" s="12"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7"/>
       <c r="E307" s="12"/>
@@ -12005,7 +12016,7 @@
     </row>
     <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
+      <c r="B308" s="12"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7"/>
       <c r="E308" s="12"/>
@@ -12031,7 +12042,7 @@
     </row>
     <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
-      <c r="B309" s="7"/>
+      <c r="B309" s="12"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="12"/>
@@ -12057,7 +12068,7 @@
     </row>
     <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
+      <c r="B310" s="12"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7"/>
       <c r="E310" s="12"/>
@@ -12083,7 +12094,7 @@
     </row>
     <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
-      <c r="B311" s="7"/>
+      <c r="B311" s="12"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="12"/>
@@ -12109,7 +12120,7 @@
     </row>
     <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
-      <c r="B312" s="7"/>
+      <c r="B312" s="12"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="12"/>
@@ -12135,7 +12146,7 @@
     </row>
     <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
-      <c r="B313" s="7"/>
+      <c r="B313" s="12"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="12"/>
@@ -12161,7 +12172,7 @@
     </row>
     <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
+      <c r="B314" s="12"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="12"/>
@@ -12187,7 +12198,7 @@
     </row>
     <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
-      <c r="B315" s="7"/>
+      <c r="B315" s="12"/>
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="12"/>
@@ -12213,7 +12224,7 @@
     </row>
     <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
-      <c r="B316" s="7"/>
+      <c r="B316" s="12"/>
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="E316" s="12"/>
@@ -12239,7 +12250,7 @@
     </row>
     <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
-      <c r="B317" s="7"/>
+      <c r="B317" s="12"/>
       <c r="C317" s="7"/>
       <c r="D317" s="7"/>
       <c r="E317" s="12"/>
@@ -12265,7 +12276,7 @@
     </row>
     <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>
-      <c r="B318" s="7"/>
+      <c r="B318" s="12"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7"/>
       <c r="E318" s="12"/>
@@ -12291,7 +12302,7 @@
     </row>
     <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="7"/>
-      <c r="B319" s="7"/>
+      <c r="B319" s="12"/>
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="E319" s="12"/>
@@ -12317,7 +12328,7 @@
     </row>
     <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
-      <c r="B320" s="7"/>
+      <c r="B320" s="12"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7"/>
       <c r="E320" s="12"/>
@@ -12343,7 +12354,7 @@
     </row>
     <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="7"/>
-      <c r="B321" s="7"/>
+      <c r="B321" s="12"/>
       <c r="C321" s="7"/>
       <c r="D321" s="7"/>
       <c r="E321" s="12"/>
@@ -12369,7 +12380,7 @@
     </row>
     <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="7"/>
-      <c r="B322" s="7"/>
+      <c r="B322" s="12"/>
       <c r="C322" s="7"/>
       <c r="D322" s="7"/>
       <c r="E322" s="12"/>
@@ -12395,7 +12406,7 @@
     </row>
     <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="7"/>
-      <c r="B323" s="7"/>
+      <c r="B323" s="12"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7"/>
       <c r="E323" s="12"/>
@@ -12421,7 +12432,7 @@
     </row>
     <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
-      <c r="B324" s="7"/>
+      <c r="B324" s="12"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="12"/>
@@ -12447,7 +12458,7 @@
     </row>
     <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>
-      <c r="B325" s="7"/>
+      <c r="B325" s="12"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7"/>
       <c r="E325" s="12"/>
@@ -12473,7 +12484,7 @@
     </row>
     <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>
-      <c r="B326" s="7"/>
+      <c r="B326" s="12"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7"/>
       <c r="E326" s="12"/>
@@ -12499,7 +12510,7 @@
     </row>
     <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>
-      <c r="B327" s="7"/>
+      <c r="B327" s="12"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7"/>
       <c r="E327" s="12"/>
@@ -12525,7 +12536,7 @@
     </row>
     <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>
-      <c r="B328" s="7"/>
+      <c r="B328" s="12"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7"/>
       <c r="E328" s="12"/>
@@ -12551,7 +12562,7 @@
     </row>
     <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>
-      <c r="B329" s="7"/>
+      <c r="B329" s="12"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="12"/>
@@ -12577,7 +12588,7 @@
     </row>
     <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
-      <c r="B330" s="7"/>
+      <c r="B330" s="12"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7"/>
       <c r="E330" s="12"/>
@@ -12603,7 +12614,7 @@
     </row>
     <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>
-      <c r="B331" s="7"/>
+      <c r="B331" s="12"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7"/>
       <c r="E331" s="12"/>
@@ -12629,7 +12640,7 @@
     </row>
     <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
+      <c r="B332" s="12"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7"/>
       <c r="E332" s="12"/>
@@ -12655,7 +12666,7 @@
     </row>
     <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="7"/>
-      <c r="B333" s="7"/>
+      <c r="B333" s="12"/>
       <c r="C333" s="7"/>
       <c r="D333" s="7"/>
       <c r="E333" s="12"/>
@@ -12681,7 +12692,7 @@
     </row>
     <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>
-      <c r="B334" s="7"/>
+      <c r="B334" s="12"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="12"/>
@@ -12707,7 +12718,7 @@
     </row>
     <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="7"/>
-      <c r="B335" s="7"/>
+      <c r="B335" s="12"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="12"/>
@@ -12733,7 +12744,7 @@
     </row>
     <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>
-      <c r="B336" s="7"/>
+      <c r="B336" s="12"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="12"/>
@@ -12759,7 +12770,7 @@
     </row>
     <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>
-      <c r="B337" s="7"/>
+      <c r="B337" s="12"/>
       <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="12"/>
@@ -12785,7 +12796,7 @@
     </row>
     <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="7"/>
-      <c r="B338" s="7"/>
+      <c r="B338" s="12"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="12"/>
@@ -12811,7 +12822,7 @@
     </row>
     <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
+      <c r="B339" s="12"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="12"/>
@@ -12837,7 +12848,7 @@
     </row>
     <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
+      <c r="B340" s="12"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7"/>
       <c r="E340" s="12"/>
@@ -12863,7 +12874,7 @@
     </row>
     <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>
-      <c r="B341" s="7"/>
+      <c r="B341" s="12"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7"/>
       <c r="E341" s="12"/>
@@ -12889,7 +12900,7 @@
     </row>
     <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>
-      <c r="B342" s="7"/>
+      <c r="B342" s="12"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7"/>
       <c r="E342" s="12"/>
@@ -12915,7 +12926,7 @@
     </row>
     <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
-      <c r="B343" s="7"/>
+      <c r="B343" s="12"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="12"/>
@@ -12941,7 +12952,7 @@
     </row>
     <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="12"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="12"/>
@@ -12967,7 +12978,7 @@
     </row>
     <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="B345" s="12"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="12"/>
@@ -12993,7 +13004,7 @@
     </row>
     <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="12"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="12"/>
@@ -13019,7 +13030,7 @@
     </row>
     <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="12"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="12"/>
@@ -13045,7 +13056,7 @@
     </row>
     <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="12"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="12"/>
@@ -13071,7 +13082,7 @@
     </row>
     <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="12"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="12"/>
@@ -13097,7 +13108,7 @@
     </row>
     <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="12"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="12"/>
@@ -13123,7 +13134,7 @@
     </row>
     <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="12"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="12"/>
@@ -13149,7 +13160,7 @@
     </row>
     <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="12"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="12"/>
@@ -13175,7 +13186,7 @@
     </row>
     <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="7"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="12"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="12"/>
@@ -13201,7 +13212,7 @@
     </row>
     <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="7"/>
-      <c r="B354" s="7"/>
+      <c r="B354" s="12"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="12"/>
@@ -13227,7 +13238,7 @@
     </row>
     <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="7"/>
-      <c r="B355" s="7"/>
+      <c r="B355" s="12"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="12"/>
@@ -13253,7 +13264,7 @@
     </row>
     <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="7"/>
-      <c r="B356" s="7"/>
+      <c r="B356" s="12"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="12"/>
@@ -13279,7 +13290,7 @@
     </row>
     <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="7"/>
-      <c r="B357" s="7"/>
+      <c r="B357" s="12"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="12"/>
@@ -13305,7 +13316,7 @@
     </row>
     <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="7"/>
-      <c r="B358" s="7"/>
+      <c r="B358" s="12"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="12"/>
@@ -13331,7 +13342,7 @@
     </row>
     <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="7"/>
-      <c r="B359" s="7"/>
+      <c r="B359" s="12"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="12"/>
@@ -13357,7 +13368,7 @@
     </row>
     <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="7"/>
-      <c r="B360" s="7"/>
+      <c r="B360" s="12"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="12"/>
@@ -13383,7 +13394,7 @@
     </row>
     <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="7"/>
-      <c r="B361" s="7"/>
+      <c r="B361" s="12"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="12"/>
@@ -13409,7 +13420,7 @@
     </row>
     <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="7"/>
-      <c r="B362" s="7"/>
+      <c r="B362" s="12"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="12"/>
@@ -13435,7 +13446,7 @@
     </row>
     <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="7"/>
-      <c r="B363" s="7"/>
+      <c r="B363" s="12"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="12"/>
@@ -13461,7 +13472,7 @@
     </row>
     <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="12"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="12"/>
@@ -13487,7 +13498,7 @@
     </row>
     <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
+      <c r="B365" s="12"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="12"/>
@@ -13513,7 +13524,7 @@
     </row>
     <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="12"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="12"/>
@@ -13539,7 +13550,7 @@
     </row>
     <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="12"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="12"/>
@@ -13565,7 +13576,7 @@
     </row>
     <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="12"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="12"/>
@@ -13591,7 +13602,7 @@
     </row>
     <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="12"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="12"/>
@@ -13617,7 +13628,7 @@
     </row>
     <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
+      <c r="B370" s="12"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="12"/>
@@ -13643,7 +13654,7 @@
     </row>
     <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="12"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="12"/>
@@ -13669,7 +13680,7 @@
     </row>
     <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
+      <c r="B372" s="12"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="12"/>
@@ -13695,7 +13706,7 @@
     </row>
     <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="12"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7"/>
       <c r="E373" s="12"/>
@@ -13721,7 +13732,7 @@
     </row>
     <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="12"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="12"/>
@@ -13747,7 +13758,7 @@
     </row>
     <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="12"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7"/>
       <c r="E375" s="12"/>
@@ -13773,7 +13784,7 @@
     </row>
     <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="12"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7"/>
       <c r="E376" s="12"/>
@@ -13799,7 +13810,7 @@
     </row>
     <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
+      <c r="B377" s="12"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="12"/>
@@ -13825,7 +13836,7 @@
     </row>
     <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="12"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="12"/>
@@ -13851,7 +13862,7 @@
     </row>
     <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
+      <c r="B379" s="12"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="12"/>
@@ -13877,7 +13888,7 @@
     </row>
     <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="12"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="12"/>
@@ -13903,7 +13914,7 @@
     </row>
     <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="12"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="12"/>
@@ -13929,7 +13940,7 @@
     </row>
     <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="12"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="12"/>
@@ -13955,7 +13966,7 @@
     </row>
     <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="12"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="12"/>
@@ -13981,7 +13992,7 @@
     </row>
     <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="7"/>
-      <c r="B384" s="7"/>
+      <c r="B384" s="12"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="12"/>
@@ -14007,7 +14018,7 @@
     </row>
     <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="12"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="12"/>
@@ -14033,7 +14044,7 @@
     </row>
     <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="12"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="12"/>
@@ -14059,7 +14070,7 @@
     </row>
     <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="12"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="12"/>
@@ -14085,7 +14096,7 @@
     </row>
     <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="7"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="12"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="12"/>
@@ -14111,7 +14122,7 @@
     </row>
     <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
+      <c r="B389" s="12"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="12"/>
@@ -14137,7 +14148,7 @@
     </row>
     <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="7"/>
-      <c r="B390" s="7"/>
+      <c r="B390" s="12"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="12"/>
@@ -14163,7 +14174,7 @@
     </row>
     <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="7"/>
-      <c r="B391" s="7"/>
+      <c r="B391" s="12"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="12"/>
@@ -14189,7 +14200,7 @@
     </row>
     <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="7"/>
-      <c r="B392" s="7"/>
+      <c r="B392" s="12"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="12"/>
@@ -14215,7 +14226,7 @@
     </row>
     <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
-      <c r="B393" s="7"/>
+      <c r="B393" s="12"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="12"/>
@@ -14241,7 +14252,7 @@
     </row>
     <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
-      <c r="B394" s="7"/>
+      <c r="B394" s="12"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="12"/>
@@ -14267,7 +14278,7 @@
     </row>
     <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="7"/>
-      <c r="B395" s="7"/>
+      <c r="B395" s="12"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="12"/>
@@ -14293,7 +14304,7 @@
     </row>
     <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="12"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="12"/>
@@ -14319,7 +14330,7 @@
     </row>
     <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="12"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="12"/>
@@ -14345,7 +14356,7 @@
     </row>
     <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="12"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="12"/>
@@ -14371,7 +14382,7 @@
     </row>
     <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="12"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="12"/>
@@ -14397,7 +14408,7 @@
     </row>
     <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="12"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="12"/>
@@ -14423,7 +14434,7 @@
     </row>
     <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="12"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="12"/>
@@ -14449,7 +14460,7 @@
     </row>
     <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="12"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="12"/>
@@ -14475,7 +14486,7 @@
     </row>
     <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="12"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="12"/>
@@ -14501,7 +14512,7 @@
     </row>
     <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="7"/>
-      <c r="B404" s="7"/>
+      <c r="B404" s="12"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="12"/>
@@ -14527,7 +14538,7 @@
     </row>
     <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
+      <c r="B405" s="12"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="12"/>
@@ -14553,7 +14564,7 @@
     </row>
     <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="12"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="12"/>
@@ -14579,7 +14590,7 @@
     </row>
     <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="12"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="12"/>
@@ -14605,7 +14616,7 @@
     </row>
     <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="12"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="12"/>
@@ -14631,7 +14642,7 @@
     </row>
     <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="12"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="12"/>
@@ -14657,7 +14668,7 @@
     </row>
     <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="12"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="12"/>
@@ -14683,7 +14694,7 @@
     </row>
     <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="12"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="12"/>
@@ -14709,7 +14720,7 @@
     </row>
     <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="12"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="12"/>
@@ -14735,7 +14746,7 @@
     </row>
     <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="12"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="12"/>
@@ -14761,7 +14772,7 @@
     </row>
     <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="12"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="12"/>
@@ -14787,7 +14798,7 @@
     </row>
     <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="12"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="12"/>
@@ -14813,7 +14824,7 @@
     </row>
     <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="12"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="12"/>
@@ -14839,7 +14850,7 @@
     </row>
     <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="12"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="12"/>
@@ -14865,7 +14876,7 @@
     </row>
     <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="12"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="12"/>
@@ -14891,7 +14902,7 @@
     </row>
     <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="12"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="12"/>
@@ -14917,7 +14928,7 @@
     </row>
     <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="12"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="12"/>
@@ -14943,7 +14954,7 @@
     </row>
     <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="12"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="12"/>
@@ -14969,7 +14980,7 @@
     </row>
     <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="12"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="12"/>
@@ -14995,7 +15006,7 @@
     </row>
     <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="12"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="12"/>
@@ -15021,7 +15032,7 @@
     </row>
     <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="12"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="12"/>
@@ -15047,7 +15058,7 @@
     </row>
     <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="12"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="12"/>
@@ -15073,7 +15084,7 @@
     </row>
     <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="12"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="12"/>
@@ -15099,7 +15110,7 @@
     </row>
     <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="B427" s="12"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="12"/>
@@ -15125,7 +15136,7 @@
     </row>
     <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="12"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="12"/>
@@ -15151,7 +15162,7 @@
     </row>
     <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="12"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="12"/>
@@ -15177,7 +15188,7 @@
     </row>
     <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="12"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="12"/>
@@ -15203,7 +15214,7 @@
     </row>
     <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="12"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="12"/>
@@ -15229,7 +15240,7 @@
     </row>
     <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="7"/>
-      <c r="B432" s="7"/>
+      <c r="B432" s="12"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="12"/>
@@ -15255,7 +15266,7 @@
     </row>
     <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="12"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="12"/>
@@ -15281,7 +15292,7 @@
     </row>
     <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="12"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="12"/>
@@ -15307,7 +15318,7 @@
     </row>
     <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="12"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="12"/>
@@ -15333,7 +15344,7 @@
     </row>
     <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="12"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="12"/>
@@ -15359,7 +15370,7 @@
     </row>
     <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="12"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="12"/>
@@ -15385,7 +15396,7 @@
     </row>
     <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="12"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="12"/>
@@ -15411,7 +15422,7 @@
     </row>
     <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
+      <c r="B439" s="12"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="12"/>
@@ -15437,7 +15448,7 @@
     </row>
     <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="B440" s="12"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="12"/>
@@ -15463,7 +15474,7 @@
     </row>
     <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
+      <c r="B441" s="12"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="12"/>
@@ -15489,7 +15500,7 @@
     </row>
     <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
+      <c r="B442" s="12"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="12"/>
@@ -15515,7 +15526,7 @@
     </row>
     <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
+      <c r="B443" s="12"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="12"/>
@@ -15541,7 +15552,7 @@
     </row>
     <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
+      <c r="B444" s="12"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="12"/>
@@ -15567,7 +15578,7 @@
     </row>
     <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
+      <c r="B445" s="12"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="12"/>
@@ -15593,7 +15604,7 @@
     </row>
     <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
+      <c r="B446" s="12"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="12"/>
@@ -15619,7 +15630,7 @@
     </row>
     <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
+      <c r="B447" s="12"/>
       <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="12"/>
@@ -15645,7 +15656,7 @@
     </row>
     <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="7"/>
-      <c r="B448" s="7"/>
+      <c r="B448" s="12"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="12"/>
@@ -15671,7 +15682,7 @@
     </row>
     <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="7"/>
-      <c r="B449" s="7"/>
+      <c r="B449" s="12"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="12"/>
@@ -15697,7 +15708,7 @@
     </row>
     <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
+      <c r="B450" s="12"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="12"/>
@@ -15723,7 +15734,7 @@
     </row>
     <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
+      <c r="B451" s="12"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="12"/>
@@ -15749,7 +15760,7 @@
     </row>
     <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
+      <c r="B452" s="12"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="12"/>
@@ -15775,7 +15786,7 @@
     </row>
     <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
-      <c r="B453" s="7"/>
+      <c r="B453" s="12"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="12"/>
@@ -15801,7 +15812,7 @@
     </row>
     <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
-      <c r="B454" s="7"/>
+      <c r="B454" s="12"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="12"/>
@@ -15827,7 +15838,7 @@
     </row>
     <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="7"/>
-      <c r="B455" s="7"/>
+      <c r="B455" s="12"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="12"/>
@@ -15853,7 +15864,7 @@
     </row>
     <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="7"/>
-      <c r="B456" s="7"/>
+      <c r="B456" s="12"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="12"/>
@@ -15879,7 +15890,7 @@
     </row>
     <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="7"/>
-      <c r="B457" s="7"/>
+      <c r="B457" s="12"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="12"/>
@@ -15905,7 +15916,7 @@
     </row>
     <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="7"/>
-      <c r="B458" s="7"/>
+      <c r="B458" s="12"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="12"/>
@@ -15931,7 +15942,7 @@
     </row>
     <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="7"/>
-      <c r="B459" s="7"/>
+      <c r="B459" s="12"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="12"/>
@@ -15957,7 +15968,7 @@
     </row>
     <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="7"/>
-      <c r="B460" s="7"/>
+      <c r="B460" s="12"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="12"/>
@@ -15983,7 +15994,7 @@
     </row>
     <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
+      <c r="B461" s="12"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="12"/>
@@ -16009,7 +16020,7 @@
     </row>
     <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
+      <c r="B462" s="12"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="12"/>
@@ -16035,7 +16046,7 @@
     </row>
     <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="7"/>
-      <c r="B463" s="7"/>
+      <c r="B463" s="12"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="12"/>
@@ -16061,7 +16072,7 @@
     </row>
     <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
-      <c r="B464" s="7"/>
+      <c r="B464" s="12"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="12"/>
@@ -16087,7 +16098,7 @@
     </row>
     <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="7"/>
-      <c r="B465" s="7"/>
+      <c r="B465" s="12"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="12"/>
@@ -16113,7 +16124,7 @@
     </row>
     <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="7"/>
-      <c r="B466" s="7"/>
+      <c r="B466" s="12"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="12"/>
@@ -16139,7 +16150,7 @@
     </row>
     <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="7"/>
-      <c r="B467" s="7"/>
+      <c r="B467" s="12"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="12"/>
@@ -16165,7 +16176,7 @@
     </row>
     <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="7"/>
-      <c r="B468" s="7"/>
+      <c r="B468" s="12"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="12"/>
@@ -16191,7 +16202,7 @@
     </row>
     <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
+      <c r="B469" s="12"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="12"/>
@@ -16217,7 +16228,7 @@
     </row>
     <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="7"/>
-      <c r="B470" s="7"/>
+      <c r="B470" s="12"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="12"/>
@@ -16243,7 +16254,7 @@
     </row>
     <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="7"/>
-      <c r="B471" s="7"/>
+      <c r="B471" s="12"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="12"/>
@@ -16269,7 +16280,7 @@
     </row>
     <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="7"/>
-      <c r="B472" s="7"/>
+      <c r="B472" s="12"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="12"/>
@@ -16295,7 +16306,7 @@
     </row>
     <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="7"/>
-      <c r="B473" s="7"/>
+      <c r="B473" s="12"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="12"/>
@@ -16321,7 +16332,7 @@
     </row>
     <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="12"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="12"/>
@@ -16347,7 +16358,7 @@
     </row>
     <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
+      <c r="B475" s="12"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="12"/>
@@ -16373,7 +16384,7 @@
     </row>
     <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="12"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="12"/>
@@ -16399,7 +16410,7 @@
     </row>
     <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
+      <c r="B477" s="12"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="12"/>
@@ -16425,7 +16436,7 @@
     </row>
     <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
+      <c r="B478" s="12"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="12"/>
@@ -16451,7 +16462,7 @@
     </row>
     <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
+      <c r="B479" s="12"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="12"/>
@@ -16477,7 +16488,7 @@
     </row>
     <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
+      <c r="B480" s="12"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="12"/>
@@ -16503,7 +16514,7 @@
     </row>
     <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
+      <c r="B481" s="12"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="12"/>
@@ -16529,7 +16540,7 @@
     </row>
     <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="7"/>
-      <c r="B482" s="7"/>
+      <c r="B482" s="12"/>
       <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="12"/>
@@ -16555,7 +16566,7 @@
     </row>
     <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
+      <c r="B483" s="12"/>
       <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="12"/>
@@ -16581,7 +16592,7 @@
     </row>
     <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="7"/>
-      <c r="B484" s="7"/>
+      <c r="B484" s="12"/>
       <c r="C484" s="7"/>
       <c r="D484" s="7"/>
       <c r="E484" s="12"/>
@@ -16607,7 +16618,7 @@
     </row>
     <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="7"/>
-      <c r="B485" s="7"/>
+      <c r="B485" s="12"/>
       <c r="C485" s="7"/>
       <c r="D485" s="7"/>
       <c r="E485" s="12"/>
@@ -16633,7 +16644,7 @@
     </row>
     <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="7"/>
-      <c r="B486" s="7"/>
+      <c r="B486" s="12"/>
       <c r="C486" s="7"/>
       <c r="D486" s="7"/>
       <c r="E486" s="12"/>
@@ -16659,7 +16670,7 @@
     </row>
     <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="7"/>
-      <c r="B487" s="7"/>
+      <c r="B487" s="12"/>
       <c r="C487" s="7"/>
       <c r="D487" s="7"/>
       <c r="E487" s="12"/>
@@ -16685,7 +16696,7 @@
     </row>
     <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="7"/>
-      <c r="B488" s="7"/>
+      <c r="B488" s="12"/>
       <c r="C488" s="7"/>
       <c r="D488" s="7"/>
       <c r="E488" s="12"/>
@@ -16711,7 +16722,7 @@
     </row>
     <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="7"/>
-      <c r="B489" s="7"/>
+      <c r="B489" s="12"/>
       <c r="C489" s="7"/>
       <c r="D489" s="7"/>
       <c r="E489" s="12"/>
@@ -16737,7 +16748,7 @@
     </row>
     <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="7"/>
-      <c r="B490" s="7"/>
+      <c r="B490" s="12"/>
       <c r="C490" s="7"/>
       <c r="D490" s="7"/>
       <c r="E490" s="12"/>
@@ -16763,7 +16774,7 @@
     </row>
     <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="7"/>
-      <c r="B491" s="7"/>
+      <c r="B491" s="12"/>
       <c r="C491" s="7"/>
       <c r="D491" s="7"/>
       <c r="E491" s="12"/>
@@ -16789,7 +16800,7 @@
     </row>
     <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="7"/>
-      <c r="B492" s="7"/>
+      <c r="B492" s="12"/>
       <c r="C492" s="7"/>
       <c r="D492" s="7"/>
       <c r="E492" s="12"/>
@@ -16815,7 +16826,7 @@
     </row>
     <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="7"/>
-      <c r="B493" s="7"/>
+      <c r="B493" s="12"/>
       <c r="C493" s="7"/>
       <c r="D493" s="7"/>
       <c r="E493" s="12"/>
@@ -16841,7 +16852,7 @@
     </row>
     <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="7"/>
-      <c r="B494" s="7"/>
+      <c r="B494" s="12"/>
       <c r="C494" s="7"/>
       <c r="D494" s="7"/>
       <c r="E494" s="12"/>
@@ -16867,7 +16878,7 @@
     </row>
     <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="7"/>
-      <c r="B495" s="7"/>
+      <c r="B495" s="12"/>
       <c r="C495" s="7"/>
       <c r="D495" s="7"/>
       <c r="E495" s="12"/>
@@ -16893,7 +16904,7 @@
     </row>
     <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="7"/>
-      <c r="B496" s="7"/>
+      <c r="B496" s="12"/>
       <c r="C496" s="7"/>
       <c r="D496" s="7"/>
       <c r="E496" s="12"/>
@@ -16919,7 +16930,7 @@
     </row>
     <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="7"/>
-      <c r="B497" s="7"/>
+      <c r="B497" s="12"/>
       <c r="C497" s="7"/>
       <c r="D497" s="7"/>
       <c r="E497" s="12"/>
@@ -16945,7 +16956,7 @@
     </row>
     <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="7"/>
-      <c r="B498" s="7"/>
+      <c r="B498" s="12"/>
       <c r="C498" s="7"/>
       <c r="D498" s="7"/>
       <c r="E498" s="12"/>
@@ -16971,7 +16982,7 @@
     </row>
     <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="7"/>
-      <c r="B499" s="7"/>
+      <c r="B499" s="12"/>
       <c r="C499" s="7"/>
       <c r="D499" s="7"/>
       <c r="E499" s="12"/>
@@ -16997,7 +17008,7 @@
     </row>
     <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="7"/>
-      <c r="B500" s="7"/>
+      <c r="B500" s="12"/>
       <c r="C500" s="7"/>
       <c r="D500" s="7"/>
       <c r="E500" s="12"/>
@@ -17023,7 +17034,7 @@
     </row>
     <row r="501" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A501" s="7"/>
-      <c r="B501" s="7"/>
+      <c r="B501" s="12"/>
       <c r="C501" s="7"/>
       <c r="D501" s="7"/>
       <c r="E501" s="12"/>
@@ -17049,7 +17060,7 @@
     </row>
     <row r="502" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A502" s="7"/>
-      <c r="B502" s="7"/>
+      <c r="B502" s="12"/>
       <c r="C502" s="7"/>
       <c r="D502" s="7"/>
       <c r="E502" s="12"/>
@@ -17075,7 +17086,7 @@
     </row>
     <row r="503" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A503" s="7"/>
-      <c r="B503" s="7"/>
+      <c r="B503" s="12"/>
       <c r="C503" s="7"/>
       <c r="D503" s="7"/>
       <c r="E503" s="12"/>
@@ -17101,7 +17112,7 @@
     </row>
     <row r="504" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A504" s="7"/>
-      <c r="B504" s="7"/>
+      <c r="B504" s="12"/>
       <c r="C504" s="7"/>
       <c r="D504" s="7"/>
       <c r="E504" s="12"/>
@@ -17127,7 +17138,7 @@
     </row>
     <row r="505" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A505" s="7"/>
-      <c r="B505" s="7"/>
+      <c r="B505" s="12"/>
       <c r="C505" s="7"/>
       <c r="D505" s="7"/>
       <c r="E505" s="12"/>
@@ -17153,7 +17164,7 @@
     </row>
     <row r="506" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A506" s="7"/>
-      <c r="B506" s="7"/>
+      <c r="B506" s="12"/>
       <c r="C506" s="7"/>
       <c r="D506" s="7"/>
       <c r="E506" s="12"/>
@@ -17179,7 +17190,7 @@
     </row>
     <row r="507" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A507" s="7"/>
-      <c r="B507" s="7"/>
+      <c r="B507" s="12"/>
       <c r="C507" s="7"/>
       <c r="D507" s="7"/>
       <c r="E507" s="12"/>
@@ -17205,7 +17216,7 @@
     </row>
     <row r="508" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A508" s="7"/>
-      <c r="B508" s="7"/>
+      <c r="B508" s="12"/>
       <c r="C508" s="7"/>
       <c r="D508" s="7"/>
       <c r="E508" s="12"/>
@@ -17231,7 +17242,7 @@
     </row>
     <row r="509" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A509" s="7"/>
-      <c r="B509" s="7"/>
+      <c r="B509" s="12"/>
       <c r="C509" s="7"/>
       <c r="D509" s="7"/>
       <c r="E509" s="12"/>
@@ -17257,7 +17268,7 @@
     </row>
     <row r="510" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A510" s="7"/>
-      <c r="B510" s="7"/>
+      <c r="B510" s="12"/>
       <c r="C510" s="7"/>
       <c r="D510" s="7"/>
       <c r="E510" s="12"/>
@@ -17283,7 +17294,7 @@
     </row>
     <row r="511" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A511" s="7"/>
-      <c r="B511" s="7"/>
+      <c r="B511" s="12"/>
       <c r="C511" s="7"/>
       <c r="D511" s="7"/>
       <c r="E511" s="12"/>
@@ -17309,7 +17320,7 @@
     </row>
     <row r="512" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A512" s="7"/>
-      <c r="B512" s="7"/>
+      <c r="B512" s="12"/>
       <c r="C512" s="7"/>
       <c r="D512" s="7"/>
       <c r="E512" s="12"/>
@@ -17335,7 +17346,7 @@
     </row>
     <row r="513" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A513" s="7"/>
-      <c r="B513" s="7"/>
+      <c r="B513" s="12"/>
       <c r="C513" s="7"/>
       <c r="D513" s="7"/>
       <c r="E513" s="12"/>
@@ -17361,7 +17372,7 @@
     </row>
     <row r="514" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A514" s="7"/>
-      <c r="B514" s="7"/>
+      <c r="B514" s="12"/>
       <c r="C514" s="7"/>
       <c r="D514" s="7"/>
       <c r="E514" s="12"/>
@@ -17387,7 +17398,7 @@
     </row>
     <row r="515" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A515" s="7"/>
-      <c r="B515" s="7"/>
+      <c r="B515" s="12"/>
       <c r="C515" s="7"/>
       <c r="D515" s="7"/>
       <c r="E515" s="12"/>
@@ -17413,7 +17424,7 @@
     </row>
     <row r="516" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A516" s="7"/>
-      <c r="B516" s="7"/>
+      <c r="B516" s="12"/>
       <c r="C516" s="7"/>
       <c r="D516" s="7"/>
       <c r="E516" s="12"/>
@@ -17439,7 +17450,7 @@
     </row>
     <row r="517" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A517" s="7"/>
-      <c r="B517" s="7"/>
+      <c r="B517" s="12"/>
       <c r="C517" s="7"/>
       <c r="D517" s="7"/>
       <c r="E517" s="12"/>
@@ -17465,7 +17476,7 @@
     </row>
     <row r="518" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A518" s="7"/>
-      <c r="B518" s="7"/>
+      <c r="B518" s="12"/>
       <c r="C518" s="7"/>
       <c r="D518" s="7"/>
       <c r="E518" s="12"/>
@@ -17491,7 +17502,7 @@
     </row>
     <row r="519" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A519" s="7"/>
-      <c r="B519" s="7"/>
+      <c r="B519" s="12"/>
       <c r="C519" s="7"/>
       <c r="D519" s="7"/>
       <c r="E519" s="12"/>
@@ -17517,7 +17528,7 @@
     </row>
     <row r="520" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A520" s="7"/>
-      <c r="B520" s="7"/>
+      <c r="B520" s="12"/>
       <c r="C520" s="7"/>
       <c r="D520" s="7"/>
       <c r="E520" s="12"/>
@@ -17543,7 +17554,7 @@
     </row>
     <row r="521" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A521" s="7"/>
-      <c r="B521" s="7"/>
+      <c r="B521" s="12"/>
       <c r="C521" s="7"/>
       <c r="D521" s="7"/>
       <c r="E521" s="12"/>
@@ -17569,7 +17580,7 @@
     </row>
     <row r="522" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A522" s="7"/>
-      <c r="B522" s="7"/>
+      <c r="B522" s="12"/>
       <c r="C522" s="7"/>
       <c r="D522" s="7"/>
       <c r="E522" s="12"/>
@@ -17595,7 +17606,7 @@
     </row>
     <row r="523" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A523" s="7"/>
-      <c r="B523" s="7"/>
+      <c r="B523" s="12"/>
       <c r="C523" s="7"/>
       <c r="D523" s="7"/>
       <c r="E523" s="12"/>
@@ -17621,7 +17632,7 @@
     </row>
     <row r="524" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A524" s="7"/>
-      <c r="B524" s="7"/>
+      <c r="B524" s="12"/>
       <c r="C524" s="7"/>
       <c r="D524" s="7"/>
       <c r="E524" s="12"/>
@@ -17647,7 +17658,7 @@
     </row>
     <row r="525" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A525" s="7"/>
-      <c r="B525" s="7"/>
+      <c r="B525" s="12"/>
       <c r="C525" s="7"/>
       <c r="D525" s="7"/>
       <c r="E525" s="12"/>
@@ -17673,7 +17684,7 @@
     </row>
     <row r="526" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A526" s="7"/>
-      <c r="B526" s="7"/>
+      <c r="B526" s="12"/>
       <c r="C526" s="7"/>
       <c r="D526" s="7"/>
       <c r="E526" s="12"/>
@@ -17699,7 +17710,7 @@
     </row>
     <row r="527" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A527" s="7"/>
-      <c r="B527" s="7"/>
+      <c r="B527" s="12"/>
       <c r="C527" s="7"/>
       <c r="D527" s="7"/>
       <c r="E527" s="12"/>
@@ -17725,7 +17736,7 @@
     </row>
     <row r="528" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A528" s="7"/>
-      <c r="B528" s="7"/>
+      <c r="B528" s="12"/>
       <c r="C528" s="7"/>
       <c r="D528" s="7"/>
       <c r="E528" s="12"/>
@@ -17751,7 +17762,7 @@
     </row>
     <row r="529" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A529" s="7"/>
-      <c r="B529" s="7"/>
+      <c r="B529" s="12"/>
       <c r="C529" s="7"/>
       <c r="D529" s="7"/>
       <c r="E529" s="12"/>
@@ -17777,7 +17788,7 @@
     </row>
     <row r="530" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A530" s="7"/>
-      <c r="B530" s="7"/>
+      <c r="B530" s="12"/>
       <c r="C530" s="7"/>
       <c r="D530" s="7"/>
       <c r="E530" s="12"/>
@@ -17803,7 +17814,7 @@
     </row>
     <row r="531" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A531" s="7"/>
-      <c r="B531" s="7"/>
+      <c r="B531" s="12"/>
       <c r="C531" s="7"/>
       <c r="D531" s="7"/>
       <c r="E531" s="12"/>
@@ -17829,7 +17840,7 @@
     </row>
     <row r="532" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A532" s="7"/>
-      <c r="B532" s="7"/>
+      <c r="B532" s="12"/>
       <c r="C532" s="7"/>
       <c r="D532" s="7"/>
       <c r="E532" s="12"/>
@@ -17855,7 +17866,7 @@
     </row>
     <row r="533" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A533" s="7"/>
-      <c r="B533" s="7"/>
+      <c r="B533" s="12"/>
       <c r="C533" s="7"/>
       <c r="D533" s="7"/>
       <c r="E533" s="12"/>
@@ -17881,7 +17892,7 @@
     </row>
     <row r="534" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A534" s="7"/>
-      <c r="B534" s="7"/>
+      <c r="B534" s="12"/>
       <c r="C534" s="7"/>
       <c r="D534" s="7"/>
       <c r="E534" s="12"/>
@@ -17907,7 +17918,7 @@
     </row>
     <row r="535" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A535" s="7"/>
-      <c r="B535" s="7"/>
+      <c r="B535" s="12"/>
       <c r="C535" s="7"/>
       <c r="D535" s="7"/>
       <c r="E535" s="12"/>
@@ -17933,7 +17944,7 @@
     </row>
     <row r="536" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A536" s="7"/>
-      <c r="B536" s="7"/>
+      <c r="B536" s="12"/>
       <c r="C536" s="7"/>
       <c r="D536" s="7"/>
       <c r="E536" s="12"/>
@@ -17959,7 +17970,7 @@
     </row>
     <row r="537" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A537" s="7"/>
-      <c r="B537" s="7"/>
+      <c r="B537" s="12"/>
       <c r="C537" s="7"/>
       <c r="D537" s="7"/>
       <c r="E537" s="12"/>
@@ -17985,7 +17996,7 @@
     </row>
     <row r="538" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A538" s="7"/>
-      <c r="B538" s="7"/>
+      <c r="B538" s="12"/>
       <c r="C538" s="7"/>
       <c r="D538" s="7"/>
       <c r="E538" s="12"/>
@@ -18011,7 +18022,7 @@
     </row>
     <row r="539" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A539" s="7"/>
-      <c r="B539" s="7"/>
+      <c r="B539" s="12"/>
       <c r="C539" s="7"/>
       <c r="D539" s="7"/>
       <c r="E539" s="12"/>
@@ -18037,7 +18048,7 @@
     </row>
     <row r="540" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A540" s="7"/>
-      <c r="B540" s="7"/>
+      <c r="B540" s="12"/>
       <c r="C540" s="7"/>
       <c r="D540" s="7"/>
       <c r="E540" s="12"/>
@@ -18063,7 +18074,7 @@
     </row>
     <row r="541" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A541" s="7"/>
-      <c r="B541" s="7"/>
+      <c r="B541" s="12"/>
       <c r="C541" s="7"/>
       <c r="D541" s="7"/>
       <c r="E541" s="12"/>
@@ -18089,7 +18100,7 @@
     </row>
     <row r="542" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A542" s="7"/>
-      <c r="B542" s="7"/>
+      <c r="B542" s="12"/>
       <c r="C542" s="7"/>
       <c r="D542" s="7"/>
       <c r="E542" s="12"/>
@@ -18115,7 +18126,7 @@
     </row>
     <row r="543" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A543" s="7"/>
-      <c r="B543" s="7"/>
+      <c r="B543" s="12"/>
       <c r="C543" s="7"/>
       <c r="D543" s="7"/>
       <c r="E543" s="12"/>
@@ -18141,7 +18152,7 @@
     </row>
     <row r="544" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A544" s="7"/>
-      <c r="B544" s="7"/>
+      <c r="B544" s="12"/>
       <c r="C544" s="7"/>
       <c r="D544" s="7"/>
       <c r="E544" s="12"/>
@@ -18167,7 +18178,7 @@
     </row>
     <row r="545" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A545" s="7"/>
-      <c r="B545" s="7"/>
+      <c r="B545" s="12"/>
       <c r="C545" s="7"/>
       <c r="D545" s="7"/>
       <c r="E545" s="12"/>
@@ -18193,7 +18204,7 @@
     </row>
     <row r="546" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A546" s="7"/>
-      <c r="B546" s="7"/>
+      <c r="B546" s="12"/>
       <c r="C546" s="7"/>
       <c r="D546" s="7"/>
       <c r="E546" s="12"/>
@@ -18219,7 +18230,7 @@
     </row>
     <row r="547" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A547" s="7"/>
-      <c r="B547" s="7"/>
+      <c r="B547" s="12"/>
       <c r="C547" s="7"/>
       <c r="D547" s="7"/>
       <c r="E547" s="12"/>
@@ -18245,7 +18256,7 @@
     </row>
     <row r="548" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A548" s="7"/>
-      <c r="B548" s="7"/>
+      <c r="B548" s="12"/>
       <c r="C548" s="7"/>
       <c r="D548" s="7"/>
       <c r="E548" s="12"/>
@@ -18271,7 +18282,7 @@
     </row>
     <row r="549" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A549" s="7"/>
-      <c r="B549" s="7"/>
+      <c r="B549" s="12"/>
       <c r="C549" s="7"/>
       <c r="D549" s="7"/>
       <c r="E549" s="12"/>
@@ -18297,7 +18308,7 @@
     </row>
     <row r="550" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A550" s="7"/>
-      <c r="B550" s="7"/>
+      <c r="B550" s="12"/>
       <c r="C550" s="7"/>
       <c r="D550" s="7"/>
       <c r="E550" s="12"/>
@@ -18323,7 +18334,7 @@
     </row>
     <row r="551" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A551" s="7"/>
-      <c r="B551" s="7"/>
+      <c r="B551" s="12"/>
       <c r="C551" s="7"/>
       <c r="D551" s="7"/>
       <c r="E551" s="12"/>
@@ -18349,7 +18360,7 @@
     </row>
     <row r="552" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A552" s="7"/>
-      <c r="B552" s="7"/>
+      <c r="B552" s="12"/>
       <c r="C552" s="7"/>
       <c r="D552" s="7"/>
       <c r="E552" s="12"/>
@@ -18375,7 +18386,7 @@
     </row>
     <row r="553" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A553" s="7"/>
-      <c r="B553" s="7"/>
+      <c r="B553" s="12"/>
       <c r="C553" s="7"/>
       <c r="D553" s="7"/>
       <c r="E553" s="12"/>
@@ -18401,7 +18412,7 @@
     </row>
     <row r="554" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A554" s="7"/>
-      <c r="B554" s="7"/>
+      <c r="B554" s="12"/>
       <c r="C554" s="7"/>
       <c r="D554" s="7"/>
       <c r="E554" s="12"/>
@@ -18427,7 +18438,7 @@
     </row>
     <row r="555" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A555" s="7"/>
-      <c r="B555" s="7"/>
+      <c r="B555" s="12"/>
       <c r="C555" s="7"/>
       <c r="D555" s="7"/>
       <c r="E555" s="12"/>
@@ -18453,7 +18464,7 @@
     </row>
     <row r="556" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A556" s="7"/>
-      <c r="B556" s="7"/>
+      <c r="B556" s="12"/>
       <c r="C556" s="7"/>
       <c r="D556" s="7"/>
       <c r="E556" s="12"/>
@@ -18479,7 +18490,7 @@
     </row>
     <row r="557" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A557" s="7"/>
-      <c r="B557" s="7"/>
+      <c r="B557" s="12"/>
       <c r="C557" s="7"/>
       <c r="D557" s="7"/>
       <c r="E557" s="12"/>
@@ -18505,7 +18516,7 @@
     </row>
     <row r="558" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A558" s="7"/>
-      <c r="B558" s="7"/>
+      <c r="B558" s="12"/>
       <c r="C558" s="7"/>
       <c r="D558" s="7"/>
       <c r="E558" s="12"/>
@@ -18531,7 +18542,7 @@
     </row>
     <row r="559" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A559" s="7"/>
-      <c r="B559" s="7"/>
+      <c r="B559" s="12"/>
       <c r="C559" s="7"/>
       <c r="D559" s="7"/>
       <c r="E559" s="12"/>
@@ -18557,7 +18568,7 @@
     </row>
     <row r="560" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A560" s="7"/>
-      <c r="B560" s="7"/>
+      <c r="B560" s="12"/>
       <c r="C560" s="7"/>
       <c r="D560" s="7"/>
       <c r="E560" s="12"/>
@@ -18583,7 +18594,7 @@
     </row>
     <row r="561" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A561" s="7"/>
-      <c r="B561" s="7"/>
+      <c r="B561" s="12"/>
       <c r="C561" s="7"/>
       <c r="D561" s="7"/>
       <c r="E561" s="12"/>
@@ -18609,7 +18620,7 @@
     </row>
     <row r="562" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A562" s="7"/>
-      <c r="B562" s="7"/>
+      <c r="B562" s="12"/>
       <c r="C562" s="7"/>
       <c r="D562" s="7"/>
       <c r="E562" s="12"/>
@@ -18635,7 +18646,7 @@
     </row>
     <row r="563" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A563" s="7"/>
-      <c r="B563" s="7"/>
+      <c r="B563" s="12"/>
       <c r="C563" s="7"/>
       <c r="D563" s="7"/>
       <c r="E563" s="12"/>
@@ -18661,7 +18672,7 @@
     </row>
     <row r="564" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A564" s="7"/>
-      <c r="B564" s="7"/>
+      <c r="B564" s="12"/>
       <c r="C564" s="7"/>
       <c r="D564" s="7"/>
       <c r="E564" s="12"/>
@@ -18687,7 +18698,7 @@
     </row>
     <row r="565" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A565" s="7"/>
-      <c r="B565" s="7"/>
+      <c r="B565" s="12"/>
       <c r="C565" s="7"/>
       <c r="D565" s="7"/>
       <c r="E565" s="12"/>
@@ -18713,7 +18724,7 @@
     </row>
     <row r="566" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A566" s="7"/>
-      <c r="B566" s="7"/>
+      <c r="B566" s="12"/>
       <c r="C566" s="7"/>
       <c r="D566" s="7"/>
       <c r="E566" s="12"/>
@@ -18739,7 +18750,7 @@
     </row>
     <row r="567" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A567" s="7"/>
-      <c r="B567" s="7"/>
+      <c r="B567" s="12"/>
       <c r="C567" s="7"/>
       <c r="D567" s="7"/>
       <c r="E567" s="12"/>
@@ -18765,7 +18776,7 @@
     </row>
     <row r="568" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A568" s="7"/>
-      <c r="B568" s="7"/>
+      <c r="B568" s="12"/>
       <c r="C568" s="7"/>
       <c r="D568" s="7"/>
       <c r="E568" s="12"/>
@@ -18791,7 +18802,7 @@
     </row>
     <row r="569" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A569" s="7"/>
-      <c r="B569" s="7"/>
+      <c r="B569" s="12"/>
       <c r="C569" s="7"/>
       <c r="D569" s="7"/>
       <c r="E569" s="12"/>
@@ -18817,7 +18828,7 @@
     </row>
     <row r="570" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A570" s="7"/>
-      <c r="B570" s="7"/>
+      <c r="B570" s="12"/>
       <c r="C570" s="7"/>
       <c r="D570" s="7"/>
       <c r="E570" s="12"/>
@@ -18843,7 +18854,7 @@
     </row>
     <row r="571" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A571" s="7"/>
-      <c r="B571" s="7"/>
+      <c r="B571" s="12"/>
       <c r="C571" s="7"/>
       <c r="D571" s="7"/>
       <c r="E571" s="12"/>
@@ -18869,7 +18880,7 @@
     </row>
     <row r="572" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A572" s="7"/>
-      <c r="B572" s="7"/>
+      <c r="B572" s="12"/>
       <c r="C572" s="7"/>
       <c r="D572" s="7"/>
       <c r="E572" s="12"/>
@@ -18895,7 +18906,7 @@
     </row>
     <row r="573" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A573" s="7"/>
-      <c r="B573" s="7"/>
+      <c r="B573" s="12"/>
       <c r="C573" s="7"/>
       <c r="D573" s="7"/>
       <c r="E573" s="12"/>
@@ -18921,7 +18932,7 @@
     </row>
     <row r="574" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A574" s="7"/>
-      <c r="B574" s="7"/>
+      <c r="B574" s="12"/>
       <c r="C574" s="7"/>
       <c r="D574" s="7"/>
       <c r="E574" s="12"/>
@@ -18947,7 +18958,7 @@
     </row>
     <row r="575" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A575" s="7"/>
-      <c r="B575" s="7"/>
+      <c r="B575" s="12"/>
       <c r="C575" s="7"/>
       <c r="D575" s="7"/>
       <c r="E575" s="12"/>
@@ -18973,7 +18984,7 @@
     </row>
     <row r="576" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A576" s="7"/>
-      <c r="B576" s="7"/>
+      <c r="B576" s="12"/>
       <c r="C576" s="7"/>
       <c r="D576" s="7"/>
       <c r="E576" s="12"/>
@@ -18999,7 +19010,7 @@
     </row>
     <row r="577" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A577" s="7"/>
-      <c r="B577" s="7"/>
+      <c r="B577" s="12"/>
       <c r="C577" s="7"/>
       <c r="D577" s="7"/>
       <c r="E577" s="12"/>
@@ -19025,7 +19036,7 @@
     </row>
     <row r="578" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A578" s="7"/>
-      <c r="B578" s="7"/>
+      <c r="B578" s="12"/>
       <c r="C578" s="7"/>
       <c r="D578" s="7"/>
       <c r="E578" s="12"/>
@@ -19051,7 +19062,7 @@
     </row>
     <row r="579" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A579" s="7"/>
-      <c r="B579" s="7"/>
+      <c r="B579" s="12"/>
       <c r="C579" s="7"/>
       <c r="D579" s="7"/>
       <c r="E579" s="12"/>
@@ -19077,7 +19088,7 @@
     </row>
     <row r="580" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A580" s="7"/>
-      <c r="B580" s="7"/>
+      <c r="B580" s="12"/>
       <c r="C580" s="7"/>
       <c r="D580" s="7"/>
       <c r="E580" s="12"/>
@@ -19103,7 +19114,7 @@
     </row>
     <row r="581" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A581" s="7"/>
-      <c r="B581" s="7"/>
+      <c r="B581" s="12"/>
       <c r="C581" s="7"/>
       <c r="D581" s="7"/>
       <c r="E581" s="12"/>
@@ -19129,7 +19140,7 @@
     </row>
     <row r="582" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A582" s="7"/>
-      <c r="B582" s="7"/>
+      <c r="B582" s="12"/>
       <c r="C582" s="7"/>
       <c r="D582" s="7"/>
       <c r="E582" s="12"/>
@@ -19155,7 +19166,7 @@
     </row>
     <row r="583" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A583" s="7"/>
-      <c r="B583" s="7"/>
+      <c r="B583" s="12"/>
       <c r="C583" s="7"/>
       <c r="D583" s="7"/>
       <c r="E583" s="12"/>
@@ -19181,7 +19192,7 @@
     </row>
     <row r="584" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A584" s="7"/>
-      <c r="B584" s="7"/>
+      <c r="B584" s="12"/>
       <c r="C584" s="7"/>
       <c r="D584" s="7"/>
       <c r="E584" s="12"/>
@@ -19207,7 +19218,7 @@
     </row>
     <row r="585" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A585" s="7"/>
-      <c r="B585" s="7"/>
+      <c r="B585" s="12"/>
       <c r="C585" s="7"/>
       <c r="D585" s="7"/>
       <c r="E585" s="12"/>
@@ -19233,7 +19244,7 @@
     </row>
     <row r="586" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A586" s="7"/>
-      <c r="B586" s="7"/>
+      <c r="B586" s="12"/>
       <c r="C586" s="7"/>
       <c r="D586" s="7"/>
       <c r="E586" s="12"/>
@@ -19259,7 +19270,7 @@
     </row>
     <row r="587" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A587" s="7"/>
-      <c r="B587" s="7"/>
+      <c r="B587" s="12"/>
       <c r="C587" s="7"/>
       <c r="D587" s="7"/>
       <c r="E587" s="12"/>
@@ -19285,7 +19296,7 @@
     </row>
     <row r="588" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A588" s="7"/>
-      <c r="B588" s="7"/>
+      <c r="B588" s="12"/>
       <c r="C588" s="7"/>
       <c r="D588" s="7"/>
       <c r="E588" s="12"/>
@@ -19311,7 +19322,7 @@
     </row>
     <row r="589" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A589" s="7"/>
-      <c r="B589" s="7"/>
+      <c r="B589" s="12"/>
       <c r="C589" s="7"/>
       <c r="D589" s="7"/>
       <c r="E589" s="12"/>
@@ -19337,7 +19348,7 @@
     </row>
     <row r="590" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A590" s="7"/>
-      <c r="B590" s="7"/>
+      <c r="B590" s="12"/>
       <c r="C590" s="7"/>
       <c r="D590" s="7"/>
       <c r="E590" s="12"/>
@@ -19363,7 +19374,7 @@
     </row>
     <row r="591" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A591" s="7"/>
-      <c r="B591" s="7"/>
+      <c r="B591" s="12"/>
       <c r="C591" s="7"/>
       <c r="D591" s="7"/>
       <c r="E591" s="12"/>
@@ -19389,7 +19400,7 @@
     </row>
     <row r="592" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A592" s="7"/>
-      <c r="B592" s="7"/>
+      <c r="B592" s="12"/>
       <c r="C592" s="7"/>
       <c r="D592" s="7"/>
       <c r="E592" s="12"/>
@@ -19415,7 +19426,7 @@
     </row>
     <row r="593" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A593" s="7"/>
-      <c r="B593" s="7"/>
+      <c r="B593" s="12"/>
       <c r="C593" s="7"/>
       <c r="D593" s="7"/>
       <c r="E593" s="12"/>
@@ -19441,7 +19452,7 @@
     </row>
     <row r="594" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A594" s="7"/>
-      <c r="B594" s="7"/>
+      <c r="B594" s="12"/>
       <c r="C594" s="7"/>
       <c r="D594" s="7"/>
       <c r="E594" s="12"/>
@@ -19467,7 +19478,7 @@
     </row>
     <row r="595" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A595" s="7"/>
-      <c r="B595" s="7"/>
+      <c r="B595" s="12"/>
       <c r="C595" s="7"/>
       <c r="D595" s="7"/>
       <c r="E595" s="12"/>
@@ -19493,7 +19504,7 @@
     </row>
     <row r="596" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A596" s="7"/>
-      <c r="B596" s="7"/>
+      <c r="B596" s="12"/>
       <c r="C596" s="7"/>
       <c r="D596" s="7"/>
       <c r="E596" s="12"/>
@@ -19519,7 +19530,7 @@
     </row>
     <row r="597" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A597" s="7"/>
-      <c r="B597" s="7"/>
+      <c r="B597" s="12"/>
       <c r="C597" s="7"/>
       <c r="D597" s="7"/>
       <c r="E597" s="12"/>
@@ -19545,7 +19556,7 @@
     </row>
     <row r="598" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A598" s="7"/>
-      <c r="B598" s="7"/>
+      <c r="B598" s="12"/>
       <c r="C598" s="7"/>
       <c r="D598" s="7"/>
       <c r="E598" s="12"/>
@@ -19571,7 +19582,7 @@
     </row>
     <row r="599" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A599" s="7"/>
-      <c r="B599" s="7"/>
+      <c r="B599" s="12"/>
       <c r="C599" s="7"/>
       <c r="D599" s="7"/>
       <c r="E599" s="12"/>
@@ -19597,7 +19608,7 @@
     </row>
     <row r="600" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A600" s="7"/>
-      <c r="B600" s="7"/>
+      <c r="B600" s="12"/>
       <c r="C600" s="7"/>
       <c r="D600" s="7"/>
       <c r="E600" s="12"/>
@@ -19623,7 +19634,7 @@
     </row>
     <row r="601" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A601" s="7"/>
-      <c r="B601" s="7"/>
+      <c r="B601" s="12"/>
       <c r="C601" s="7"/>
       <c r="D601" s="7"/>
       <c r="E601" s="12"/>
@@ -19649,7 +19660,7 @@
     </row>
     <row r="602" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A602" s="7"/>
-      <c r="B602" s="7"/>
+      <c r="B602" s="12"/>
       <c r="C602" s="7"/>
       <c r="D602" s="7"/>
       <c r="E602" s="12"/>
@@ -19675,7 +19686,7 @@
     </row>
     <row r="603" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A603" s="7"/>
-      <c r="B603" s="7"/>
+      <c r="B603" s="12"/>
       <c r="C603" s="7"/>
       <c r="D603" s="7"/>
       <c r="E603" s="12"/>
@@ -19701,7 +19712,7 @@
     </row>
     <row r="604" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A604" s="7"/>
-      <c r="B604" s="7"/>
+      <c r="B604" s="12"/>
       <c r="C604" s="7"/>
       <c r="D604" s="7"/>
       <c r="E604" s="12"/>
@@ -19727,7 +19738,7 @@
     </row>
     <row r="605" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A605" s="7"/>
-      <c r="B605" s="7"/>
+      <c r="B605" s="12"/>
       <c r="C605" s="7"/>
       <c r="D605" s="7"/>
       <c r="E605" s="12"/>
@@ -19753,7 +19764,7 @@
     </row>
     <row r="606" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A606" s="7"/>
-      <c r="B606" s="7"/>
+      <c r="B606" s="12"/>
       <c r="C606" s="7"/>
       <c r="D606" s="7"/>
       <c r="E606" s="12"/>
@@ -19779,7 +19790,7 @@
     </row>
     <row r="607" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A607" s="7"/>
-      <c r="B607" s="7"/>
+      <c r="B607" s="12"/>
       <c r="C607" s="7"/>
       <c r="D607" s="7"/>
       <c r="E607" s="12"/>
@@ -19805,7 +19816,7 @@
     </row>
     <row r="608" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A608" s="7"/>
-      <c r="B608" s="7"/>
+      <c r="B608" s="12"/>
       <c r="C608" s="7"/>
       <c r="D608" s="7"/>
       <c r="E608" s="12"/>
@@ -19831,7 +19842,7 @@
     </row>
     <row r="609" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A609" s="7"/>
-      <c r="B609" s="7"/>
+      <c r="B609" s="12"/>
       <c r="C609" s="7"/>
       <c r="D609" s="7"/>
       <c r="E609" s="12"/>
@@ -19857,7 +19868,7 @@
     </row>
     <row r="610" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A610" s="7"/>
-      <c r="B610" s="7"/>
+      <c r="B610" s="12"/>
       <c r="C610" s="7"/>
       <c r="D610" s="7"/>
       <c r="E610" s="12"/>
@@ -19883,7 +19894,7 @@
     </row>
     <row r="611" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A611" s="7"/>
-      <c r="B611" s="7"/>
+      <c r="B611" s="12"/>
       <c r="C611" s="7"/>
       <c r="D611" s="7"/>
       <c r="E611" s="12"/>
@@ -19909,7 +19920,7 @@
     </row>
     <row r="612" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A612" s="7"/>
-      <c r="B612" s="7"/>
+      <c r="B612" s="12"/>
       <c r="C612" s="7"/>
       <c r="D612" s="7"/>
       <c r="E612" s="12"/>
@@ -19935,7 +19946,7 @@
     </row>
     <row r="613" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A613" s="7"/>
-      <c r="B613" s="7"/>
+      <c r="B613" s="12"/>
       <c r="C613" s="7"/>
       <c r="D613" s="7"/>
       <c r="E613" s="12"/>
@@ -19961,7 +19972,7 @@
     </row>
     <row r="614" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A614" s="7"/>
-      <c r="B614" s="7"/>
+      <c r="B614" s="12"/>
       <c r="C614" s="7"/>
       <c r="D614" s="7"/>
       <c r="E614" s="12"/>
@@ -19987,7 +19998,7 @@
     </row>
     <row r="615" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A615" s="7"/>
-      <c r="B615" s="7"/>
+      <c r="B615" s="12"/>
       <c r="C615" s="7"/>
       <c r="D615" s="7"/>
       <c r="E615" s="12"/>
@@ -20013,7 +20024,7 @@
     </row>
     <row r="616" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A616" s="7"/>
-      <c r="B616" s="7"/>
+      <c r="B616" s="12"/>
       <c r="C616" s="7"/>
       <c r="D616" s="7"/>
       <c r="E616" s="12"/>
@@ -20039,7 +20050,7 @@
     </row>
     <row r="617" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A617" s="7"/>
-      <c r="B617" s="7"/>
+      <c r="B617" s="12"/>
       <c r="C617" s="7"/>
       <c r="D617" s="7"/>
       <c r="E617" s="12"/>
@@ -20065,7 +20076,7 @@
     </row>
     <row r="618" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A618" s="7"/>
-      <c r="B618" s="7"/>
+      <c r="B618" s="12"/>
       <c r="C618" s="7"/>
       <c r="D618" s="7"/>
       <c r="E618" s="12"/>
@@ -20091,7 +20102,7 @@
     </row>
     <row r="619" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A619" s="7"/>
-      <c r="B619" s="7"/>
+      <c r="B619" s="12"/>
       <c r="C619" s="7"/>
       <c r="D619" s="7"/>
       <c r="E619" s="12"/>
@@ -20117,7 +20128,7 @@
     </row>
     <row r="620" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A620" s="7"/>
-      <c r="B620" s="7"/>
+      <c r="B620" s="12"/>
       <c r="C620" s="7"/>
       <c r="D620" s="7"/>
       <c r="E620" s="12"/>
@@ -20143,7 +20154,7 @@
     </row>
     <row r="621" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A621" s="7"/>
-      <c r="B621" s="7"/>
+      <c r="B621" s="12"/>
       <c r="C621" s="7"/>
       <c r="D621" s="7"/>
       <c r="E621" s="12"/>
@@ -20169,7 +20180,7 @@
     </row>
     <row r="622" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A622" s="7"/>
-      <c r="B622" s="7"/>
+      <c r="B622" s="12"/>
       <c r="C622" s="7"/>
       <c r="D622" s="7"/>
       <c r="E622" s="12"/>
@@ -20195,7 +20206,7 @@
     </row>
     <row r="623" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A623" s="7"/>
-      <c r="B623" s="7"/>
+      <c r="B623" s="12"/>
       <c r="C623" s="7"/>
       <c r="D623" s="7"/>
       <c r="E623" s="12"/>
@@ -20221,7 +20232,7 @@
     </row>
     <row r="624" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A624" s="7"/>
-      <c r="B624" s="7"/>
+      <c r="B624" s="12"/>
       <c r="C624" s="7"/>
       <c r="D624" s="7"/>
       <c r="E624" s="12"/>
@@ -20247,7 +20258,7 @@
     </row>
     <row r="625" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A625" s="7"/>
-      <c r="B625" s="7"/>
+      <c r="B625" s="12"/>
       <c r="C625" s="7"/>
       <c r="D625" s="7"/>
       <c r="E625" s="12"/>
@@ -20273,7 +20284,7 @@
     </row>
     <row r="626" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A626" s="7"/>
-      <c r="B626" s="7"/>
+      <c r="B626" s="12"/>
       <c r="C626" s="7"/>
       <c r="D626" s="7"/>
       <c r="E626" s="12"/>
@@ -20299,7 +20310,7 @@
     </row>
     <row r="627" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A627" s="7"/>
-      <c r="B627" s="7"/>
+      <c r="B627" s="12"/>
       <c r="C627" s="7"/>
       <c r="D627" s="7"/>
       <c r="E627" s="12"/>
@@ -20325,7 +20336,7 @@
     </row>
     <row r="628" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A628" s="7"/>
-      <c r="B628" s="7"/>
+      <c r="B628" s="12"/>
       <c r="C628" s="7"/>
       <c r="D628" s="7"/>
       <c r="E628" s="12"/>
@@ -20351,7 +20362,7 @@
     </row>
     <row r="629" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A629" s="7"/>
-      <c r="B629" s="7"/>
+      <c r="B629" s="12"/>
       <c r="C629" s="7"/>
       <c r="D629" s="7"/>
       <c r="E629" s="12"/>
@@ -20377,7 +20388,7 @@
     </row>
     <row r="630" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A630" s="7"/>
-      <c r="B630" s="7"/>
+      <c r="B630" s="12"/>
       <c r="C630" s="7"/>
       <c r="D630" s="7"/>
       <c r="E630" s="12"/>
@@ -20403,7 +20414,7 @@
     </row>
     <row r="631" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A631" s="7"/>
-      <c r="B631" s="7"/>
+      <c r="B631" s="12"/>
       <c r="C631" s="7"/>
       <c r="D631" s="7"/>
       <c r="E631" s="12"/>
@@ -20429,7 +20440,7 @@
     </row>
     <row r="632" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A632" s="7"/>
-      <c r="B632" s="7"/>
+      <c r="B632" s="12"/>
       <c r="C632" s="7"/>
       <c r="D632" s="7"/>
       <c r="E632" s="12"/>
@@ -20455,7 +20466,7 @@
     </row>
     <row r="633" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A633" s="7"/>
-      <c r="B633" s="7"/>
+      <c r="B633" s="12"/>
       <c r="C633" s="7"/>
       <c r="D633" s="7"/>
       <c r="E633" s="12"/>
@@ -20481,7 +20492,7 @@
     </row>
     <row r="634" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A634" s="7"/>
-      <c r="B634" s="7"/>
+      <c r="B634" s="12"/>
       <c r="C634" s="7"/>
       <c r="D634" s="7"/>
       <c r="E634" s="12"/>
@@ -20507,7 +20518,7 @@
     </row>
     <row r="635" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A635" s="7"/>
-      <c r="B635" s="7"/>
+      <c r="B635" s="12"/>
       <c r="C635" s="7"/>
       <c r="D635" s="7"/>
       <c r="E635" s="12"/>
@@ -20533,7 +20544,7 @@
     </row>
     <row r="636" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A636" s="7"/>
-      <c r="B636" s="7"/>
+      <c r="B636" s="12"/>
       <c r="C636" s="7"/>
       <c r="D636" s="7"/>
       <c r="E636" s="12"/>
@@ -20559,7 +20570,7 @@
     </row>
     <row r="637" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A637" s="7"/>
-      <c r="B637" s="7"/>
+      <c r="B637" s="12"/>
       <c r="C637" s="7"/>
       <c r="D637" s="7"/>
       <c r="E637" s="12"/>
@@ -20585,7 +20596,7 @@
     </row>
     <row r="638" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A638" s="7"/>
-      <c r="B638" s="7"/>
+      <c r="B638" s="12"/>
       <c r="C638" s="7"/>
       <c r="D638" s="7"/>
       <c r="E638" s="12"/>
@@ -20611,7 +20622,7 @@
     </row>
     <row r="639" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A639" s="7"/>
-      <c r="B639" s="7"/>
+      <c r="B639" s="12"/>
       <c r="C639" s="7"/>
       <c r="D639" s="7"/>
       <c r="E639" s="12"/>
@@ -20637,7 +20648,7 @@
     </row>
     <row r="640" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A640" s="7"/>
-      <c r="B640" s="7"/>
+      <c r="B640" s="12"/>
       <c r="C640" s="7"/>
       <c r="D640" s="7"/>
       <c r="E640" s="12"/>
@@ -20663,7 +20674,7 @@
     </row>
     <row r="641" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A641" s="7"/>
-      <c r="B641" s="7"/>
+      <c r="B641" s="12"/>
       <c r="C641" s="7"/>
       <c r="D641" s="7"/>
       <c r="E641" s="12"/>
@@ -20689,7 +20700,7 @@
     </row>
     <row r="642" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A642" s="7"/>
-      <c r="B642" s="7"/>
+      <c r="B642" s="12"/>
       <c r="C642" s="7"/>
       <c r="D642" s="7"/>
       <c r="E642" s="12"/>
@@ -20715,7 +20726,7 @@
     </row>
     <row r="643" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A643" s="7"/>
-      <c r="B643" s="7"/>
+      <c r="B643" s="12"/>
       <c r="C643" s="7"/>
       <c r="D643" s="7"/>
       <c r="E643" s="12"/>
@@ -20741,7 +20752,7 @@
     </row>
     <row r="644" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A644" s="7"/>
-      <c r="B644" s="7"/>
+      <c r="B644" s="12"/>
       <c r="C644" s="7"/>
       <c r="D644" s="7"/>
       <c r="E644" s="12"/>
@@ -20767,7 +20778,7 @@
     </row>
     <row r="645" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A645" s="7"/>
-      <c r="B645" s="7"/>
+      <c r="B645" s="12"/>
       <c r="C645" s="7"/>
       <c r="D645" s="7"/>
       <c r="E645" s="12"/>
@@ -20793,7 +20804,7 @@
     </row>
     <row r="646" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A646" s="7"/>
-      <c r="B646" s="7"/>
+      <c r="B646" s="12"/>
       <c r="C646" s="7"/>
       <c r="D646" s="7"/>
       <c r="E646" s="12"/>
@@ -20819,7 +20830,7 @@
     </row>
     <row r="647" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A647" s="7"/>
-      <c r="B647" s="7"/>
+      <c r="B647" s="12"/>
       <c r="C647" s="7"/>
       <c r="D647" s="7"/>
       <c r="E647" s="12"/>
@@ -20845,7 +20856,7 @@
     </row>
     <row r="648" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A648" s="7"/>
-      <c r="B648" s="7"/>
+      <c r="B648" s="12"/>
       <c r="C648" s="7"/>
       <c r="D648" s="7"/>
       <c r="E648" s="12"/>
@@ -20871,7 +20882,7 @@
     </row>
     <row r="649" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A649" s="7"/>
-      <c r="B649" s="7"/>
+      <c r="B649" s="12"/>
       <c r="C649" s="7"/>
       <c r="D649" s="7"/>
       <c r="E649" s="12"/>
@@ -20897,7 +20908,7 @@
     </row>
     <row r="650" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A650" s="7"/>
-      <c r="B650" s="7"/>
+      <c r="B650" s="12"/>
       <c r="C650" s="7"/>
       <c r="D650" s="7"/>
       <c r="E650" s="12"/>
@@ -20923,7 +20934,7 @@
     </row>
     <row r="651" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A651" s="7"/>
-      <c r="B651" s="7"/>
+      <c r="B651" s="12"/>
       <c r="C651" s="7"/>
       <c r="D651" s="7"/>
       <c r="E651" s="12"/>
@@ -20949,7 +20960,7 @@
     </row>
     <row r="652" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A652" s="7"/>
-      <c r="B652" s="7"/>
+      <c r="B652" s="12"/>
       <c r="C652" s="7"/>
       <c r="D652" s="7"/>
       <c r="E652" s="12"/>
@@ -20975,7 +20986,7 @@
     </row>
     <row r="653" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A653" s="7"/>
-      <c r="B653" s="7"/>
+      <c r="B653" s="12"/>
       <c r="C653" s="7"/>
       <c r="D653" s="7"/>
       <c r="E653" s="12"/>
@@ -21001,7 +21012,7 @@
     </row>
     <row r="654" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A654" s="7"/>
-      <c r="B654" s="7"/>
+      <c r="B654" s="12"/>
       <c r="C654" s="7"/>
       <c r="D654" s="7"/>
       <c r="E654" s="12"/>
@@ -21027,7 +21038,7 @@
     </row>
     <row r="655" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A655" s="7"/>
-      <c r="B655" s="7"/>
+      <c r="B655" s="12"/>
       <c r="C655" s="7"/>
       <c r="D655" s="7"/>
       <c r="E655" s="12"/>
@@ -21053,7 +21064,7 @@
     </row>
     <row r="656" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A656" s="7"/>
-      <c r="B656" s="7"/>
+      <c r="B656" s="12"/>
       <c r="C656" s="7"/>
       <c r="D656" s="7"/>
       <c r="E656" s="12"/>
@@ -21079,7 +21090,7 @@
     </row>
     <row r="657" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A657" s="7"/>
-      <c r="B657" s="7"/>
+      <c r="B657" s="12"/>
       <c r="C657" s="7"/>
       <c r="D657" s="7"/>
       <c r="E657" s="12"/>
@@ -21105,7 +21116,7 @@
     </row>
     <row r="658" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A658" s="7"/>
-      <c r="B658" s="7"/>
+      <c r="B658" s="12"/>
       <c r="C658" s="7"/>
       <c r="D658" s="7"/>
       <c r="E658" s="12"/>
@@ -21131,7 +21142,7 @@
     </row>
     <row r="659" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A659" s="7"/>
-      <c r="B659" s="7"/>
+      <c r="B659" s="12"/>
       <c r="C659" s="7"/>
       <c r="D659" s="7"/>
       <c r="E659" s="12"/>
@@ -21157,7 +21168,7 @@
     </row>
     <row r="660" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A660" s="7"/>
-      <c r="B660" s="7"/>
+      <c r="B660" s="12"/>
       <c r="C660" s="7"/>
       <c r="D660" s="7"/>
       <c r="E660" s="12"/>
@@ -21183,7 +21194,7 @@
     </row>
     <row r="661" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A661" s="7"/>
-      <c r="B661" s="7"/>
+      <c r="B661" s="12"/>
       <c r="C661" s="7"/>
       <c r="D661" s="7"/>
       <c r="E661" s="12"/>
@@ -21209,7 +21220,7 @@
     </row>
     <row r="662" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A662" s="7"/>
-      <c r="B662" s="7"/>
+      <c r="B662" s="12"/>
       <c r="C662" s="7"/>
       <c r="D662" s="7"/>
       <c r="E662" s="12"/>
@@ -21235,7 +21246,7 @@
     </row>
     <row r="663" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A663" s="7"/>
-      <c r="B663" s="7"/>
+      <c r="B663" s="12"/>
       <c r="C663" s="7"/>
       <c r="D663" s="7"/>
       <c r="E663" s="12"/>
@@ -21261,7 +21272,7 @@
     </row>
     <row r="664" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A664" s="7"/>
-      <c r="B664" s="7"/>
+      <c r="B664" s="12"/>
       <c r="C664" s="7"/>
       <c r="D664" s="7"/>
       <c r="E664" s="12"/>
@@ -21287,7 +21298,7 @@
     </row>
     <row r="665" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A665" s="7"/>
-      <c r="B665" s="7"/>
+      <c r="B665" s="12"/>
       <c r="C665" s="7"/>
       <c r="D665" s="7"/>
       <c r="E665" s="12"/>
@@ -21313,7 +21324,7 @@
     </row>
     <row r="666" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A666" s="7"/>
-      <c r="B666" s="7"/>
+      <c r="B666" s="12"/>
       <c r="C666" s="7"/>
       <c r="D666" s="7"/>
       <c r="E666" s="12"/>
@@ -21339,7 +21350,7 @@
     </row>
     <row r="667" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A667" s="7"/>
-      <c r="B667" s="7"/>
+      <c r="B667" s="12"/>
       <c r="C667" s="7"/>
       <c r="D667" s="7"/>
       <c r="E667" s="12"/>
@@ -21365,7 +21376,7 @@
     </row>
     <row r="668" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A668" s="7"/>
-      <c r="B668" s="7"/>
+      <c r="B668" s="12"/>
       <c r="C668" s="7"/>
       <c r="D668" s="7"/>
       <c r="E668" s="12"/>
@@ -21391,7 +21402,7 @@
     </row>
     <row r="669" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A669" s="7"/>
-      <c r="B669" s="7"/>
+      <c r="B669" s="12"/>
       <c r="C669" s="7"/>
       <c r="D669" s="7"/>
       <c r="E669" s="12"/>
@@ -21417,7 +21428,7 @@
     </row>
     <row r="670" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A670" s="7"/>
-      <c r="B670" s="7"/>
+      <c r="B670" s="12"/>
       <c r="C670" s="7"/>
       <c r="D670" s="7"/>
       <c r="E670" s="12"/>
@@ -21443,7 +21454,7 @@
     </row>
     <row r="671" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A671" s="7"/>
-      <c r="B671" s="7"/>
+      <c r="B671" s="12"/>
       <c r="C671" s="7"/>
       <c r="D671" s="7"/>
       <c r="E671" s="12"/>
@@ -21469,7 +21480,7 @@
     </row>
     <row r="672" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A672" s="7"/>
-      <c r="B672" s="7"/>
+      <c r="B672" s="12"/>
       <c r="C672" s="7"/>
       <c r="D672" s="7"/>
       <c r="E672" s="12"/>
@@ -21495,7 +21506,7 @@
     </row>
     <row r="673" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A673" s="7"/>
-      <c r="B673" s="7"/>
+      <c r="B673" s="12"/>
       <c r="C673" s="7"/>
       <c r="D673" s="7"/>
       <c r="E673" s="12"/>
@@ -21521,7 +21532,7 @@
     </row>
     <row r="674" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A674" s="7"/>
-      <c r="B674" s="7"/>
+      <c r="B674" s="12"/>
       <c r="C674" s="7"/>
       <c r="D674" s="7"/>
       <c r="E674" s="12"/>
@@ -21547,7 +21558,7 @@
     </row>
     <row r="675" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A675" s="7"/>
-      <c r="B675" s="7"/>
+      <c r="B675" s="12"/>
       <c r="C675" s="7"/>
       <c r="D675" s="7"/>
       <c r="E675" s="12"/>
@@ -21573,7 +21584,7 @@
     </row>
     <row r="676" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A676" s="7"/>
-      <c r="B676" s="7"/>
+      <c r="B676" s="12"/>
       <c r="C676" s="7"/>
       <c r="D676" s="7"/>
       <c r="E676" s="12"/>
@@ -21599,7 +21610,7 @@
     </row>
     <row r="677" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A677" s="7"/>
-      <c r="B677" s="7"/>
+      <c r="B677" s="12"/>
       <c r="C677" s="7"/>
       <c r="D677" s="7"/>
       <c r="E677" s="12"/>
@@ -21625,7 +21636,7 @@
     </row>
     <row r="678" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A678" s="7"/>
-      <c r="B678" s="7"/>
+      <c r="B678" s="12"/>
       <c r="C678" s="7"/>
       <c r="D678" s="7"/>
       <c r="E678" s="12"/>
@@ -21651,7 +21662,7 @@
     </row>
     <row r="679" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A679" s="7"/>
-      <c r="B679" s="7"/>
+      <c r="B679" s="12"/>
       <c r="C679" s="7"/>
       <c r="D679" s="7"/>
       <c r="E679" s="12"/>
@@ -21677,7 +21688,7 @@
     </row>
     <row r="680" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A680" s="7"/>
-      <c r="B680" s="7"/>
+      <c r="B680" s="12"/>
       <c r="C680" s="7"/>
       <c r="D680" s="7"/>
       <c r="E680" s="12"/>
@@ -21703,7 +21714,7 @@
     </row>
     <row r="681" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A681" s="7"/>
-      <c r="B681" s="7"/>
+      <c r="B681" s="12"/>
       <c r="C681" s="7"/>
       <c r="D681" s="7"/>
       <c r="E681" s="12"/>
@@ -21729,7 +21740,7 @@
     </row>
     <row r="682" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A682" s="7"/>
-      <c r="B682" s="7"/>
+      <c r="B682" s="12"/>
       <c r="C682" s="7"/>
       <c r="D682" s="7"/>
       <c r="E682" s="12"/>
@@ -21755,7 +21766,7 @@
     </row>
     <row r="683" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A683" s="7"/>
-      <c r="B683" s="7"/>
+      <c r="B683" s="12"/>
       <c r="C683" s="7"/>
       <c r="D683" s="7"/>
       <c r="E683" s="12"/>
@@ -21781,7 +21792,7 @@
     </row>
     <row r="684" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A684" s="7"/>
-      <c r="B684" s="7"/>
+      <c r="B684" s="12"/>
       <c r="C684" s="7"/>
       <c r="D684" s="7"/>
       <c r="E684" s="12"/>
@@ -21807,7 +21818,7 @@
     </row>
     <row r="685" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A685" s="7"/>
-      <c r="B685" s="7"/>
+      <c r="B685" s="12"/>
       <c r="C685" s="7"/>
       <c r="D685" s="7"/>
       <c r="E685" s="12"/>
@@ -21833,7 +21844,7 @@
     </row>
     <row r="686" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A686" s="7"/>
-      <c r="B686" s="7"/>
+      <c r="B686" s="12"/>
       <c r="C686" s="7"/>
       <c r="D686" s="7"/>
       <c r="E686" s="12"/>
@@ -21859,7 +21870,7 @@
     </row>
     <row r="687" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A687" s="7"/>
-      <c r="B687" s="7"/>
+      <c r="B687" s="12"/>
       <c r="C687" s="7"/>
       <c r="D687" s="7"/>
       <c r="E687" s="12"/>
@@ -21885,7 +21896,7 @@
     </row>
     <row r="688" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A688" s="7"/>
-      <c r="B688" s="7"/>
+      <c r="B688" s="12"/>
       <c r="C688" s="7"/>
       <c r="D688" s="7"/>
       <c r="E688" s="12"/>
@@ -21911,7 +21922,7 @@
     </row>
     <row r="689" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A689" s="7"/>
-      <c r="B689" s="7"/>
+      <c r="B689" s="12"/>
       <c r="C689" s="7"/>
       <c r="D689" s="7"/>
       <c r="E689" s="12"/>
@@ -21937,7 +21948,7 @@
     </row>
     <row r="690" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A690" s="7"/>
-      <c r="B690" s="7"/>
+      <c r="B690" s="12"/>
       <c r="C690" s="7"/>
       <c r="D690" s="7"/>
       <c r="E690" s="12"/>
@@ -21963,7 +21974,7 @@
     </row>
     <row r="691" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A691" s="7"/>
-      <c r="B691" s="7"/>
+      <c r="B691" s="12"/>
       <c r="C691" s="7"/>
       <c r="D691" s="7"/>
       <c r="E691" s="12"/>
@@ -21989,7 +22000,7 @@
     </row>
     <row r="692" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A692" s="7"/>
-      <c r="B692" s="7"/>
+      <c r="B692" s="12"/>
       <c r="C692" s="7"/>
       <c r="D692" s="7"/>
       <c r="E692" s="12"/>
@@ -22015,7 +22026,7 @@
     </row>
     <row r="693" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A693" s="7"/>
-      <c r="B693" s="7"/>
+      <c r="B693" s="12"/>
       <c r="C693" s="7"/>
       <c r="D693" s="7"/>
       <c r="E693" s="12"/>
@@ -22041,7 +22052,7 @@
     </row>
     <row r="694" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A694" s="7"/>
-      <c r="B694" s="7"/>
+      <c r="B694" s="12"/>
       <c r="C694" s="7"/>
       <c r="D694" s="7"/>
       <c r="E694" s="12"/>
@@ -22067,7 +22078,7 @@
     </row>
     <row r="695" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A695" s="7"/>
-      <c r="B695" s="7"/>
+      <c r="B695" s="12"/>
       <c r="C695" s="7"/>
       <c r="D695" s="7"/>
       <c r="E695" s="12"/>
@@ -22093,7 +22104,7 @@
     </row>
     <row r="696" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A696" s="7"/>
-      <c r="B696" s="7"/>
+      <c r="B696" s="12"/>
       <c r="C696" s="7"/>
       <c r="D696" s="7"/>
       <c r="E696" s="12"/>
@@ -22119,7 +22130,7 @@
     </row>
     <row r="697" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A697" s="7"/>
-      <c r="B697" s="7"/>
+      <c r="B697" s="12"/>
       <c r="C697" s="7"/>
       <c r="D697" s="7"/>
       <c r="E697" s="12"/>
@@ -22145,7 +22156,7 @@
     </row>
     <row r="698" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A698" s="7"/>
-      <c r="B698" s="7"/>
+      <c r="B698" s="12"/>
       <c r="C698" s="7"/>
       <c r="D698" s="7"/>
       <c r="E698" s="12"/>
@@ -22171,7 +22182,7 @@
     </row>
     <row r="699" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A699" s="7"/>
-      <c r="B699" s="7"/>
+      <c r="B699" s="12"/>
       <c r="C699" s="7"/>
       <c r="D699" s="7"/>
       <c r="E699" s="12"/>
@@ -22197,7 +22208,7 @@
     </row>
     <row r="700" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A700" s="7"/>
-      <c r="B700" s="7"/>
+      <c r="B700" s="12"/>
       <c r="C700" s="7"/>
       <c r="D700" s="7"/>
       <c r="E700" s="12"/>
@@ -22223,7 +22234,7 @@
     </row>
     <row r="701" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A701" s="7"/>
-      <c r="B701" s="7"/>
+      <c r="B701" s="12"/>
       <c r="C701" s="7"/>
       <c r="D701" s="7"/>
       <c r="E701" s="12"/>
@@ -22249,7 +22260,7 @@
     </row>
     <row r="702" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A702" s="7"/>
-      <c r="B702" s="7"/>
+      <c r="B702" s="12"/>
       <c r="C702" s="7"/>
       <c r="D702" s="7"/>
       <c r="E702" s="12"/>
@@ -22275,7 +22286,7 @@
     </row>
     <row r="703" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A703" s="7"/>
-      <c r="B703" s="7"/>
+      <c r="B703" s="12"/>
       <c r="C703" s="7"/>
       <c r="D703" s="7"/>
       <c r="E703" s="12"/>
@@ -22301,7 +22312,7 @@
     </row>
     <row r="704" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A704" s="7"/>
-      <c r="B704" s="7"/>
+      <c r="B704" s="12"/>
       <c r="C704" s="7"/>
       <c r="D704" s="7"/>
       <c r="E704" s="12"/>
@@ -22327,7 +22338,7 @@
     </row>
     <row r="705" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A705" s="7"/>
-      <c r="B705" s="7"/>
+      <c r="B705" s="12"/>
       <c r="C705" s="7"/>
       <c r="D705" s="7"/>
       <c r="E705" s="12"/>
@@ -22353,7 +22364,7 @@
     </row>
     <row r="706" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A706" s="7"/>
-      <c r="B706" s="7"/>
+      <c r="B706" s="12"/>
       <c r="C706" s="7"/>
       <c r="D706" s="7"/>
       <c r="E706" s="12"/>
@@ -22379,7 +22390,7 @@
     </row>
     <row r="707" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A707" s="7"/>
-      <c r="B707" s="7"/>
+      <c r="B707" s="12"/>
       <c r="C707" s="7"/>
       <c r="D707" s="7"/>
       <c r="E707" s="12"/>
@@ -22405,7 +22416,7 @@
     </row>
     <row r="708" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A708" s="7"/>
-      <c r="B708" s="7"/>
+      <c r="B708" s="12"/>
       <c r="C708" s="7"/>
       <c r="D708" s="7"/>
       <c r="E708" s="12"/>
@@ -22431,7 +22442,7 @@
     </row>
     <row r="709" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A709" s="7"/>
-      <c r="B709" s="7"/>
+      <c r="B709" s="12"/>
       <c r="C709" s="7"/>
       <c r="D709" s="7"/>
       <c r="E709" s="12"/>
@@ -22457,7 +22468,7 @@
     </row>
     <row r="710" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A710" s="7"/>
-      <c r="B710" s="7"/>
+      <c r="B710" s="12"/>
       <c r="C710" s="7"/>
       <c r="D710" s="7"/>
       <c r="E710" s="12"/>
@@ -22483,7 +22494,7 @@
     </row>
     <row r="711" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A711" s="7"/>
-      <c r="B711" s="7"/>
+      <c r="B711" s="12"/>
       <c r="C711" s="7"/>
       <c r="D711" s="7"/>
       <c r="E711" s="12"/>
@@ -22509,7 +22520,7 @@
     </row>
     <row r="712" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A712" s="7"/>
-      <c r="B712" s="7"/>
+      <c r="B712" s="12"/>
       <c r="C712" s="7"/>
       <c r="D712" s="7"/>
       <c r="E712" s="12"/>
@@ -22535,7 +22546,7 @@
     </row>
     <row r="713" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A713" s="7"/>
-      <c r="B713" s="7"/>
+      <c r="B713" s="12"/>
       <c r="C713" s="7"/>
       <c r="D713" s="7"/>
       <c r="E713" s="12"/>
@@ -22561,7 +22572,7 @@
     </row>
     <row r="714" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A714" s="7"/>
-      <c r="B714" s="7"/>
+      <c r="B714" s="12"/>
       <c r="C714" s="7"/>
       <c r="D714" s="7"/>
       <c r="E714" s="12"/>
@@ -22587,7 +22598,7 @@
     </row>
     <row r="715" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A715" s="7"/>
-      <c r="B715" s="7"/>
+      <c r="B715" s="12"/>
       <c r="C715" s="7"/>
       <c r="D715" s="7"/>
       <c r="E715" s="12"/>
@@ -22613,7 +22624,7 @@
     </row>
     <row r="716" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A716" s="7"/>
-      <c r="B716" s="7"/>
+      <c r="B716" s="12"/>
       <c r="C716" s="7"/>
       <c r="D716" s="7"/>
       <c r="E716" s="12"/>
@@ -22639,7 +22650,7 @@
     </row>
     <row r="717" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A717" s="7"/>
-      <c r="B717" s="7"/>
+      <c r="B717" s="12"/>
       <c r="C717" s="7"/>
       <c r="D717" s="7"/>
       <c r="E717" s="12"/>
@@ -22665,7 +22676,7 @@
     </row>
     <row r="718" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A718" s="7"/>
-      <c r="B718" s="7"/>
+      <c r="B718" s="12"/>
       <c r="C718" s="7"/>
       <c r="D718" s="7"/>
       <c r="E718" s="12"/>
@@ -22691,7 +22702,7 @@
     </row>
     <row r="719" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A719" s="7"/>
-      <c r="B719" s="7"/>
+      <c r="B719" s="12"/>
       <c r="C719" s="7"/>
       <c r="D719" s="7"/>
       <c r="E719" s="12"/>
@@ -22717,7 +22728,7 @@
     </row>
     <row r="720" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A720" s="7"/>
-      <c r="B720" s="7"/>
+      <c r="B720" s="12"/>
       <c r="C720" s="7"/>
       <c r="D720" s="7"/>
       <c r="E720" s="12"/>
@@ -22743,7 +22754,7 @@
     </row>
     <row r="721" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A721" s="7"/>
-      <c r="B721" s="7"/>
+      <c r="B721" s="12"/>
       <c r="C721" s="7"/>
       <c r="D721" s="7"/>
       <c r="E721" s="12"/>
@@ -22769,7 +22780,7 @@
     </row>
     <row r="722" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
-      <c r="B722" s="1"/>
+      <c r="B722" s="10"/>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -22795,7 +22806,7 @@
     </row>
     <row r="723" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
-      <c r="B723" s="1"/>
+      <c r="B723" s="10"/>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -22821,7 +22832,7 @@
     </row>
     <row r="724" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
-      <c r="B724" s="1"/>
+      <c r="B724" s="10"/>
       <c r="C724" s="1"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -22847,7 +22858,7 @@
     </row>
     <row r="725" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
-      <c r="B725" s="1"/>
+      <c r="B725" s="10"/>
       <c r="C725" s="1"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -22873,7 +22884,7 @@
     </row>
     <row r="726" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
-      <c r="B726" s="1"/>
+      <c r="B726" s="10"/>
       <c r="C726" s="1"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -22899,7 +22910,7 @@
     </row>
     <row r="727" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
-      <c r="B727" s="1"/>
+      <c r="B727" s="10"/>
       <c r="C727" s="1"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -22925,7 +22936,7 @@
     </row>
     <row r="728" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
-      <c r="B728" s="1"/>
+      <c r="B728" s="10"/>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -22951,7 +22962,7 @@
     </row>
     <row r="729" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
-      <c r="B729" s="1"/>
+      <c r="B729" s="10"/>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -22977,7 +22988,7 @@
     </row>
     <row r="730" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
-      <c r="B730" s="1"/>
+      <c r="B730" s="10"/>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -23003,7 +23014,7 @@
     </row>
     <row r="731" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
-      <c r="B731" s="1"/>
+      <c r="B731" s="10"/>
       <c r="C731" s="1"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -23029,7 +23040,7 @@
     </row>
     <row r="732" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
-      <c r="B732" s="1"/>
+      <c r="B732" s="10"/>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -23055,7 +23066,7 @@
     </row>
     <row r="733" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
-      <c r="B733" s="1"/>
+      <c r="B733" s="10"/>
       <c r="C733" s="1"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
